--- a/arms-import-export-91-23.xlsx
+++ b/arms-import-export-91-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bilko_Artem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mailb\OneDrive\Documents\GitHub\Sci-Py-Final-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8124C24B-DAB0-473F-979E-424C01531BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E418FCE5-16D2-433C-9860-9290C008BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="550">
   <si>
     <t>Totals</t>
   </si>
@@ -2026,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K538"/>
+  <dimension ref="A2:T538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="D541" sqref="D541"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="P275" sqref="P275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,12 +2047,12 @@
     <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2100,8 +2100,12 @@
       <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2135,8 +2139,12 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2170,8 +2178,12 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2205,8 +2217,12 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2256,12 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2275,8 +2295,12 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2310,8 +2334,12 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2345,8 +2373,12 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -2380,8 +2412,12 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2415,8 +2451,12 @@
       <c r="K13" s="1">
         <v>2.504424778761062E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2450,8 +2490,12 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2485,8 +2529,12 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2520,8 +2568,12 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2555,8 +2607,12 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2590,8 +2646,12 @@
       <c r="K18" s="1">
         <v>6.0973451327433629E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2625,8 +2685,12 @@
       <c r="K19" s="1">
         <v>2.3008849557522125E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2660,8 +2724,12 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2695,8 +2763,12 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2730,8 +2802,12 @@
       <c r="K22" s="1">
         <v>2.672566371681416E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2765,8 +2841,12 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2800,8 +2880,12 @@
       <c r="K24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2835,8 +2919,12 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2870,8 +2958,12 @@
       <c r="K26" s="1">
         <v>3.8938053097345134E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2905,8 +2997,12 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2940,8 +3036,12 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2975,8 +3075,12 @@
       <c r="K29" s="1">
         <v>1.7699115044247787E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3010,8 +3114,12 @@
       <c r="K30" s="1">
         <v>2.336283185840708E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -3045,8 +3153,12 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3080,8 +3192,12 @@
       <c r="K32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -3115,8 +3231,12 @@
       <c r="K33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -3150,8 +3270,12 @@
       <c r="K34" s="1">
         <v>2.7522123893805308E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -3185,8 +3309,12 @@
       <c r="K35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3220,8 +3348,12 @@
       <c r="K36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3255,8 +3387,12 @@
       <c r="K37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -3290,8 +3426,12 @@
       <c r="K38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -3325,8 +3465,12 @@
       <c r="K39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3360,8 +3504,12 @@
       <c r="K40" s="1">
         <v>6.0884955752212389E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>89</v>
       </c>
@@ -3395,8 +3543,12 @@
       <c r="K41" s="1">
         <v>1.4070796460176992E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -3430,8 +3582,12 @@
       <c r="K42" s="1">
         <v>4.8672566371681415E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -3465,8 +3621,12 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -3500,8 +3660,12 @@
       <c r="K44" s="1">
         <v>7.0796460176991149E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -3535,8 +3699,12 @@
       <c r="K45" s="1">
         <v>5.7743362831858408E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -3570,8 +3738,12 @@
       <c r="K46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -3605,8 +3777,12 @@
       <c r="K47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -3640,8 +3816,12 @@
       <c r="K48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -3675,8 +3855,12 @@
       <c r="K49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3710,8 +3894,12 @@
       <c r="K50" s="1">
         <v>3.5398230088495574E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -3745,8 +3933,12 @@
       <c r="K51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -3780,8 +3972,12 @@
       <c r="K52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -3815,8 +4011,12 @@
       <c r="K53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -3850,8 +4050,12 @@
       <c r="K54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -3885,8 +4089,12 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -3920,8 +4128,12 @@
       <c r="K56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -3955,8 +4167,12 @@
       <c r="K57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -3990,8 +4206,12 @@
       <c r="K58" s="1">
         <v>3.5398230088495576E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -4025,8 +4245,12 @@
       <c r="K59" s="1">
         <v>2.5486725663716814E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -4060,8 +4284,12 @@
       <c r="K60" s="1">
         <v>6.0053097345132742E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -4095,8 +4323,12 @@
       <c r="K61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -4130,8 +4362,12 @@
       <c r="K62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -4165,8 +4401,12 @@
       <c r="K63" s="1">
         <v>1.1592920353982301E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -4200,8 +4440,12 @@
       <c r="K64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -4235,8 +4479,12 @@
       <c r="K65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>139</v>
       </c>
@@ -4270,43 +4518,18 @@
       <c r="K66" s="1">
         <v>5.8035398230088499E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>143</v>
       </c>
@@ -4340,8 +4563,12 @@
       <c r="K68" s="1">
         <v>4.661946902654867E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>145</v>
       </c>
@@ -4375,8 +4602,12 @@
       <c r="K69" s="1">
         <v>1.1309734513274336E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>147</v>
       </c>
@@ -4410,8 +4641,12 @@
       <c r="K70" s="1">
         <v>0.44118584070796463</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -4445,8 +4680,12 @@
       <c r="K71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -4480,8 +4719,12 @@
       <c r="K72" s="1">
         <v>7.6991150442477872E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -4515,8 +4758,12 @@
       <c r="K73" s="1">
         <v>0.26446902654867255</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -4550,8 +4797,12 @@
       <c r="K74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -4585,8 +4836,12 @@
       <c r="K75" s="1">
         <v>3.1061946902654868E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -4620,8 +4875,12 @@
       <c r="K76" s="1">
         <v>1.9469026548672567E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -4655,8 +4914,12 @@
       <c r="K77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>163</v>
       </c>
@@ -4690,8 +4953,12 @@
       <c r="K78" s="1">
         <v>0.28534513274336282</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -4725,8 +4992,12 @@
       <c r="K79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -4760,8 +5031,12 @@
       <c r="K80" s="1">
         <v>8.7610619469026551E-4</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -4795,8 +5070,12 @@
       <c r="K81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -4830,8 +5109,12 @@
       <c r="K82" s="1">
         <v>0.10229203539823009</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -4865,8 +5148,12 @@
       <c r="K83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -4900,8 +5187,12 @@
       <c r="K84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -4935,8 +5226,12 @@
       <c r="K85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -4970,8 +5265,12 @@
       <c r="K86" s="1">
         <v>3.7371681415929205E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -5005,8 +5304,12 @@
       <c r="K87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -5040,8 +5343,12 @@
       <c r="K88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -5075,8 +5382,12 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -5110,8 +5421,12 @@
       <c r="K90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -5145,8 +5460,12 @@
       <c r="K91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="T91" s="1"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -5180,8 +5499,12 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -5215,8 +5538,12 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -5250,8 +5577,12 @@
       <c r="K94" s="1">
         <v>1.2389380530973451E-4</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -5285,8 +5616,12 @@
       <c r="K95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -5320,8 +5655,12 @@
       <c r="K96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -5355,8 +5694,12 @@
       <c r="K97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -5390,8 +5733,12 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="T98" s="1"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -5425,43 +5772,25 @@
       <c r="K99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100">
-        <v>278497000000</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.9144360971381289</v>
-      </c>
-      <c r="F100">
-        <v>132124000000</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.92901139080298134</v>
-      </c>
-      <c r="H100">
-        <v>253785000000</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0.89676678445229685</v>
-      </c>
-      <c r="J100">
-        <v>101732000000</v>
-      </c>
-      <c r="K100" s="1">
-        <v>0.90028318584070799</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="T99" s="1"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="E100"/>
+      <c r="G100"/>
+      <c r="I100"/>
+      <c r="K100"/>
+      <c r="N100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="T100" s="1"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -5495,8 +5824,12 @@
       <c r="K101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="T101" s="1"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -5530,8 +5863,12 @@
       <c r="K102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="T102" s="1"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>213</v>
       </c>
@@ -5565,8 +5902,12 @@
       <c r="K103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -5600,8 +5941,12 @@
       <c r="K104" s="1">
         <v>3.8053097345132743E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="T104" s="1"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>217</v>
       </c>
@@ -5635,8 +5980,12 @@
       <c r="K105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="T105" s="1"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>219</v>
       </c>
@@ -5670,148 +6019,48 @@
       <c r="K106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107">
-        <v>5333000000</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1.7510736941646201E-2</v>
-      </c>
-      <c r="F107">
-        <v>29950000000</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0.21058922795668683</v>
-      </c>
-      <c r="H107">
-        <v>66921000000</v>
-      </c>
-      <c r="I107" s="1">
-        <v>0.23646996466431094</v>
-      </c>
-      <c r="J107">
-        <v>21504000000</v>
-      </c>
-      <c r="K107" s="1">
-        <v>0.1903008849557522</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>7401000000</v>
-      </c>
-      <c r="G108" s="1">
-        <v>5.2039094360849386E-2</v>
-      </c>
-      <c r="H108">
-        <v>36418000000</v>
-      </c>
-      <c r="I108" s="1">
-        <v>0.12868551236749118</v>
-      </c>
-      <c r="J108">
-        <v>11033000000</v>
-      </c>
-      <c r="K108" s="1">
-        <v>9.7637168141592914E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" s="1">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110">
-        <v>4000000</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1.3133873573332983E-5</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" s="1">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="T106" s="1"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="N107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="T107" s="1"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="N108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="T108" s="1"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="N109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="T109" s="1"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="N110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="T110" s="1"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>229</v>
       </c>
@@ -5845,43 +6094,18 @@
       <c r="K111" s="1">
         <v>1.5044247787610621E-4</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>231</v>
-      </c>
-      <c r="B112" t="s">
-        <v>232</v>
-      </c>
-      <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" s="1">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="T111" s="1"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="T112" s="1"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -5915,8 +6139,12 @@
       <c r="K113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -5950,8 +6178,12 @@
       <c r="K114" s="1">
         <v>2.1946902654867255E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="T114" s="1"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>237</v>
       </c>
@@ -5985,8 +6217,12 @@
       <c r="K115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="T115" s="1"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6020,8 +6256,12 @@
       <c r="K116" s="1">
         <v>5.221238938053097E-4</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -6055,8 +6295,12 @@
       <c r="K117" s="1">
         <v>2.8849557522123894E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>243</v>
       </c>
@@ -6090,8 +6334,12 @@
       <c r="K118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -6125,8 +6373,12 @@
       <c r="K119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="T119" s="1"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>247</v>
       </c>
@@ -6160,8 +6412,12 @@
       <c r="K120" s="1">
         <v>2.6929203539823008E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="T120" s="1"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -6195,8 +6451,12 @@
       <c r="K121" s="1">
         <v>4.9805309734513276E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="T121" s="1"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>251</v>
       </c>
@@ -6230,8 +6490,12 @@
       <c r="K122" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="T122" s="1"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -6265,8 +6529,12 @@
       <c r="K123" s="1">
         <v>1.84070796460177E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="T123" s="1"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>255</v>
       </c>
@@ -6300,8 +6568,12 @@
       <c r="K124" s="1">
         <v>1.1504424778761063E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="T124" s="1"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>257</v>
       </c>
@@ -6335,8 +6607,12 @@
       <c r="K125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="T125" s="1"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>259</v>
       </c>
@@ -6370,8 +6646,12 @@
       <c r="K126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="T126" s="1"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>261</v>
       </c>
@@ -6405,8 +6685,12 @@
       <c r="K127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="T127" s="1"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>263</v>
       </c>
@@ -6440,8 +6724,12 @@
       <c r="K128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="T128" s="1"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -6475,8 +6763,12 @@
       <c r="K129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="T129" s="1"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>267</v>
       </c>
@@ -6510,8 +6802,12 @@
       <c r="K130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="T130" s="1"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>269</v>
       </c>
@@ -6545,8 +6841,12 @@
       <c r="K131" s="1">
         <v>1.8646017699115044E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="T131" s="1"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>271</v>
       </c>
@@ -6580,8 +6880,12 @@
       <c r="K132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="T132" s="1"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>273</v>
       </c>
@@ -6615,8 +6919,12 @@
       <c r="K133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="T133" s="1"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>275</v>
       </c>
@@ -6650,8 +6958,12 @@
       <c r="K134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="T134" s="1"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>277</v>
       </c>
@@ -6685,8 +6997,12 @@
       <c r="K135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="T135" s="1"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -6720,8 +7036,12 @@
       <c r="K136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="T136" s="1"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -6755,8 +7075,12 @@
       <c r="K137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="T137" s="1"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>283</v>
       </c>
@@ -6790,8 +7114,12 @@
       <c r="K138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="T138" s="1"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>285</v>
       </c>
@@ -6825,8 +7153,12 @@
       <c r="K139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="T139" s="1"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>287</v>
       </c>
@@ -6860,8 +7192,12 @@
       <c r="K140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="T140" s="1"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>289</v>
       </c>
@@ -6895,8 +7231,12 @@
       <c r="K141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="T141" s="1"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -6930,8 +7270,12 @@
       <c r="K142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="T142" s="1"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>293</v>
       </c>
@@ -6965,78 +7309,30 @@
       <c r="K143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144" s="1">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144" s="1">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" s="1">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145" s="1">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>8901000000</v>
-      </c>
-      <c r="I145" s="1">
-        <v>3.1452296819787985E-2</v>
-      </c>
-      <c r="J145">
-        <v>2532000000</v>
-      </c>
-      <c r="K145" s="1">
-        <v>2.2407079646017698E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="T143" s="1"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="N144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="T144" s="1"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="N145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="T145" s="1"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>299</v>
       </c>
@@ -7070,43 +7366,18 @@
       <c r="K146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>301</v>
-      </c>
-      <c r="B147" t="s">
-        <v>302</v>
-      </c>
-      <c r="C147" t="s">
-        <v>18</v>
-      </c>
-      <c r="D147">
-        <v>5309000000</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1.7431933700206202E-2</v>
-      </c>
-      <c r="F147">
-        <v>39066000000</v>
-      </c>
-      <c r="G147" s="1">
-        <v>0.27468710448600758</v>
-      </c>
-      <c r="H147">
-        <v>86499000000</v>
-      </c>
-      <c r="I147" s="1">
-        <v>0.30565017667844524</v>
-      </c>
-      <c r="J147">
-        <v>9133000000</v>
-      </c>
-      <c r="K147" s="1">
-        <v>8.0823008849557523E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="T146" s="1"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="T147" s="1"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>303</v>
       </c>
@@ -7140,8 +7411,12 @@
       <c r="K148" s="1">
         <v>3.0973451327433627E-4</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="T148" s="1"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>305</v>
       </c>
@@ -7175,8 +7450,12 @@
       <c r="K149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="T149" s="1"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>307</v>
       </c>
@@ -7210,8 +7489,12 @@
       <c r="K150" s="1">
         <v>1.5044247787610621E-4</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="T150" s="1"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -7245,8 +7528,12 @@
       <c r="K151" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="T151" s="1"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -7280,8 +7567,12 @@
       <c r="K152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="T152" s="1"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>313</v>
       </c>
@@ -7315,8 +7606,12 @@
       <c r="K153" s="1">
         <v>8.3185840707964602E-4</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="T153" s="1"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>315</v>
       </c>
@@ -7350,8 +7645,12 @@
       <c r="K154" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="T154" s="1"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -7385,8 +7684,12 @@
       <c r="K155" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="T155" s="1"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>319</v>
       </c>
@@ -7420,8 +7723,12 @@
       <c r="K156" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="T156" s="1"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>321</v>
       </c>
@@ -7455,8 +7762,12 @@
       <c r="K157" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="T157" s="1"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>323</v>
       </c>
@@ -7490,8 +7801,12 @@
       <c r="K158" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="T158" s="1"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -7525,8 +7840,12 @@
       <c r="K159" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="T159" s="1"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>327</v>
       </c>
@@ -7560,8 +7879,12 @@
       <c r="K160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="T160" s="1"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>329</v>
       </c>
@@ -7595,8 +7918,12 @@
       <c r="K161" s="1">
         <v>2.2407079646017698E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="T161" s="1"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -7630,8 +7957,12 @@
       <c r="K162" s="1">
         <v>4.3362831858407078E-4</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="T162" s="1"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>333</v>
       </c>
@@ -7665,8 +7996,12 @@
       <c r="K163" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="T163" s="1"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -7700,8 +8035,12 @@
       <c r="K164" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="T164" s="1"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>337</v>
       </c>
@@ -7735,8 +8074,12 @@
       <c r="K165" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="T165" s="1"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>339</v>
       </c>
@@ -7770,8 +8113,12 @@
       <c r="K166" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="T166" s="1"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>341</v>
       </c>
@@ -7805,8 +8152,12 @@
       <c r="K167" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="T167" s="1"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>343</v>
       </c>
@@ -7840,8 +8191,12 @@
       <c r="K168" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="T168" s="1"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>345</v>
       </c>
@@ -7875,8 +8230,12 @@
       <c r="K169" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="T169" s="1"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>347</v>
       </c>
@@ -7910,8 +8269,12 @@
       <c r="K170" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="T170" s="1"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>349</v>
       </c>
@@ -7945,8 +8308,12 @@
       <c r="K171" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="T171" s="1"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -7980,8 +8347,12 @@
       <c r="K172" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="T172" s="1"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>353</v>
       </c>
@@ -8015,8 +8386,12 @@
       <c r="K173" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="T173" s="1"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -8050,8 +8425,12 @@
       <c r="K174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="T174" s="1"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>357</v>
       </c>
@@ -8085,8 +8464,12 @@
       <c r="K175" s="1">
         <v>0.42630973451327436</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="T175" s="1"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -8120,8 +8503,12 @@
       <c r="K176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="T176" s="1"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -8155,8 +8542,12 @@
       <c r="K177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="T177" s="1"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>363</v>
       </c>
@@ -8190,8 +8581,12 @@
       <c r="K178" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="T178" s="1"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>365</v>
       </c>
@@ -8225,8 +8620,12 @@
       <c r="K179" s="1">
         <v>4.424778761061947E-5</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="T179" s="1"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>367</v>
       </c>
@@ -8260,8 +8659,12 @@
       <c r="K180" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="T180" s="1"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>369</v>
       </c>
@@ -8295,8 +8698,12 @@
       <c r="K181" s="1">
         <v>1.2389380530973451E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="T181" s="1"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>371</v>
       </c>
@@ -8330,8 +8737,12 @@
       <c r="K182" s="1">
         <v>4.2035398230088495E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="T182" s="1"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>373</v>
       </c>
@@ -8365,8 +8776,12 @@
       <c r="K183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="T183" s="1"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>375</v>
       </c>
@@ -8400,8 +8815,12 @@
       <c r="K184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="T184" s="1"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>377</v>
       </c>
@@ -8435,8 +8854,12 @@
       <c r="K185" s="1">
         <v>4.3362831858407078E-4</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="T185" s="1"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>379</v>
       </c>
@@ -8470,8 +8893,12 @@
       <c r="K186" s="1">
         <v>0.82606194690265489</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="T186" s="1"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>381</v>
       </c>
@@ -8505,8 +8932,12 @@
       <c r="K187" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="T187" s="1"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>383</v>
       </c>
@@ -8540,8 +8971,12 @@
       <c r="K188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="T188" s="1"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>385</v>
       </c>
@@ -8575,8 +9010,12 @@
       <c r="K189" s="1">
         <v>5.221238938053097E-4</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="T189" s="1"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>387</v>
       </c>
@@ -8610,8 +9049,12 @@
       <c r="K190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="T190" s="1"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>389</v>
       </c>
@@ -8645,8 +9088,12 @@
       <c r="K191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="T191" s="1"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>391</v>
       </c>
@@ -8680,8 +9127,12 @@
       <c r="K192" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="T192" s="1"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>393</v>
       </c>
@@ -8715,8 +9166,12 @@
       <c r="K193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="T193" s="1"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>395</v>
       </c>
@@ -8750,8 +9205,12 @@
       <c r="K194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="T194" s="1"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>397</v>
       </c>
@@ -8785,43 +9244,18 @@
       <c r="K195" s="1">
         <v>8.1504424778761058E-3</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>399</v>
-      </c>
-      <c r="B196" t="s">
-        <v>400</v>
-      </c>
-      <c r="C196" t="s">
-        <v>18</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196" s="1">
-        <v>0</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196" s="1">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196" s="1">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="T195" s="1"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="T196" s="1"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>401</v>
       </c>
@@ -8855,8 +9289,12 @@
       <c r="K197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="T197" s="1"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>403</v>
       </c>
@@ -8890,8 +9328,12 @@
       <c r="K198" s="1">
         <v>1.1504424778761063E-4</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="T198" s="1"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>405</v>
       </c>
@@ -8925,8 +9367,12 @@
       <c r="K199" s="1">
         <v>6.1061946902654868E-4</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="T199" s="1"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>407</v>
       </c>
@@ -8960,8 +9406,12 @@
       <c r="K200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="T200" s="1"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>409</v>
       </c>
@@ -8995,8 +9445,12 @@
       <c r="K201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="T201" s="1"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>411</v>
       </c>
@@ -9030,43 +9484,18 @@
       <c r="K202" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>413</v>
-      </c>
-      <c r="B203" t="s">
-        <v>414</v>
-      </c>
-      <c r="C203" t="s">
-        <v>18</v>
-      </c>
-      <c r="D203">
-        <v>232213000000</v>
-      </c>
-      <c r="E203" s="1">
-        <v>0.76246404602109297</v>
-      </c>
-      <c r="F203">
-        <v>97263000000</v>
-      </c>
-      <c r="G203" s="1">
-        <v>0.68389115454928984</v>
-      </c>
-      <c r="H203">
-        <v>184470000000</v>
-      </c>
-      <c r="I203" s="1">
-        <v>0.65183745583038866</v>
-      </c>
-      <c r="J203">
-        <v>88024000000</v>
-      </c>
-      <c r="K203" s="1">
-        <v>0.77897345132743367</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="T202" s="1"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="T203" s="1"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>415</v>
       </c>
@@ -9100,8 +9529,12 @@
       <c r="K204" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="T204" s="1"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>417</v>
       </c>
@@ -9135,8 +9568,12 @@
       <c r="K205" s="1">
         <v>1.2389380530973451E-4</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="T205" s="1"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>419</v>
       </c>
@@ -9170,8 +9607,12 @@
       <c r="K206" s="1">
         <v>1.7699115044247787E-5</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="T206" s="1"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>421</v>
       </c>
@@ -9205,8 +9646,12 @@
       <c r="K207" s="1">
         <v>8.5929203539823015E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="T207" s="1"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>423</v>
       </c>
@@ -9240,8 +9685,12 @@
       <c r="K208" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="T208" s="1"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>425</v>
       </c>
@@ -9275,8 +9724,12 @@
       <c r="K209" s="1">
         <v>2.7168141592920354E-3</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="T209" s="1"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>427</v>
       </c>
@@ -9310,8 +9763,12 @@
       <c r="K210" s="1">
         <v>2.6548672566371683E-5</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="T210" s="1"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>429</v>
       </c>
@@ -9345,8 +9802,12 @@
       <c r="K211" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="T211" s="1"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>431</v>
       </c>
@@ -9380,8 +9841,12 @@
       <c r="K212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="T212" s="1"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>433</v>
       </c>
@@ -9415,8 +9880,12 @@
       <c r="K213" s="1">
         <v>1.2654867256637167E-3</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="T213" s="1"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>435</v>
       </c>
@@ -9450,8 +9919,12 @@
       <c r="K214" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="T214" s="1"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>437</v>
       </c>
@@ -9485,8 +9958,12 @@
       <c r="K215" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="T215" s="1"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>439</v>
       </c>
@@ -9520,8 +9997,12 @@
       <c r="K216" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>441</v>
       </c>
@@ -9555,8 +10036,12 @@
       <c r="K217" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="T217" s="1"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>443</v>
       </c>
@@ -9590,8 +10075,12 @@
       <c r="K218" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="T218" s="1"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>445</v>
       </c>
@@ -9625,8 +10114,12 @@
       <c r="K219" s="1">
         <v>4.601769911504425E-4</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="T219" s="1"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>447</v>
       </c>
@@ -9660,8 +10153,12 @@
       <c r="K220" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="T220" s="1"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>449</v>
       </c>
@@ -9695,8 +10192,12 @@
       <c r="K221" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="T221" s="1"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>451</v>
       </c>
@@ -9730,8 +10231,12 @@
       <c r="K222" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="T222" s="1"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>453</v>
       </c>
@@ -9765,8 +10270,12 @@
       <c r="K223" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="T223" s="1"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>455</v>
       </c>
@@ -9800,8 +10309,12 @@
       <c r="K224" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="T224" s="1"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>457</v>
       </c>
@@ -9835,8 +10348,12 @@
       <c r="K225" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="T225" s="1"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>459</v>
       </c>
@@ -9870,8 +10387,12 @@
       <c r="K226" s="1">
         <v>2.0884955752212388E-3</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="T226" s="1"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>461</v>
       </c>
@@ -9905,8 +10426,12 @@
       <c r="K227" s="1">
         <v>3.5398230088495576E-4</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="T227" s="1"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>463</v>
       </c>
@@ -9940,8 +10465,12 @@
       <c r="K228" s="1">
         <v>8.6106194690265484E-3</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="T228" s="1"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>465</v>
       </c>
@@ -9975,8 +10504,12 @@
       <c r="K229" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="T229" s="1"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>467</v>
       </c>
@@ -10010,8 +10543,12 @@
       <c r="K230" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="T230" s="1"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>469</v>
       </c>
@@ -10045,8 +10582,12 @@
       <c r="K231" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="T231" s="1"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>471</v>
       </c>
@@ -10080,8 +10621,12 @@
       <c r="K232" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="T232" s="1"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>473</v>
       </c>
@@ -10115,8 +10660,12 @@
       <c r="K233" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="T233" s="1"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>475</v>
       </c>
@@ -10150,8 +10699,12 @@
       <c r="K234" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="T234" s="1"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>477</v>
       </c>
@@ -10185,8 +10738,12 @@
       <c r="K235" s="1">
         <v>5.7920353982300887E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="T235" s="1"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>479</v>
       </c>
@@ -10220,8 +10777,12 @@
       <c r="K236" s="1">
         <v>0.1183362831858407</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="T236" s="1"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>481</v>
       </c>
@@ -10255,8 +10816,12 @@
       <c r="K237" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="T237" s="1"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>483</v>
       </c>
@@ -10290,8 +10855,12 @@
       <c r="K238" s="1">
         <v>2.6548672566371683E-5</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="T238" s="1"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>485</v>
       </c>
@@ -10325,8 +10894,12 @@
       <c r="K239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="T239" s="1"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>487</v>
       </c>
@@ -10360,8 +10933,12 @@
       <c r="K240" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="T240" s="1"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>489</v>
       </c>
@@ -10395,8 +10972,12 @@
       <c r="K241" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="T241" s="1"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>491</v>
       </c>
@@ -10430,8 +11011,12 @@
       <c r="K242" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="T242" s="1"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>493</v>
       </c>
@@ -10465,8 +11050,12 @@
       <c r="K243" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="T243" s="1"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>495</v>
       </c>
@@ -10500,8 +11089,12 @@
       <c r="K244" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="T244" s="1"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>497</v>
       </c>
@@ -10535,8 +11128,12 @@
       <c r="K245" s="1">
         <v>2.7168141592920354E-3</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="T245" s="1"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>499</v>
       </c>
@@ -10570,8 +11167,12 @@
       <c r="K246" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="T246" s="1"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>501</v>
       </c>
@@ -10605,8 +11206,12 @@
       <c r="K247" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="T247" s="1"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>503</v>
       </c>
@@ -10640,8 +11245,12 @@
       <c r="K248" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="T248" s="1"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>505</v>
       </c>
@@ -10675,8 +11284,12 @@
       <c r="K249" s="1">
         <v>1.6778761061946902E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="T249" s="1"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>507</v>
       </c>
@@ -10710,8 +11323,12 @@
       <c r="K250" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="T250" s="1"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>509</v>
       </c>
@@ -10745,8 +11362,12 @@
       <c r="K251" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="T251" s="1"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>511</v>
       </c>
@@ -10780,8 +11401,12 @@
       <c r="K252" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="T252" s="1"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>513</v>
       </c>
@@ -10815,43 +11440,18 @@
       <c r="K253" s="1">
         <v>3.4424778761061947E-3</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>515</v>
-      </c>
-      <c r="B254" t="s">
-        <v>516</v>
-      </c>
-      <c r="C254" t="s">
-        <v>18</v>
-      </c>
-      <c r="D254">
-        <v>1278000000</v>
-      </c>
-      <c r="E254" s="1">
-        <v>4.1962726066798878E-3</v>
-      </c>
-      <c r="F254">
-        <v>4812000000</v>
-      </c>
-      <c r="G254" s="1">
-        <v>3.3834903670369849E-2</v>
-      </c>
-      <c r="H254">
-        <v>21376000000</v>
-      </c>
-      <c r="I254" s="1">
-        <v>7.5533568904593645E-2</v>
-      </c>
-      <c r="J254">
-        <v>6762000000</v>
-      </c>
-      <c r="K254" s="1">
-        <v>5.9840707964601766E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="T253" s="1"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="T254" s="1"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>517</v>
       </c>
@@ -10885,8 +11485,12 @@
       <c r="K255" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="T255" s="1"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>519</v>
       </c>
@@ -10920,8 +11524,12 @@
       <c r="K256" s="1">
         <v>0.42022123893805308</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="T256" s="1"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>521</v>
       </c>
@@ -10955,8 +11563,12 @@
       <c r="K257" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="T257" s="1"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>523</v>
       </c>
@@ -10987,8 +11599,12 @@
       <c r="K258" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="T258" s="1"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>525</v>
       </c>
@@ -11019,8 +11635,12 @@
       <c r="K259" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="T259" s="1"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>527</v>
       </c>
@@ -11051,8 +11671,12 @@
       <c r="K260" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="T260" s="1"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>529</v>
       </c>
@@ -11083,8 +11707,12 @@
       <c r="K261" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="T261" s="1"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>531</v>
       </c>
@@ -11115,8 +11743,12 @@
       <c r="K262" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="T262" s="1"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>533</v>
       </c>
@@ -11147,8 +11779,12 @@
       <c r="K263" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="T263" s="1"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>535</v>
       </c>
@@ -11179,8 +11815,12 @@
       <c r="K264" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="T264" s="1"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>537</v>
       </c>
@@ -11211,8 +11851,12 @@
       <c r="K265" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="T265" s="1"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>539</v>
       </c>
@@ -11246,8 +11890,12 @@
       <c r="K266" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="T266" s="1"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>541</v>
       </c>
@@ -11281,8 +11929,12 @@
       <c r="K267" s="1">
         <v>2.6637168141592921E-3</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="T267" s="1"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>543</v>
       </c>
@@ -11295,8 +11947,12 @@
       <c r="E268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="T268" s="1"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>545</v>
       </c>
@@ -11309,8 +11965,12 @@
       <c r="E269" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="T269" s="1"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>547</v>
       </c>
@@ -11341,8 +12001,12 @@
       <c r="J270">
         <v>112758000000</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="T270" s="1"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -13557,30 +14221,6 @@
       <c r="C335" t="s">
         <v>549</v>
       </c>
-      <c r="D335">
-        <v>110103000000</v>
-      </c>
-      <c r="E335" s="1">
-        <v>0.36151972051117037</v>
-      </c>
-      <c r="F335">
-        <v>47728000000</v>
-      </c>
-      <c r="G335" s="1">
-        <v>0.33559274363661934</v>
-      </c>
-      <c r="H335">
-        <v>128210000000</v>
-      </c>
-      <c r="I335" s="1">
-        <v>0.4530388692579505</v>
-      </c>
-      <c r="J335">
-        <v>41441000000</v>
-      </c>
-      <c r="K335" s="1">
-        <v>0.36673451327433626</v>
-      </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
@@ -14712,30 +15352,6 @@
       <c r="C368" t="s">
         <v>549</v>
       </c>
-      <c r="D368">
-        <v>174734000000</v>
-      </c>
-      <c r="E368" s="1">
-        <v>0.57373356624069138</v>
-      </c>
-      <c r="F368">
-        <v>74565000000</v>
-      </c>
-      <c r="G368" s="1">
-        <v>0.52429334833356767</v>
-      </c>
-      <c r="H368">
-        <v>123905000000</v>
-      </c>
-      <c r="I368" s="1">
-        <v>0.43782685512367492</v>
-      </c>
-      <c r="J368">
-        <v>64330000000</v>
-      </c>
-      <c r="K368" s="1">
-        <v>0.56929203539823003</v>
-      </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
@@ -14957,30 +15573,6 @@
       <c r="C375" t="s">
         <v>549</v>
       </c>
-      <c r="D375">
-        <v>112794000000</v>
-      </c>
-      <c r="E375" s="1">
-        <v>0.3703555339576301</v>
-      </c>
-      <c r="F375">
-        <v>64089000000</v>
-      </c>
-      <c r="G375" s="1">
-        <v>0.4506328223878498</v>
-      </c>
-      <c r="H375">
-        <v>132651000000</v>
-      </c>
-      <c r="I375" s="1">
-        <v>0.4687314487632509</v>
-      </c>
-      <c r="J375">
-        <v>41676000000</v>
-      </c>
-      <c r="K375" s="1">
-        <v>0.36881415929203537</v>
-      </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
@@ -14992,30 +15584,6 @@
       <c r="C376" t="s">
         <v>549</v>
       </c>
-      <c r="D376">
-        <v>132735000000</v>
-      </c>
-      <c r="E376" s="1">
-        <v>0.43583117718908837</v>
-      </c>
-      <c r="F376">
-        <v>74391000000</v>
-      </c>
-      <c r="G376" s="1">
-        <v>0.52306989171705809</v>
-      </c>
-      <c r="H376">
-        <v>163371000000</v>
-      </c>
-      <c r="I376" s="1">
-        <v>0.5772826855123675</v>
-      </c>
-      <c r="J376">
-        <v>51202000000</v>
-      </c>
-      <c r="K376" s="1">
-        <v>0.45311504424778759</v>
-      </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
@@ -15027,30 +15595,6 @@
       <c r="C377" t="s">
         <v>549</v>
       </c>
-      <c r="D377">
-        <v>11430000000</v>
-      </c>
-      <c r="E377" s="1">
-        <v>3.7530043735798997E-2</v>
-      </c>
-      <c r="F377">
-        <v>4816000000</v>
-      </c>
-      <c r="G377" s="1">
-        <v>3.3863029109829842E-2</v>
-      </c>
-      <c r="H377">
-        <v>30720000000</v>
-      </c>
-      <c r="I377" s="1">
-        <v>0.10855123674911661</v>
-      </c>
-      <c r="J377">
-        <v>9526000000</v>
-      </c>
-      <c r="K377" s="1">
-        <v>8.4300884955752206E-2</v>
-      </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
@@ -15062,30 +15606,6 @@
       <c r="C378" t="s">
         <v>549</v>
       </c>
-      <c r="D378">
-        <v>5428000000</v>
-      </c>
-      <c r="E378" s="1">
-        <v>1.7822666439012858E-2</v>
-      </c>
-      <c r="F378">
-        <v>4045000000</v>
-      </c>
-      <c r="G378" s="1">
-        <v>2.8441850653916467E-2</v>
-      </c>
-      <c r="H378">
-        <v>12626000000</v>
-      </c>
-      <c r="I378" s="1">
-        <v>4.4614840989399294E-2</v>
-      </c>
-      <c r="J378">
-        <v>6064000000</v>
-      </c>
-      <c r="K378" s="1">
-        <v>5.3663716814159289E-2</v>
-      </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
@@ -15132,30 +15652,6 @@
       <c r="C380" t="s">
         <v>549</v>
       </c>
-      <c r="D380">
-        <v>1124000000</v>
-      </c>
-      <c r="E380" s="1">
-        <v>3.6906184741065684E-3</v>
-      </c>
-      <c r="F380">
-        <v>875000000</v>
-      </c>
-      <c r="G380" s="1">
-        <v>6.1524398818731544E-3</v>
-      </c>
-      <c r="H380">
-        <v>16385000000</v>
-      </c>
-      <c r="I380" s="1">
-        <v>5.7897526501766786E-2</v>
-      </c>
-      <c r="J380">
-        <v>2685000000</v>
-      </c>
-      <c r="K380" s="1">
-        <v>2.3761061946902653E-2</v>
-      </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
@@ -16252,30 +16748,6 @@
       <c r="C412" t="s">
         <v>549</v>
       </c>
-      <c r="D412">
-        <v>49788000000</v>
-      </c>
-      <c r="E412" s="1">
-        <v>0.16347732436727563</v>
-      </c>
-      <c r="F412">
-        <v>22994000000</v>
-      </c>
-      <c r="G412" s="1">
-        <v>0.16167908873576151</v>
-      </c>
-      <c r="H412">
-        <v>80921000000</v>
-      </c>
-      <c r="I412" s="1">
-        <v>0.28593992932862189</v>
-      </c>
-      <c r="J412">
-        <v>26476000000</v>
-      </c>
-      <c r="K412" s="1">
-        <v>0.23430088495575221</v>
-      </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
@@ -16287,30 +16759,6 @@
       <c r="C413" t="s">
         <v>549</v>
       </c>
-      <c r="D413">
-        <v>128072000000</v>
-      </c>
-      <c r="E413" s="1">
-        <v>0.42052036407097543</v>
-      </c>
-      <c r="F413">
-        <v>64731000000</v>
-      </c>
-      <c r="G413" s="1">
-        <v>0.45514695542117845</v>
-      </c>
-      <c r="H413">
-        <v>155594000000</v>
-      </c>
-      <c r="I413" s="1">
-        <v>0.54980212014134278</v>
-      </c>
-      <c r="J413">
-        <v>47053000000</v>
-      </c>
-      <c r="K413" s="1">
-        <v>0.41639823008849558</v>
-      </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
@@ -16357,30 +16805,6 @@
       <c r="C415" t="s">
         <v>549</v>
       </c>
-      <c r="D415">
-        <v>57528000000</v>
-      </c>
-      <c r="E415" s="1">
-        <v>0.18889136973167497</v>
-      </c>
-      <c r="F415">
-        <v>38560000000</v>
-      </c>
-      <c r="G415" s="1">
-        <v>0.27112923639431868</v>
-      </c>
-      <c r="H415">
-        <v>66909000000</v>
-      </c>
-      <c r="I415" s="1">
-        <v>0.23642756183745584</v>
-      </c>
-      <c r="J415">
-        <v>26874000000</v>
-      </c>
-      <c r="K415" s="1">
-        <v>0.23782300884955751</v>
-      </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
@@ -18072,30 +18496,6 @@
       <c r="C464" t="s">
         <v>549</v>
       </c>
-      <c r="D464">
-        <v>1862000000</v>
-      </c>
-      <c r="E464" s="1">
-        <v>6.1138181483865036E-3</v>
-      </c>
-      <c r="F464">
-        <v>3288000000</v>
-      </c>
-      <c r="G464" s="1">
-        <v>2.3119111236113064E-2</v>
-      </c>
-      <c r="H464">
-        <v>17332000000</v>
-      </c>
-      <c r="I464" s="1">
-        <v>6.1243816254416959E-2</v>
-      </c>
-      <c r="J464">
-        <v>1671000000</v>
-      </c>
-      <c r="K464" s="1">
-        <v>1.4787610619469026E-2</v>
-      </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
@@ -18317,30 +18717,6 @@
       <c r="C471" t="s">
         <v>549</v>
       </c>
-      <c r="D471">
-        <v>113157000000</v>
-      </c>
-      <c r="E471" s="1">
-        <v>0.37154743298441012</v>
-      </c>
-      <c r="F471">
-        <v>49286000000</v>
-      </c>
-      <c r="G471" s="1">
-        <v>0.34654760230628606</v>
-      </c>
-      <c r="H471">
-        <v>66323000000</v>
-      </c>
-      <c r="I471" s="1">
-        <v>0.23435689045936395</v>
-      </c>
-      <c r="J471">
-        <v>40174000000</v>
-      </c>
-      <c r="K471" s="1">
-        <v>0.35552212389380533</v>
-      </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
@@ -20101,30 +20477,6 @@
       </c>
       <c r="C522" t="s">
         <v>549</v>
-      </c>
-      <c r="D522">
-        <v>70790000000</v>
-      </c>
-      <c r="E522" s="1">
-        <v>0.23310645051880097</v>
-      </c>
-      <c r="F522">
-        <v>37987000000</v>
-      </c>
-      <c r="G522" s="1">
-        <v>0.26710026719167484</v>
-      </c>
-      <c r="H522">
-        <v>65038000000</v>
-      </c>
-      <c r="I522" s="1">
-        <v>0.22981625441696113</v>
-      </c>
-      <c r="J522">
-        <v>19152000000</v>
-      </c>
-      <c r="K522" s="1">
-        <v>0.16948672566371681</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">

--- a/arms-import-export-91-23.xlsx
+++ b/arms-import-export-91-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mailb\OneDrive\Documents\GitHub\Sci-Py-Final-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E418FCE5-16D2-433C-9860-9290C008BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38951CFB-5FCB-4A48-935C-6D1B5B3AD978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="554">
   <si>
     <t>Totals</t>
   </si>
@@ -1675,6 +1686,18 @@
   </si>
   <si>
     <t>Arms imports (SIPRI trend indicator values)</t>
+  </si>
+  <si>
+    <t>Net Export 1991-2003($)</t>
+  </si>
+  <si>
+    <t>Net Export 2004-2009($)</t>
+  </si>
+  <si>
+    <t>Net Export 2010-2019($)</t>
+  </si>
+  <si>
+    <t>Net Export 2020-2023($)</t>
   </si>
 </sst>
 </file>
@@ -2028,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="P275" sqref="P275"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M270" sqref="M270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,9 +2065,10 @@
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2089,10 +2113,10 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -2100,8 +2124,18 @@
       <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="M4" t="s">
+        <v>550</v>
+      </c>
+      <c r="N4" t="s">
+        <v>551</v>
+      </c>
+      <c r="O4" t="s">
+        <v>552</v>
+      </c>
+      <c r="P4" t="s">
+        <v>553</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="T4" s="1"/>
     </row>
@@ -2139,8 +2173,22 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="M5">
+        <f>D5-D273</f>
+        <v>18000000</v>
+      </c>
+      <c r="N5">
+        <f>F5-F273</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>H5-H273</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>J5-J273</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
@@ -2178,8 +2226,22 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="M6">
+        <f>D6-D274</f>
+        <v>-2641000000</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N69" si="0">F6-F274</f>
+        <v>-3854000000</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O69" si="1">H6-H274</f>
+        <v>-3231000000</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P69" si="2">J6-J274</f>
+        <v>-249000000</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
@@ -2217,8 +2279,22 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="M7">
+        <f t="shared" ref="M6:M69" si="3">D7-D275</f>
+        <v>-1269000000</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>-550000000</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>-3359000000</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>-299000000</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
@@ -2256,8 +2332,22 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>-630000000</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-752000000</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>-2753000000</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>-1491000000</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
@@ -2295,8 +2385,22 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>-1298000000</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>-137000000</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>-790000000</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>-112000000</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
@@ -2334,8 +2438,22 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>-28000000</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>-12000000</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>-44000000</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>-1000000</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
@@ -2373,8 +2491,22 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
@@ -2412,8 +2544,22 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>-52237000000</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>-24169000000</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>-85696000000</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>-31734000000</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
@@ -2451,8 +2597,22 @@
       <c r="K13" s="1">
         <v>2.504424778761062E-3</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>-5608000000</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>-7229000000</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>-10112000000</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>-2175000000</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
@@ -2490,8 +2650,22 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>-1065000000</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>-231000000</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>-199000000</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>-151000000</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
@@ -2529,8 +2703,22 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>-300000000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>-161000000</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>-449000000</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>-68000000</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
@@ -2568,8 +2756,22 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
@@ -2607,8 +2809,22 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
@@ -2646,8 +2862,22 @@
       <c r="K18" s="1">
         <v>6.0973451327433629E-3</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>-5802000000</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>-3323000000</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>-10939000000</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>-3365000000</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
@@ -2685,8 +2915,22 @@
       <c r="K19" s="1">
         <v>2.3008849557522125E-4</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>-470000000</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>-639000000</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>166000000</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>-33000000</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
@@ -2724,8 +2968,22 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>-167000000</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>-615000000</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>-3458000000</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>-79000000</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="T20" s="1"/>
     </row>
@@ -2763,8 +3021,22 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>-4000000</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>-13000000</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
@@ -2802,8 +3074,22 @@
       <c r="K22" s="1">
         <v>2.672566371681416E-3</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>-15000000</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>283000000</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>22000000</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>-287000000</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
@@ -2841,8 +3127,22 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>-8000000</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>-4000000</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>-23000000</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>-15000000</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="T23" s="1"/>
     </row>
@@ -2880,8 +3180,22 @@
       <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>-10000000</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>-23000000</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>-64000000</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>-52000000</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="T24" s="1"/>
     </row>
@@ -2919,8 +3233,22 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>-1162000000</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>-355000000</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>-3507000000</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>-508000000</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="T25" s="1"/>
     </row>
@@ -2958,8 +3286,22 @@
       <c r="K26" s="1">
         <v>3.8938053097345134E-4</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>9000000</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>-309000000</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>237000000</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>-5000000</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="T26" s="1"/>
     </row>
@@ -2997,8 +3339,22 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>-827000000</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>-187000000</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>-359000000</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>-919000000</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="T27" s="1"/>
     </row>
@@ -3036,8 +3392,22 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>-36000000</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>-4000000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>-78000000</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="T28" s="1"/>
     </row>
@@ -3075,8 +3445,22 @@
       <c r="K29" s="1">
         <v>1.7699115044247787E-5</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>-166000000</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>17000000</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>-10000000</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="T29" s="1"/>
     </row>
@@ -3114,8 +3498,22 @@
       <c r="K30" s="1">
         <v>2.336283185840708E-3</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>1445000000</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>237000000</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>92000000</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>-164000000</v>
+      </c>
       <c r="R30" s="1"/>
       <c r="T30" s="1"/>
     </row>
@@ -3153,8 +3551,22 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>-1000000</v>
+      </c>
       <c r="R31" s="1"/>
       <c r="T31" s="1"/>
     </row>
@@ -3192,8 +3604,22 @@
       <c r="K32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="T32" s="1"/>
     </row>
@@ -3231,8 +3657,22 @@
       <c r="K33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>-96000000</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>-21000000</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>-154000000</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>-26000000</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="T33" s="1"/>
     </row>
@@ -3270,8 +3710,22 @@
       <c r="K34" s="1">
         <v>2.7522123893805308E-3</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>-3116000000</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>-705000000</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>-1479000000</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>-708000000</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="T34" s="1"/>
     </row>
@@ -3309,8 +3763,22 @@
       <c r="K35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>-30000000</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="T35" s="1"/>
     </row>
@@ -3348,8 +3816,22 @@
       <c r="K36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>-69000000</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>-35000000</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>-418000000</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>-11000000</v>
+      </c>
       <c r="R36" s="1"/>
       <c r="T36" s="1"/>
     </row>
@@ -3387,8 +3869,22 @@
       <c r="K37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>-4000000</v>
+      </c>
       <c r="R37" s="1"/>
       <c r="T37" s="1"/>
     </row>
@@ -3426,8 +3922,22 @@
       <c r="K38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>-210000000</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>-19000000</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>-41000000</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>-99000000</v>
+      </c>
       <c r="R38" s="1"/>
       <c r="T38" s="1"/>
     </row>
@@ -3465,8 +3975,22 @@
       <c r="K39" s="1">
         <v>0</v>
       </c>
-      <c r="N39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>-9000000</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>-9000000</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>-90000000</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="T39" s="1"/>
     </row>
@@ -3504,8 +4028,22 @@
       <c r="K40" s="1">
         <v>6.0884955752212389E-3</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>-3218000000</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>-153000000</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>-909000000</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>10000000</v>
+      </c>
       <c r="R40" s="1"/>
       <c r="T40" s="1"/>
     </row>
@@ -3543,8 +4081,22 @@
       <c r="K41" s="1">
         <v>1.4070796460176992E-2</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>-3581000000</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>-5012000000</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>-2424000000</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>-2844000000</v>
+      </c>
       <c r="R41" s="1"/>
       <c r="T41" s="1"/>
     </row>
@@ -3582,8 +4134,22 @@
       <c r="K42" s="1">
         <v>4.8672566371681415E-3</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>158000000</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>1267000000</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>2477000000</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>482000000</v>
+      </c>
       <c r="R42" s="1"/>
       <c r="T42" s="1"/>
     </row>
@@ -3621,8 +4187,22 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="T43" s="1"/>
     </row>
@@ -3660,8 +4240,22 @@
       <c r="K44" s="1">
         <v>7.0796460176991149E-5</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>-2020000000</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>-2882000000</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>-1362000000</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>-560000000</v>
+      </c>
       <c r="R44" s="1"/>
       <c r="T44" s="1"/>
     </row>
@@ -3699,8 +4293,22 @@
       <c r="K45" s="1">
         <v>5.7743362831858408E-2</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>-9520000000</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>-10686000000</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>3170000000</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>3872000000</v>
+      </c>
       <c r="R45" s="1"/>
       <c r="T45" s="1"/>
     </row>
@@ -3738,8 +4346,22 @@
       <c r="K46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>-97000000</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>-9000000</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>-55000000</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>-73000000</v>
+      </c>
       <c r="R46" s="1"/>
       <c r="T46" s="1"/>
     </row>
@@ -3777,8 +4399,22 @@
       <c r="K47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>-43000000</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>-9000000</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>-328000000</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="2"/>
+        <v>-12000000</v>
+      </c>
       <c r="R47" s="1"/>
       <c r="T47" s="1"/>
     </row>
@@ -3816,8 +4452,22 @@
       <c r="K48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>-220000000</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>-105000000</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>-218000000</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>-57000000</v>
+      </c>
       <c r="R48" s="1"/>
       <c r="T48" s="1"/>
     </row>
@@ -3855,8 +4505,22 @@
       <c r="K49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>-57000000</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>-16000000</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>-102000000</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="2"/>
+        <v>-3000000</v>
+      </c>
       <c r="R49" s="1"/>
       <c r="T49" s="1"/>
     </row>
@@ -3894,8 +4558,22 @@
       <c r="K50" s="1">
         <v>3.5398230088495574E-5</v>
       </c>
-      <c r="N50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>-1339000000</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>-692000000</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>-1271000000</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="2"/>
+        <v>-171000000</v>
+      </c>
       <c r="R50" s="1"/>
       <c r="T50" s="1"/>
     </row>
@@ -3933,8 +4611,22 @@
       <c r="K51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="1"/>
-      <c r="P51" s="1"/>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>-6000000</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R51" s="1"/>
       <c r="T51" s="1"/>
     </row>
@@ -3972,8 +4664,22 @@
       <c r="K52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="1"/>
-      <c r="P52" s="1"/>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>-17000000</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>-2000000</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>-13000000</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R52" s="1"/>
       <c r="T52" s="1"/>
     </row>
@@ -4011,8 +4717,22 @@
       <c r="K53" s="1">
         <v>0</v>
       </c>
-      <c r="N53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>-3000000</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>-8000000</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R53" s="1"/>
       <c r="T53" s="1"/>
     </row>
@@ -4050,8 +4770,22 @@
       <c r="K54" s="1">
         <v>0</v>
       </c>
-      <c r="N54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R54" s="1"/>
       <c r="T54" s="1"/>
     </row>
@@ -4089,8 +4823,22 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
-      <c r="N55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>-159000000</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>-8000000</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R55" s="1"/>
       <c r="T55" s="1"/>
     </row>
@@ -4128,8 +4876,22 @@
       <c r="K56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R56" s="1"/>
       <c r="T56" s="1"/>
     </row>
@@ -4167,8 +4929,22 @@
       <c r="K57" s="1">
         <v>0</v>
       </c>
-      <c r="N57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R57" s="1"/>
       <c r="T57" s="1"/>
     </row>
@@ -4206,8 +4982,22 @@
       <c r="K58" s="1">
         <v>3.5398230088495576E-4</v>
       </c>
-      <c r="N58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="M58">
+        <f t="shared" si="3"/>
+        <v>-810000000</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>-73000000</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>-140000000</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="2"/>
+        <v>-1000000</v>
+      </c>
       <c r="R58" s="1"/>
       <c r="T58" s="1"/>
     </row>
@@ -4245,8 +5035,22 @@
       <c r="K59" s="1">
         <v>2.5486725663716814E-3</v>
       </c>
-      <c r="N59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>933000000</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>-483000000</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>466000000</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="2"/>
+        <v>31000000</v>
+      </c>
       <c r="R59" s="1"/>
       <c r="T59" s="1"/>
     </row>
@@ -4284,8 +5088,22 @@
       <c r="K60" s="1">
         <v>6.0053097345132742E-2</v>
       </c>
-      <c r="N60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>17800000000</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>12063000000</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>14134000000</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="2"/>
+        <v>5953000000</v>
+      </c>
       <c r="R60" s="1"/>
       <c r="T60" s="1"/>
     </row>
@@ -4323,8 +5141,22 @@
       <c r="K61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="M61">
+        <f t="shared" si="3"/>
+        <v>-32000000</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>-11000000</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>-46000000</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="2"/>
+        <v>-66000000</v>
+      </c>
       <c r="R61" s="1"/>
       <c r="T61" s="1"/>
     </row>
@@ -4362,8 +5194,22 @@
       <c r="K62" s="1">
         <v>0</v>
       </c>
-      <c r="N62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="M62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R62" s="1"/>
       <c r="T62" s="1"/>
     </row>
@@ -4401,8 +5247,22 @@
       <c r="K63" s="1">
         <v>1.1592920353982301E-3</v>
       </c>
-      <c r="N63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="M63">
+        <f t="shared" si="3"/>
+        <v>-623000000</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>-759000000</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>-453000000</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="2"/>
+        <v>-658000000</v>
+      </c>
       <c r="R63" s="1"/>
       <c r="T63" s="1"/>
     </row>
@@ -4440,8 +5300,22 @@
       <c r="K64" s="1">
         <v>0</v>
       </c>
-      <c r="N64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="M64">
+        <f t="shared" si="3"/>
+        <v>-37000000</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>-47000000</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>-60000000</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="2"/>
+        <v>-18000000</v>
+      </c>
       <c r="R64" s="1"/>
       <c r="T64" s="1"/>
     </row>
@@ -4479,8 +5353,22 @@
       <c r="K65" s="1">
         <v>0</v>
       </c>
-      <c r="N65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="M65">
+        <f t="shared" si="3"/>
+        <v>-3576000000</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>-3830000000</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>-10103000000</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="2"/>
+        <v>-1430000000</v>
+      </c>
       <c r="R65" s="1"/>
       <c r="T65" s="1"/>
     </row>
@@ -4518,14 +5406,42 @@
       <c r="K66" s="1">
         <v>5.8035398230088499E-2</v>
       </c>
-      <c r="N66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="M66">
+        <f t="shared" si="3"/>
+        <v>-31879000000</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>-16757000000</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>-16997000000</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="2"/>
+        <v>-862000000</v>
+      </c>
       <c r="R66" s="1"/>
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N67" s="1"/>
-      <c r="P67" s="1"/>
+      <c r="M67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R67" s="1"/>
       <c r="T67" s="1"/>
     </row>
@@ -4563,8 +5479,22 @@
       <c r="K68" s="1">
         <v>4.661946902654867E-2</v>
       </c>
-      <c r="N68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="M68">
+        <f t="shared" si="3"/>
+        <v>-93479000000</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="0"/>
+        <v>-41679000000</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>-64544000000</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>-16734000000</v>
+      </c>
       <c r="R68" s="1"/>
       <c r="T68" s="1"/>
     </row>
@@ -4602,8 +5532,22 @@
       <c r="K69" s="1">
         <v>1.1309734513274336E-2</v>
       </c>
-      <c r="N69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="M69">
+        <f t="shared" si="3"/>
+        <v>-6766000000</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="0"/>
+        <v>167000000</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="1"/>
+        <v>-7153000000</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>-9525000000</v>
+      </c>
       <c r="R69" s="1"/>
       <c r="T69" s="1"/>
     </row>
@@ -4641,8 +5585,22 @@
       <c r="K70" s="1">
         <v>0.44118584070796463</v>
       </c>
-      <c r="N70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="M70">
+        <f t="shared" ref="M70:M133" si="4">D70-D338</f>
+        <v>55800000000</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70:N133" si="5">F70-F338</f>
+        <v>52717000000</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ref="O70:O133" si="6">H70-H338</f>
+        <v>109897000000</v>
+      </c>
+      <c r="P70">
+        <f t="shared" ref="P70:P133" si="7">J70-J338</f>
+        <v>20331000000</v>
+      </c>
       <c r="R70" s="1"/>
       <c r="T70" s="1"/>
     </row>
@@ -4680,8 +5638,22 @@
       <c r="K71" s="1">
         <v>0</v>
       </c>
-      <c r="N71" s="1"/>
-      <c r="P71" s="1"/>
+      <c r="M71">
+        <f t="shared" si="4"/>
+        <v>-450000000</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="5"/>
+        <v>-290000000</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="6"/>
+        <v>-384000000</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="7"/>
+        <v>-53000000</v>
+      </c>
       <c r="R71" s="1"/>
       <c r="T71" s="1"/>
     </row>
@@ -4719,8 +5691,22 @@
       <c r="K72" s="1">
         <v>7.6991150442477872E-4</v>
       </c>
-      <c r="N72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="M72">
+        <f t="shared" si="4"/>
+        <v>-12790000000</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="5"/>
+        <v>-3233000000</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="6"/>
+        <v>-11030000000</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="7"/>
+        <v>-4461000000</v>
+      </c>
       <c r="R72" s="1"/>
       <c r="T72" s="1"/>
     </row>
@@ -4758,8 +5744,22 @@
       <c r="K73" s="1">
         <v>0.26446902654867255</v>
       </c>
-      <c r="N73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="M73">
+        <f t="shared" si="4"/>
+        <v>16331000000</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="5"/>
+        <v>21301000000</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="6"/>
+        <v>41587000000</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="7"/>
+        <v>21210000000</v>
+      </c>
       <c r="R73" s="1"/>
       <c r="T73" s="1"/>
     </row>
@@ -4797,8 +5797,22 @@
       <c r="K74" s="1">
         <v>0</v>
       </c>
-      <c r="N74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="M74">
+        <f t="shared" si="4"/>
+        <v>-497000000</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="5"/>
+        <v>-182000000</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R74" s="1"/>
       <c r="T74" s="1"/>
     </row>
@@ -4836,8 +5850,22 @@
       <c r="K75" s="1">
         <v>3.1061946902654868E-2</v>
       </c>
-      <c r="N75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="M75">
+        <f t="shared" si="4"/>
+        <v>-2127000000</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="5"/>
+        <v>1415000000</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="6"/>
+        <v>4802000000</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>2920000000</v>
+      </c>
       <c r="R75" s="1"/>
       <c r="T75" s="1"/>
     </row>
@@ -4875,8 +5903,22 @@
       <c r="K76" s="1">
         <v>1.9469026548672567E-4</v>
       </c>
-      <c r="N76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="M76">
+        <f t="shared" si="4"/>
+        <v>-91000000</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="5"/>
+        <v>-129000000</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="6"/>
+        <v>-150000000</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>-59000000</v>
+      </c>
       <c r="R76" s="1"/>
       <c r="T76" s="1"/>
     </row>
@@ -4914,8 +5956,22 @@
       <c r="K77" s="1">
         <v>0</v>
       </c>
-      <c r="N77" s="1"/>
-      <c r="P77" s="1"/>
+      <c r="M77">
+        <f t="shared" si="4"/>
+        <v>-800000000</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="5"/>
+        <v>-239000000</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="6"/>
+        <v>-716000000</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="7"/>
+        <v>-78000000</v>
+      </c>
       <c r="R77" s="1"/>
       <c r="T77" s="1"/>
     </row>
@@ -4953,8 +6009,22 @@
       <c r="K78" s="1">
         <v>0.28534513274336282</v>
       </c>
-      <c r="N78" s="1"/>
-      <c r="P78" s="1"/>
+      <c r="M78">
+        <f t="shared" si="4"/>
+        <v>16121000000</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="5"/>
+        <v>18472000000</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="6"/>
+        <v>42977000000</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="7"/>
+        <v>18627000000</v>
+      </c>
       <c r="R78" s="1"/>
       <c r="T78" s="1"/>
     </row>
@@ -4992,8 +6062,22 @@
       <c r="K79" s="1">
         <v>0</v>
       </c>
-      <c r="N79" s="1"/>
-      <c r="P79" s="1"/>
+      <c r="M79">
+        <f t="shared" si="4"/>
+        <v>-3025000000</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="5"/>
+        <v>-5317000000</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="6"/>
+        <v>-23889000000</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="7"/>
+        <v>-9530000000</v>
+      </c>
       <c r="R79" s="1"/>
       <c r="T79" s="1"/>
     </row>
@@ -5031,8 +6115,22 @@
       <c r="K80" s="1">
         <v>8.7610619469026551E-4</v>
       </c>
-      <c r="N80" s="1"/>
-      <c r="P80" s="1"/>
+      <c r="M80">
+        <f t="shared" si="4"/>
+        <v>-4115000000</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="5"/>
+        <v>-204000000</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="6"/>
+        <v>-754000000</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="7"/>
+        <v>-39000000</v>
+      </c>
       <c r="R80" s="1"/>
       <c r="T80" s="1"/>
     </row>
@@ -5070,8 +6168,22 @@
       <c r="K81" s="1">
         <v>0</v>
       </c>
-      <c r="N81" s="1"/>
-      <c r="P81" s="1"/>
+      <c r="M81">
+        <f t="shared" si="4"/>
+        <v>-21000000</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="6"/>
+        <v>-1000000</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="7"/>
+        <v>-7000000</v>
+      </c>
       <c r="R81" s="1"/>
       <c r="T81" s="1"/>
     </row>
@@ -5109,8 +6221,22 @@
       <c r="K82" s="1">
         <v>0.10229203539823009</v>
       </c>
-      <c r="N82" s="1"/>
-      <c r="P82" s="1"/>
+      <c r="M82">
+        <f t="shared" si="4"/>
+        <v>17876000000</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="5"/>
+        <v>10881000000</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="6"/>
+        <v>19514000000</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="7"/>
+        <v>10825000000</v>
+      </c>
       <c r="R82" s="1"/>
       <c r="T82" s="1"/>
     </row>
@@ -5148,8 +6274,22 @@
       <c r="K83" s="1">
         <v>0</v>
       </c>
-      <c r="N83" s="1"/>
-      <c r="P83" s="1"/>
+      <c r="M83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R83" s="1"/>
       <c r="T83" s="1"/>
     </row>
@@ -5187,8 +6327,22 @@
       <c r="K84" s="1">
         <v>0</v>
       </c>
-      <c r="N84" s="1"/>
-      <c r="P84" s="1"/>
+      <c r="M84">
+        <f t="shared" si="4"/>
+        <v>-6000000</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="7"/>
+        <v>-14000000</v>
+      </c>
       <c r="R84" s="1"/>
       <c r="T84" s="1"/>
     </row>
@@ -5226,8 +6380,22 @@
       <c r="K85" s="1">
         <v>0</v>
       </c>
-      <c r="N85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="M85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="5"/>
+        <v>-45000000</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="6"/>
+        <v>-69000000</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="7"/>
+        <v>-18000000</v>
+      </c>
       <c r="R85" s="1"/>
       <c r="T85" s="1"/>
     </row>
@@ -5265,8 +6433,22 @@
       <c r="K86" s="1">
         <v>3.7371681415929205E-2</v>
       </c>
-      <c r="N86" s="1"/>
-      <c r="P86" s="1"/>
+      <c r="M86">
+        <f t="shared" si="4"/>
+        <v>9037000000</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="5"/>
+        <v>3655000000</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="6"/>
+        <v>6560000000</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="7"/>
+        <v>1275000000</v>
+      </c>
       <c r="R86" s="1"/>
       <c r="T86" s="1"/>
     </row>
@@ -5304,8 +6486,22 @@
       <c r="K87" s="1">
         <v>0</v>
       </c>
-      <c r="N87" s="1"/>
-      <c r="P87" s="1"/>
+      <c r="M87">
+        <f t="shared" si="4"/>
+        <v>33000000</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="5"/>
+        <v>-545000000</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="6"/>
+        <v>-49000000</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>-3000000</v>
+      </c>
       <c r="R87" s="1"/>
       <c r="T87" s="1"/>
     </row>
@@ -5343,8 +6539,22 @@
       <c r="K88" s="1">
         <v>0</v>
       </c>
-      <c r="N88" s="1"/>
-      <c r="P88" s="1"/>
+      <c r="M88">
+        <f t="shared" si="4"/>
+        <v>-51000000</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="5"/>
+        <v>-45000000</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="6"/>
+        <v>-220000000</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>-58000000</v>
+      </c>
       <c r="R88" s="1"/>
       <c r="T88" s="1"/>
     </row>
@@ -5382,8 +6592,22 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
-      <c r="N89" s="1"/>
-      <c r="P89" s="1"/>
+      <c r="M89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R89" s="1"/>
       <c r="T89" s="1"/>
     </row>
@@ -5421,8 +6645,22 @@
       <c r="K90" s="1">
         <v>0</v>
       </c>
-      <c r="N90" s="1"/>
-      <c r="P90" s="1"/>
+      <c r="M90">
+        <f t="shared" si="4"/>
+        <v>-39000000</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="5"/>
+        <v>-1000000</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="6"/>
+        <v>-22000000</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="7"/>
+        <v>-1000000</v>
+      </c>
       <c r="R90" s="1"/>
       <c r="T90" s="1"/>
     </row>
@@ -5460,8 +6698,22 @@
       <c r="K91" s="1">
         <v>0</v>
       </c>
-      <c r="N91" s="1"/>
-      <c r="P91" s="1"/>
+      <c r="M91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="5"/>
+        <v>-21000000</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="7"/>
+        <v>-1000000</v>
+      </c>
       <c r="R91" s="1"/>
       <c r="T91" s="1"/>
     </row>
@@ -5499,8 +6751,22 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
-      <c r="N92" s="1"/>
-      <c r="P92" s="1"/>
+      <c r="M92">
+        <f t="shared" si="4"/>
+        <v>-11000000</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R92" s="1"/>
       <c r="T92" s="1"/>
     </row>
@@ -5538,8 +6804,22 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
-      <c r="N93" s="1"/>
-      <c r="P93" s="1"/>
+      <c r="M93">
+        <f t="shared" si="4"/>
+        <v>-10000000</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="5"/>
+        <v>-151000000</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="6"/>
+        <v>-233000000</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R93" s="1"/>
       <c r="T93" s="1"/>
     </row>
@@ -5577,8 +6857,22 @@
       <c r="K94" s="1">
         <v>1.2389380530973451E-4</v>
       </c>
-      <c r="N94" s="1"/>
-      <c r="P94" s="1"/>
+      <c r="M94">
+        <f t="shared" si="4"/>
+        <v>-13305000000</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="5"/>
+        <v>-5540000000</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="6"/>
+        <v>-2134000000</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="7"/>
+        <v>-1162000000</v>
+      </c>
       <c r="R94" s="1"/>
       <c r="T94" s="1"/>
     </row>
@@ -5616,8 +6910,22 @@
       <c r="K95" s="1">
         <v>0</v>
       </c>
-      <c r="N95" s="1"/>
-      <c r="P95" s="1"/>
+      <c r="M95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R95" s="1"/>
       <c r="T95" s="1"/>
     </row>
@@ -5655,8 +6963,22 @@
       <c r="K96" s="1">
         <v>0</v>
       </c>
-      <c r="N96" s="1"/>
-      <c r="P96" s="1"/>
+      <c r="M96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R96" s="1"/>
       <c r="T96" s="1"/>
     </row>
@@ -5694,8 +7016,22 @@
       <c r="K97" s="1">
         <v>0</v>
       </c>
-      <c r="N97" s="1"/>
-      <c r="P97" s="1"/>
+      <c r="M97">
+        <f t="shared" si="4"/>
+        <v>-24000000</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="6"/>
+        <v>-53000000</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="7"/>
+        <v>-15000000</v>
+      </c>
       <c r="R97" s="1"/>
       <c r="T97" s="1"/>
     </row>
@@ -5733,8 +7069,22 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
-      <c r="N98" s="1"/>
-      <c r="P98" s="1"/>
+      <c r="M98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R98" s="1"/>
       <c r="T98" s="1"/>
     </row>
@@ -5772,8 +7122,22 @@
       <c r="K99" s="1">
         <v>0</v>
       </c>
-      <c r="N99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="M99">
+        <f t="shared" si="4"/>
+        <v>-10000000</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="6"/>
+        <v>-2000000</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="7"/>
+        <v>-15000000</v>
+      </c>
       <c r="R99" s="1"/>
       <c r="T99" s="1"/>
     </row>
@@ -5785,8 +7149,22 @@
       <c r="G100"/>
       <c r="I100"/>
       <c r="K100"/>
-      <c r="N100" s="1"/>
-      <c r="P100" s="1"/>
+      <c r="M100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R100" s="1"/>
       <c r="T100" s="1"/>
     </row>
@@ -5824,8 +7202,22 @@
       <c r="K101" s="1">
         <v>0</v>
       </c>
-      <c r="N101" s="1"/>
-      <c r="P101" s="1"/>
+      <c r="M101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R101" s="1"/>
       <c r="T101" s="1"/>
     </row>
@@ -5863,8 +7255,22 @@
       <c r="K102" s="1">
         <v>0</v>
       </c>
-      <c r="N102" s="1"/>
-      <c r="P102" s="1"/>
+      <c r="M102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="6"/>
+        <v>-75000000</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="7"/>
+        <v>-4000000</v>
+      </c>
       <c r="R102" s="1"/>
       <c r="T102" s="1"/>
     </row>
@@ -5902,8 +7308,22 @@
       <c r="K103" s="1">
         <v>0</v>
       </c>
-      <c r="N103" s="1"/>
-      <c r="P103" s="1"/>
+      <c r="M103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="6"/>
+        <v>-7286000000</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="7"/>
+        <v>-495000000</v>
+      </c>
       <c r="R103" s="1"/>
       <c r="T103" s="1"/>
     </row>
@@ -5941,8 +7361,22 @@
       <c r="K104" s="1">
         <v>3.8053097345132743E-4</v>
       </c>
-      <c r="N104" s="1"/>
-      <c r="P104" s="1"/>
+      <c r="M104">
+        <f t="shared" si="4"/>
+        <v>-239000000</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="5"/>
+        <v>-135000000</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="6"/>
+        <v>-125000000</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="7"/>
+        <v>-74000000</v>
+      </c>
       <c r="R104" s="1"/>
       <c r="T104" s="1"/>
     </row>
@@ -5980,8 +7414,22 @@
       <c r="K105" s="1">
         <v>0</v>
       </c>
-      <c r="N105" s="1"/>
-      <c r="P105" s="1"/>
+      <c r="M105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R105" s="1"/>
       <c r="T105" s="1"/>
     </row>
@@ -6019,8 +7467,22 @@
       <c r="K106" s="1">
         <v>0</v>
       </c>
-      <c r="N106" s="1"/>
-      <c r="P106" s="1"/>
+      <c r="M106">
+        <f t="shared" si="4"/>
+        <v>-1267000000</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="5"/>
+        <v>-452000000</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="6"/>
+        <v>-56000000</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="7"/>
+        <v>-432000000</v>
+      </c>
       <c r="R106" s="1"/>
       <c r="T106" s="1"/>
     </row>
@@ -6028,8 +7490,22 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="N107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="M107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R107" s="1"/>
       <c r="T107" s="1"/>
     </row>
@@ -6037,8 +7513,22 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="N108" s="1"/>
-      <c r="P108" s="1"/>
+      <c r="M108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R108" s="1"/>
       <c r="T108" s="1"/>
     </row>
@@ -6046,8 +7536,22 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="N109" s="1"/>
-      <c r="P109" s="1"/>
+      <c r="M109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R109" s="1"/>
       <c r="T109" s="1"/>
     </row>
@@ -6055,8 +7559,22 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="N110" s="1"/>
-      <c r="P110" s="1"/>
+      <c r="M110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R110" s="1"/>
       <c r="T110" s="1"/>
     </row>
@@ -6094,14 +7612,42 @@
       <c r="K111" s="1">
         <v>1.5044247787610621E-4</v>
       </c>
-      <c r="N111" s="1"/>
-      <c r="P111" s="1"/>
+      <c r="M111">
+        <f t="shared" si="4"/>
+        <v>-2149000000</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="5"/>
+        <v>-1399000000</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="6"/>
+        <v>-4996000000</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="7"/>
+        <v>-1119000000</v>
+      </c>
       <c r="R111" s="1"/>
       <c r="T111" s="1"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N112" s="1"/>
-      <c r="P112" s="1"/>
+      <c r="M112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R112" s="1"/>
       <c r="T112" s="1"/>
     </row>
@@ -6139,8 +7685,22 @@
       <c r="K113" s="1">
         <v>0</v>
       </c>
-      <c r="N113" s="1"/>
-      <c r="P113" s="1"/>
+      <c r="M113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R113" s="1"/>
       <c r="T113" s="1"/>
     </row>
@@ -6178,8 +7738,22 @@
       <c r="K114" s="1">
         <v>2.1946902654867255E-3</v>
       </c>
-      <c r="N114" s="1"/>
-      <c r="P114" s="1"/>
+      <c r="M114">
+        <f t="shared" si="4"/>
+        <v>-17407000000</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="5"/>
+        <v>-10574000000</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="6"/>
+        <v>-32177000000</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="7"/>
+        <v>-10358000000</v>
+      </c>
       <c r="R114" s="1"/>
       <c r="T114" s="1"/>
     </row>
@@ -6217,8 +7791,22 @@
       <c r="K115" s="1">
         <v>0</v>
       </c>
-      <c r="N115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="M115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R115" s="1"/>
       <c r="T115" s="1"/>
     </row>
@@ -6256,8 +7844,22 @@
       <c r="K116" s="1">
         <v>5.221238938053097E-4</v>
       </c>
-      <c r="N116" s="1"/>
-      <c r="P116" s="1"/>
+      <c r="M116">
+        <f t="shared" si="4"/>
+        <v>-151000000</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="5"/>
+        <v>99000000</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="6"/>
+        <v>-23000000</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="7"/>
+        <v>-29000000</v>
+      </c>
       <c r="R116" s="1"/>
       <c r="T116" s="1"/>
     </row>
@@ -6295,8 +7897,22 @@
       <c r="K117" s="1">
         <v>2.8849557522123894E-3</v>
       </c>
-      <c r="N117" s="1"/>
-      <c r="P117" s="1"/>
+      <c r="M117">
+        <f t="shared" si="4"/>
+        <v>-6229000000</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="5"/>
+        <v>-893000000</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="6"/>
+        <v>-391000000</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="7"/>
+        <v>303000000</v>
+      </c>
       <c r="R117" s="1"/>
       <c r="T117" s="1"/>
     </row>
@@ -6334,8 +7950,22 @@
       <c r="K118" s="1">
         <v>0</v>
       </c>
-      <c r="N118" s="1"/>
-      <c r="P118" s="1"/>
+      <c r="M118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="5"/>
+        <v>-1678000000</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="6"/>
+        <v>-7473000000</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="7"/>
+        <v>-66000000</v>
+      </c>
       <c r="R118" s="1"/>
       <c r="T118" s="1"/>
     </row>
@@ -6373,8 +8003,22 @@
       <c r="K119" s="1">
         <v>0</v>
       </c>
-      <c r="N119" s="1"/>
-      <c r="P119" s="1"/>
+      <c r="M119">
+        <f t="shared" si="4"/>
+        <v>5000000</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="6"/>
+        <v>-50000000</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R119" s="1"/>
       <c r="T119" s="1"/>
     </row>
@@ -6412,8 +8056,22 @@
       <c r="K120" s="1">
         <v>2.6929203539823008E-2</v>
       </c>
-      <c r="N120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="M120">
+        <f t="shared" si="4"/>
+        <v>-3753000000</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="5"/>
+        <v>-1415000000</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="6"/>
+        <v>3223000000</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="7"/>
+        <v>530000000</v>
+      </c>
       <c r="R120" s="1"/>
       <c r="T120" s="1"/>
     </row>
@@ -6451,8 +8109,22 @@
       <c r="K121" s="1">
         <v>4.9805309734513276E-2</v>
       </c>
-      <c r="N121" s="1"/>
-      <c r="P121" s="1"/>
+      <c r="M121">
+        <f t="shared" si="4"/>
+        <v>1116000000</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="5"/>
+        <v>1560000000</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="6"/>
+        <v>3912000000</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="7"/>
+        <v>4494000000</v>
+      </c>
       <c r="R121" s="1"/>
       <c r="T121" s="1"/>
     </row>
@@ -6490,8 +8162,22 @@
       <c r="K122" s="1">
         <v>0</v>
       </c>
-      <c r="N122" s="1"/>
-      <c r="P122" s="1"/>
+      <c r="M122">
+        <f t="shared" si="4"/>
+        <v>-20000000</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="5"/>
+        <v>-35000000</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="6"/>
+        <v>-48000000</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="7"/>
+        <v>-48000000</v>
+      </c>
       <c r="R122" s="1"/>
       <c r="T122" s="1"/>
     </row>
@@ -6529,8 +8215,22 @@
       <c r="K123" s="1">
         <v>1.84070796460177E-3</v>
       </c>
-      <c r="N123" s="1"/>
-      <c r="P123" s="1"/>
+      <c r="M123">
+        <f t="shared" si="4"/>
+        <v>-1153000000</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="5"/>
+        <v>-757000000</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="6"/>
+        <v>-1493000000</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="7"/>
+        <v>-59000000</v>
+      </c>
       <c r="R123" s="1"/>
       <c r="T123" s="1"/>
     </row>
@@ -6568,8 +8268,22 @@
       <c r="K124" s="1">
         <v>1.1504424778761063E-4</v>
       </c>
-      <c r="N124" s="1"/>
-      <c r="P124" s="1"/>
+      <c r="M124">
+        <f t="shared" si="4"/>
+        <v>-15385000000</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="5"/>
+        <v>-3720000000</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="6"/>
+        <v>-4767000000</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="7"/>
+        <v>-4703000000</v>
+      </c>
       <c r="R124" s="1"/>
       <c r="T124" s="1"/>
     </row>
@@ -6607,8 +8321,22 @@
       <c r="K125" s="1">
         <v>0</v>
       </c>
-      <c r="N125" s="1"/>
-      <c r="P125" s="1"/>
+      <c r="M125">
+        <f t="shared" si="4"/>
+        <v>-439000000</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="5"/>
+        <v>-281000000</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="6"/>
+        <v>-1867000000</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="7"/>
+        <v>-670000000</v>
+      </c>
       <c r="R125" s="1"/>
       <c r="T125" s="1"/>
     </row>
@@ -6646,8 +8374,22 @@
       <c r="K126" s="1">
         <v>0</v>
       </c>
-      <c r="N126" s="1"/>
-      <c r="P126" s="1"/>
+      <c r="M126">
+        <f t="shared" si="4"/>
+        <v>-116000000</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="5"/>
+        <v>-45000000</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="6"/>
+        <v>-320000000</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="7"/>
+        <v>-76000000</v>
+      </c>
       <c r="R126" s="1"/>
       <c r="T126" s="1"/>
     </row>
@@ -6685,8 +8427,22 @@
       <c r="K127" s="1">
         <v>0</v>
       </c>
-      <c r="N127" s="1"/>
-      <c r="P127" s="1"/>
+      <c r="M127">
+        <f t="shared" si="4"/>
+        <v>139000000</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="5"/>
+        <v>39000000</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="6"/>
+        <v>-26000000</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="7"/>
+        <v>-39000000</v>
+      </c>
       <c r="R127" s="1"/>
       <c r="T127" s="1"/>
     </row>
@@ -6724,8 +8480,22 @@
       <c r="K128" s="1">
         <v>0</v>
       </c>
-      <c r="N128" s="1"/>
-      <c r="P128" s="1"/>
+      <c r="M128">
+        <f t="shared" si="4"/>
+        <v>-125000000</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="5"/>
+        <v>-74000000</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="6"/>
+        <v>-186000000</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="7"/>
+        <v>-121000000</v>
+      </c>
       <c r="R128" s="1"/>
       <c r="T128" s="1"/>
     </row>
@@ -6763,8 +8533,22 @@
       <c r="K129" s="1">
         <v>0</v>
       </c>
-      <c r="N129" s="1"/>
-      <c r="P129" s="1"/>
+      <c r="M129">
+        <f t="shared" si="4"/>
+        <v>-6000000</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="7"/>
+        <v>-7000000</v>
+      </c>
       <c r="R129" s="1"/>
       <c r="T129" s="1"/>
     </row>
@@ -6802,8 +8586,22 @@
       <c r="K130" s="1">
         <v>0</v>
       </c>
-      <c r="N130" s="1"/>
-      <c r="P130" s="1"/>
+      <c r="M130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R130" s="1"/>
       <c r="T130" s="1"/>
     </row>
@@ -6841,8 +8639,22 @@
       <c r="K131" s="1">
         <v>1.8646017699115044E-2</v>
       </c>
-      <c r="N131" s="1"/>
-      <c r="P131" s="1"/>
+      <c r="M131">
+        <f t="shared" si="4"/>
+        <v>-14819000000</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="5"/>
+        <v>-6782000000</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="6"/>
+        <v>-5535000000</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="7"/>
+        <v>-590000000</v>
+      </c>
       <c r="R131" s="1"/>
       <c r="T131" s="1"/>
     </row>
@@ -6880,8 +8692,22 @@
       <c r="K132" s="1">
         <v>0</v>
       </c>
-      <c r="N132" s="1"/>
-      <c r="P132" s="1"/>
+      <c r="M132">
+        <f t="shared" si="4"/>
+        <v>-4952000000</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="5"/>
+        <v>-321000000</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="6"/>
+        <v>-1743000000</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="7"/>
+        <v>-3675000000</v>
+      </c>
       <c r="R132" s="1"/>
       <c r="T132" s="1"/>
     </row>
@@ -6919,8 +8745,22 @@
       <c r="K133" s="1">
         <v>0</v>
       </c>
-      <c r="N133" s="1"/>
-      <c r="P133" s="1"/>
+      <c r="M133">
+        <f t="shared" si="4"/>
+        <v>-9601000000</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="5"/>
+        <v>-3049000000</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="6"/>
+        <v>-6619000000</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="7"/>
+        <v>-1046000000</v>
+      </c>
       <c r="R133" s="1"/>
       <c r="T133" s="1"/>
     </row>
@@ -6958,8 +8798,22 @@
       <c r="K134" s="1">
         <v>0</v>
       </c>
-      <c r="N134" s="1"/>
-      <c r="P134" s="1"/>
+      <c r="M134">
+        <f t="shared" ref="M134:M197" si="8">D134-D402</f>
+        <v>-102000000</v>
+      </c>
+      <c r="N134">
+        <f t="shared" ref="N134:N197" si="9">F134-F402</f>
+        <v>-37000000</v>
+      </c>
+      <c r="O134">
+        <f t="shared" ref="O134:O197" si="10">H134-H402</f>
+        <v>-212000000</v>
+      </c>
+      <c r="P134">
+        <f t="shared" ref="P134:P197" si="11">J134-J402</f>
+        <v>-22000000</v>
+      </c>
       <c r="R134" s="1"/>
       <c r="T134" s="1"/>
     </row>
@@ -6997,8 +8851,22 @@
       <c r="K135" s="1">
         <v>0</v>
       </c>
-      <c r="N135" s="1"/>
-      <c r="P135" s="1"/>
+      <c r="M135">
+        <f t="shared" si="8"/>
+        <v>-143000000</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="9"/>
+        <v>-59000000</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="10"/>
+        <v>-366000000</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="11"/>
+        <v>-123000000</v>
+      </c>
       <c r="R135" s="1"/>
       <c r="T135" s="1"/>
     </row>
@@ -7036,8 +8904,22 @@
       <c r="K136" s="1">
         <v>0</v>
       </c>
-      <c r="N136" s="1"/>
-      <c r="P136" s="1"/>
+      <c r="M136">
+        <f t="shared" si="8"/>
+        <v>-10000000</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R136" s="1"/>
       <c r="T136" s="1"/>
     </row>
@@ -7075,8 +8957,22 @@
       <c r="K137" s="1">
         <v>0</v>
       </c>
-      <c r="N137" s="1"/>
-      <c r="P137" s="1"/>
+      <c r="M137">
+        <f t="shared" si="8"/>
+        <v>47000000</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="9"/>
+        <v>231000000</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="10"/>
+        <v>-207000000</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R137" s="1"/>
       <c r="T137" s="1"/>
     </row>
@@ -7114,8 +9010,22 @@
       <c r="K138" s="1">
         <v>0</v>
       </c>
-      <c r="N138" s="1"/>
-      <c r="P138" s="1"/>
+      <c r="M138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R138" s="1"/>
       <c r="T138" s="1"/>
     </row>
@@ -7153,8 +9063,22 @@
       <c r="K139" s="1">
         <v>0</v>
       </c>
-      <c r="N139" s="1"/>
-      <c r="P139" s="1"/>
+      <c r="M139">
+        <f t="shared" si="8"/>
+        <v>-12941000000</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="9"/>
+        <v>-7049000000</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="10"/>
+        <v>-11130000000</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="11"/>
+        <v>-1542000000</v>
+      </c>
       <c r="R139" s="1"/>
       <c r="T139" s="1"/>
     </row>
@@ -7192,8 +9116,22 @@
       <c r="K140" s="1">
         <v>0</v>
       </c>
-      <c r="N140" s="1"/>
-      <c r="P140" s="1"/>
+      <c r="M140">
+        <f t="shared" si="8"/>
+        <v>-1842000000</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="9"/>
+        <v>-2779000000</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="10"/>
+        <v>-12059000000</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="11"/>
+        <v>-2477000000</v>
+      </c>
       <c r="R140" s="1"/>
       <c r="T140" s="1"/>
     </row>
@@ -7231,8 +9169,22 @@
       <c r="K141" s="1">
         <v>0</v>
       </c>
-      <c r="N141" s="1"/>
-      <c r="P141" s="1"/>
+      <c r="M141">
+        <f t="shared" si="8"/>
+        <v>-2836000000</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="9"/>
+        <v>-3486000000</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="10"/>
+        <v>-9165000000</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="11"/>
+        <v>-829000000</v>
+      </c>
       <c r="R141" s="1"/>
       <c r="T141" s="1"/>
     </row>
@@ -7270,8 +9222,22 @@
       <c r="K142" s="1">
         <v>0</v>
       </c>
-      <c r="N142" s="1"/>
-      <c r="P142" s="1"/>
+      <c r="M142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R142" s="1"/>
       <c r="T142" s="1"/>
     </row>
@@ -7309,8 +9275,22 @@
       <c r="K143" s="1">
         <v>0</v>
       </c>
-      <c r="N143" s="1"/>
-      <c r="P143" s="1"/>
+      <c r="M143">
+        <f t="shared" si="8"/>
+        <v>-1289000000</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="9"/>
+        <v>-392000000</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="10"/>
+        <v>-257000000</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="11"/>
+        <v>-62000000</v>
+      </c>
       <c r="R143" s="1"/>
       <c r="T143" s="1"/>
     </row>
@@ -7318,8 +9298,22 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="N144" s="1"/>
-      <c r="P144" s="1"/>
+      <c r="M144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R144" s="1"/>
       <c r="T144" s="1"/>
     </row>
@@ -7327,8 +9321,22 @@
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="N145" s="1"/>
-      <c r="P145" s="1"/>
+      <c r="M145">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R145" s="1"/>
       <c r="T145" s="1"/>
     </row>
@@ -7366,14 +9374,42 @@
       <c r="K146" s="1">
         <v>0</v>
       </c>
-      <c r="N146" s="1"/>
-      <c r="P146" s="1"/>
+      <c r="M146">
+        <f t="shared" si="8"/>
+        <v>-15000000</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="9"/>
+        <v>-2000000</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="10"/>
+        <v>-3000000</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R146" s="1"/>
       <c r="T146" s="1"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N147" s="1"/>
-      <c r="P147" s="1"/>
+      <c r="M147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R147" s="1"/>
       <c r="T147" s="1"/>
     </row>
@@ -7411,8 +9447,22 @@
       <c r="K148" s="1">
         <v>3.0973451327433627E-4</v>
       </c>
-      <c r="N148" s="1"/>
-      <c r="P148" s="1"/>
+      <c r="M148">
+        <f t="shared" si="8"/>
+        <v>-158000000</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="9"/>
+        <v>-169000000</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="10"/>
+        <v>-133000000</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="11"/>
+        <v>-359000000</v>
+      </c>
       <c r="R148" s="1"/>
       <c r="T148" s="1"/>
     </row>
@@ -7450,8 +9500,22 @@
       <c r="K149" s="1">
         <v>0</v>
       </c>
-      <c r="N149" s="1"/>
-      <c r="P149" s="1"/>
+      <c r="M149">
+        <f t="shared" si="8"/>
+        <v>-5000000</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="9"/>
+        <v>-10000000</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="10"/>
+        <v>-16000000</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="11"/>
+        <v>-89000000</v>
+      </c>
       <c r="R149" s="1"/>
       <c r="T149" s="1"/>
     </row>
@@ -7489,8 +9553,22 @@
       <c r="K150" s="1">
         <v>1.5044247787610621E-4</v>
       </c>
-      <c r="N150" s="1"/>
-      <c r="P150" s="1"/>
+      <c r="M150">
+        <f t="shared" si="8"/>
+        <v>-77000000</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="9"/>
+        <v>-135000000</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="10"/>
+        <v>-175000000</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="11"/>
+        <v>-75000000</v>
+      </c>
       <c r="R150" s="1"/>
       <c r="T150" s="1"/>
     </row>
@@ -7528,8 +9606,22 @@
       <c r="K151" s="1">
         <v>0</v>
       </c>
-      <c r="N151" s="1"/>
-      <c r="P151" s="1"/>
+      <c r="M151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R151" s="1"/>
       <c r="T151" s="1"/>
     </row>
@@ -7567,8 +9659,22 @@
       <c r="K152" s="1">
         <v>0</v>
       </c>
-      <c r="N152" s="1"/>
-      <c r="P152" s="1"/>
+      <c r="M152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R152" s="1"/>
       <c r="T152" s="1"/>
     </row>
@@ -7606,8 +9712,22 @@
       <c r="K153" s="1">
         <v>8.3185840707964602E-4</v>
       </c>
-      <c r="N153" s="1"/>
-      <c r="P153" s="1"/>
+      <c r="M153">
+        <f t="shared" si="8"/>
+        <v>-996000000</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="9"/>
+        <v>-274000000</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="10"/>
+        <v>-4677000000</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="11"/>
+        <v>-930000000</v>
+      </c>
       <c r="R153" s="1"/>
       <c r="T153" s="1"/>
     </row>
@@ -7645,8 +9765,22 @@
       <c r="K154" s="1">
         <v>0</v>
       </c>
-      <c r="N154" s="1"/>
-      <c r="P154" s="1"/>
+      <c r="M154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R154" s="1"/>
       <c r="T154" s="1"/>
     </row>
@@ -7684,8 +9818,22 @@
       <c r="K155" s="1">
         <v>0</v>
       </c>
-      <c r="N155" s="1"/>
-      <c r="P155" s="1"/>
+      <c r="M155">
+        <f t="shared" si="8"/>
+        <v>363000000</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="9"/>
+        <v>89000000</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="10"/>
+        <v>12000000</v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="11"/>
+        <v>-13000000</v>
+      </c>
       <c r="R155" s="1"/>
       <c r="T155" s="1"/>
     </row>
@@ -7723,8 +9871,22 @@
       <c r="K156" s="1">
         <v>0</v>
       </c>
-      <c r="N156" s="1"/>
-      <c r="P156" s="1"/>
+      <c r="M156">
+        <f t="shared" si="8"/>
+        <v>-21000000</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="10"/>
+        <v>-2000000</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="11"/>
+        <v>-1000000</v>
+      </c>
       <c r="R156" s="1"/>
       <c r="T156" s="1"/>
     </row>
@@ -7762,8 +9924,22 @@
       <c r="K157" s="1">
         <v>0</v>
       </c>
-      <c r="N157" s="1"/>
-      <c r="P157" s="1"/>
+      <c r="M157">
+        <f t="shared" si="8"/>
+        <v>-10000000</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="9"/>
+        <v>-15000000</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="10"/>
+        <v>-12000000</v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="11"/>
+        <v>-5000000</v>
+      </c>
       <c r="R157" s="1"/>
       <c r="T157" s="1"/>
     </row>
@@ -7801,8 +9977,22 @@
       <c r="K158" s="1">
         <v>0</v>
       </c>
-      <c r="N158" s="1"/>
-      <c r="P158" s="1"/>
+      <c r="M158">
+        <f t="shared" si="8"/>
+        <v>-65356000000</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="9"/>
+        <v>-29287000000</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="10"/>
+        <v>-89096000000</v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="11"/>
+        <v>-34298000000</v>
+      </c>
       <c r="R158" s="1"/>
       <c r="T158" s="1"/>
     </row>
@@ -7840,8 +10030,22 @@
       <c r="K159" s="1">
         <v>0</v>
       </c>
-      <c r="N159" s="1"/>
-      <c r="P159" s="1"/>
+      <c r="M159">
+        <f t="shared" si="8"/>
+        <v>-1625000000</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="9"/>
+        <v>-518000000</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="10"/>
+        <v>-1586000000</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="11"/>
+        <v>-245000000</v>
+      </c>
       <c r="R159" s="1"/>
       <c r="T159" s="1"/>
     </row>
@@ -7879,8 +10083,22 @@
       <c r="K160" s="1">
         <v>0</v>
       </c>
-      <c r="N160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="M160">
+        <f t="shared" si="8"/>
+        <v>-6000000</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R160" s="1"/>
       <c r="T160" s="1"/>
     </row>
@@ -7918,8 +10136,22 @@
       <c r="K161" s="1">
         <v>2.2407079646017698E-2</v>
       </c>
-      <c r="N161" s="1"/>
-      <c r="P161" s="1"/>
+      <c r="M161">
+        <f t="shared" si="8"/>
+        <v>-120578000000</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="9"/>
+        <v>-59020000000</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="10"/>
+        <v>-134774000000</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="11"/>
+        <v>-43096000000</v>
+      </c>
       <c r="R161" s="1"/>
       <c r="T161" s="1"/>
     </row>
@@ -7957,8 +10189,22 @@
       <c r="K162" s="1">
         <v>4.3362831858407078E-4</v>
       </c>
-      <c r="N162" s="1"/>
-      <c r="P162" s="1"/>
+      <c r="M162">
+        <f t="shared" si="8"/>
+        <v>-256000000</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="10"/>
+        <v>-1000000</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="11"/>
+        <v>43000000</v>
+      </c>
       <c r="R162" s="1"/>
       <c r="T162" s="1"/>
     </row>
@@ -7996,8 +10242,22 @@
       <c r="K163" s="1">
         <v>0</v>
       </c>
-      <c r="N163" s="1"/>
-      <c r="P163" s="1"/>
+      <c r="M163">
+        <f t="shared" si="8"/>
+        <v>-24000000</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="9"/>
+        <v>-34000000</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="10"/>
+        <v>-114000000</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="11"/>
+        <v>-225000000</v>
+      </c>
       <c r="R163" s="1"/>
       <c r="T163" s="1"/>
     </row>
@@ -8035,8 +10295,22 @@
       <c r="K164" s="1">
         <v>0</v>
       </c>
-      <c r="N164" s="1"/>
-      <c r="P164" s="1"/>
+      <c r="M164">
+        <f t="shared" si="8"/>
+        <v>-24000000</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="9"/>
+        <v>-12000000</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="10"/>
+        <v>-47000000</v>
+      </c>
+      <c r="P164">
+        <f t="shared" si="11"/>
+        <v>-45000000</v>
+      </c>
       <c r="R164" s="1"/>
       <c r="T164" s="1"/>
     </row>
@@ -8074,8 +10348,22 @@
       <c r="K165" s="1">
         <v>0</v>
       </c>
-      <c r="N165" s="1"/>
-      <c r="P165" s="1"/>
+      <c r="M165">
+        <f t="shared" si="8"/>
+        <v>-1990000000</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="9"/>
+        <v>-822000000</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="10"/>
+        <v>-2613000000</v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="11"/>
+        <v>-634000000</v>
+      </c>
       <c r="R165" s="1"/>
       <c r="T165" s="1"/>
     </row>
@@ -8113,8 +10401,22 @@
       <c r="K166" s="1">
         <v>0</v>
       </c>
-      <c r="N166" s="1"/>
-      <c r="P166" s="1"/>
+      <c r="M166">
+        <f t="shared" si="8"/>
+        <v>-27712000000</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="9"/>
+        <v>-11168000000</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="10"/>
+        <v>-39845000000</v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="11"/>
+        <v>-7712000000</v>
+      </c>
       <c r="R166" s="1"/>
       <c r="T166" s="1"/>
     </row>
@@ -8152,8 +10454,22 @@
       <c r="K167" s="1">
         <v>0</v>
       </c>
-      <c r="N167" s="1"/>
-      <c r="P167" s="1"/>
+      <c r="M167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="9"/>
+        <v>180000000</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="10"/>
+        <v>3000000</v>
+      </c>
+      <c r="P167">
+        <f t="shared" si="11"/>
+        <v>-8000000</v>
+      </c>
       <c r="R167" s="1"/>
       <c r="T167" s="1"/>
     </row>
@@ -8191,8 +10507,22 @@
       <c r="K168" s="1">
         <v>0</v>
       </c>
-      <c r="N168" s="1"/>
-      <c r="P168" s="1"/>
+      <c r="M168">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="9"/>
+        <v>-15000000</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="10"/>
+        <v>-235000000</v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="11"/>
+        <v>-36000000</v>
+      </c>
       <c r="R168" s="1"/>
       <c r="T168" s="1"/>
     </row>
@@ -8230,8 +10560,22 @@
       <c r="K169" s="1">
         <v>0</v>
       </c>
-      <c r="N169" s="1"/>
-      <c r="P169" s="1"/>
+      <c r="M169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R169" s="1"/>
       <c r="T169" s="1"/>
     </row>
@@ -8269,8 +10613,22 @@
       <c r="K170" s="1">
         <v>0</v>
       </c>
-      <c r="N170" s="1"/>
-      <c r="P170" s="1"/>
+      <c r="M170">
+        <f t="shared" si="8"/>
+        <v>-3000000</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="10"/>
+        <v>-100000000</v>
+      </c>
+      <c r="P170">
+        <f t="shared" si="11"/>
+        <v>-27000000</v>
+      </c>
       <c r="R170" s="1"/>
       <c r="T170" s="1"/>
     </row>
@@ -8308,8 +10666,22 @@
       <c r="K171" s="1">
         <v>0</v>
       </c>
-      <c r="N171" s="1"/>
-      <c r="P171" s="1"/>
+      <c r="M171">
+        <f t="shared" si="8"/>
+        <v>-117000000</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="10"/>
+        <v>-112000000</v>
+      </c>
+      <c r="P171">
+        <f t="shared" si="11"/>
+        <v>-6000000</v>
+      </c>
       <c r="R171" s="1"/>
       <c r="T171" s="1"/>
     </row>
@@ -8347,8 +10719,22 @@
       <c r="K172" s="1">
         <v>0</v>
       </c>
-      <c r="N172" s="1"/>
-      <c r="P172" s="1"/>
+      <c r="M172">
+        <f t="shared" si="8"/>
+        <v>-38000000</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="9"/>
+        <v>-10000000</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="10"/>
+        <v>-75000000</v>
+      </c>
+      <c r="P172">
+        <f t="shared" si="11"/>
+        <v>-5000000</v>
+      </c>
       <c r="R172" s="1"/>
       <c r="T172" s="1"/>
     </row>
@@ -8386,8 +10772,22 @@
       <c r="K173" s="1">
         <v>0</v>
       </c>
-      <c r="N173" s="1"/>
-      <c r="P173" s="1"/>
+      <c r="M173">
+        <f t="shared" si="8"/>
+        <v>-3000000</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="9"/>
+        <v>-3000000</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="10"/>
+        <v>-7000000</v>
+      </c>
+      <c r="P173">
+        <f t="shared" si="11"/>
+        <v>-19000000</v>
+      </c>
       <c r="R173" s="1"/>
       <c r="T173" s="1"/>
     </row>
@@ -8425,8 +10825,22 @@
       <c r="K174" s="1">
         <v>0</v>
       </c>
-      <c r="N174" s="1"/>
-      <c r="P174" s="1"/>
+      <c r="M174">
+        <f t="shared" si="8"/>
+        <v>-2924000000</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="9"/>
+        <v>-2586000000</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="10"/>
+        <v>-1104000000</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="11"/>
+        <v>-268000000</v>
+      </c>
       <c r="R174" s="1"/>
       <c r="T174" s="1"/>
     </row>
@@ -8464,8 +10878,22 @@
       <c r="K175" s="1">
         <v>0.42630973451327436</v>
       </c>
-      <c r="N175" s="1"/>
-      <c r="P175" s="1"/>
+      <c r="M175">
+        <f t="shared" si="8"/>
+        <v>128783000000</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="9"/>
+        <v>38685000000</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="10"/>
+        <v>86570000000</v>
+      </c>
+      <c r="P175">
+        <f t="shared" si="11"/>
+        <v>44405000000</v>
+      </c>
       <c r="R175" s="1"/>
       <c r="T175" s="1"/>
     </row>
@@ -8503,8 +10931,22 @@
       <c r="K176" s="1">
         <v>0</v>
       </c>
-      <c r="N176" s="1"/>
-      <c r="P176" s="1"/>
+      <c r="M176">
+        <f t="shared" si="8"/>
+        <v>-48000000</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="9"/>
+        <v>-131000000</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="10"/>
+        <v>-110000000</v>
+      </c>
+      <c r="P176">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R176" s="1"/>
       <c r="T176" s="1"/>
     </row>
@@ -8542,8 +10984,22 @@
       <c r="K177" s="1">
         <v>0</v>
       </c>
-      <c r="N177" s="1"/>
-      <c r="P177" s="1"/>
+      <c r="M177">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R177" s="1"/>
       <c r="T177" s="1"/>
     </row>
@@ -8581,8 +11037,22 @@
       <c r="K178" s="1">
         <v>0</v>
       </c>
-      <c r="N178" s="1"/>
-      <c r="P178" s="1"/>
+      <c r="M178">
+        <f t="shared" si="8"/>
+        <v>-23000000</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="9"/>
+        <v>-9000000</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="10"/>
+        <v>-34000000</v>
+      </c>
+      <c r="P178">
+        <f t="shared" si="11"/>
+        <v>-83000000</v>
+      </c>
       <c r="R178" s="1"/>
       <c r="T178" s="1"/>
     </row>
@@ -8620,8 +11090,22 @@
       <c r="K179" s="1">
         <v>4.424778761061947E-5</v>
       </c>
-      <c r="N179" s="1"/>
-      <c r="P179" s="1"/>
+      <c r="M179">
+        <f t="shared" si="8"/>
+        <v>-334000000</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="9"/>
+        <v>-187000000</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="10"/>
+        <v>-950000000</v>
+      </c>
+      <c r="P179">
+        <f t="shared" si="11"/>
+        <v>-455000000</v>
+      </c>
       <c r="R179" s="1"/>
       <c r="T179" s="1"/>
     </row>
@@ -8659,8 +11143,22 @@
       <c r="K180" s="1">
         <v>0</v>
       </c>
-      <c r="N180" s="1"/>
-      <c r="P180" s="1"/>
+      <c r="M180">
+        <f t="shared" si="8"/>
+        <v>97000000</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="9"/>
+        <v>-29000000</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="10"/>
+        <v>-133000000</v>
+      </c>
+      <c r="P180">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R180" s="1"/>
       <c r="T180" s="1"/>
     </row>
@@ -8698,8 +11196,22 @@
       <c r="K181" s="1">
         <v>1.2389380530973451E-2</v>
       </c>
-      <c r="N181" s="1"/>
-      <c r="P181" s="1"/>
+      <c r="M181">
+        <f t="shared" si="8"/>
+        <v>2996000000</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="9"/>
+        <v>2895000000</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="10"/>
+        <v>3777000000</v>
+      </c>
+      <c r="P181">
+        <f t="shared" si="11"/>
+        <v>-820000000</v>
+      </c>
       <c r="R181" s="1"/>
       <c r="T181" s="1"/>
     </row>
@@ -8737,8 +11249,22 @@
       <c r="K182" s="1">
         <v>4.2035398230088495E-3</v>
       </c>
-      <c r="N182" s="1"/>
-      <c r="P182" s="1"/>
+      <c r="M182">
+        <f t="shared" si="8"/>
+        <v>-1377000000</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="9"/>
+        <v>-1956000000</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="10"/>
+        <v>-1263000000</v>
+      </c>
+      <c r="P182">
+        <f t="shared" si="11"/>
+        <v>-1387000000</v>
+      </c>
       <c r="R182" s="1"/>
       <c r="T182" s="1"/>
     </row>
@@ -8776,8 +11302,22 @@
       <c r="K183" s="1">
         <v>0</v>
       </c>
-      <c r="N183" s="1"/>
-      <c r="P183" s="1"/>
+      <c r="M183">
+        <f t="shared" si="8"/>
+        <v>-38000000</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="9"/>
+        <v>-44000000</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="10"/>
+        <v>-75000000</v>
+      </c>
+      <c r="P183">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R183" s="1"/>
       <c r="T183" s="1"/>
     </row>
@@ -8815,8 +11355,22 @@
       <c r="K184" s="1">
         <v>0</v>
       </c>
-      <c r="N184" s="1"/>
-      <c r="P184" s="1"/>
+      <c r="M184">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R184" s="1"/>
       <c r="T184" s="1"/>
     </row>
@@ -8854,8 +11408,22 @@
       <c r="K185" s="1">
         <v>4.3362831858407078E-4</v>
       </c>
-      <c r="N185" s="1"/>
-      <c r="P185" s="1"/>
+      <c r="M185">
+        <f t="shared" si="8"/>
+        <v>-965000000</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="9"/>
+        <v>-243000000</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="10"/>
+        <v>-251000000</v>
+      </c>
+      <c r="P185">
+        <f t="shared" si="11"/>
+        <v>-716000000</v>
+      </c>
       <c r="R185" s="1"/>
       <c r="T185" s="1"/>
     </row>
@@ -8893,8 +11461,22 @@
       <c r="K186" s="1">
         <v>0.82606194690265489</v>
       </c>
-      <c r="N186" s="1"/>
-      <c r="P186" s="1"/>
+      <c r="M186">
+        <f t="shared" si="8"/>
+        <v>89661000000</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="9"/>
+        <v>38485000000</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="10"/>
+        <v>109510000000</v>
+      </c>
+      <c r="P186">
+        <f t="shared" si="11"/>
+        <v>54980000000</v>
+      </c>
       <c r="R186" s="1"/>
       <c r="T186" s="1"/>
     </row>
@@ -8932,8 +11514,22 @@
       <c r="K187" s="1">
         <v>0</v>
       </c>
-      <c r="N187" s="1"/>
-      <c r="P187" s="1"/>
+      <c r="M187">
+        <f t="shared" si="8"/>
+        <v>-1169000000</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="9"/>
+        <v>-701000000</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="10"/>
+        <v>-3078000000</v>
+      </c>
+      <c r="P187">
+        <f t="shared" si="11"/>
+        <v>-98000000</v>
+      </c>
       <c r="R187" s="1"/>
       <c r="T187" s="1"/>
     </row>
@@ -8971,8 +11567,22 @@
       <c r="K188" s="1">
         <v>0</v>
       </c>
-      <c r="N188" s="1"/>
-      <c r="P188" s="1"/>
+      <c r="M188">
+        <f t="shared" si="8"/>
+        <v>-1384000000</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="9"/>
+        <v>-206000000</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="10"/>
+        <v>-549000000</v>
+      </c>
+      <c r="P188">
+        <f t="shared" si="11"/>
+        <v>-287000000</v>
+      </c>
       <c r="R188" s="1"/>
       <c r="T188" s="1"/>
     </row>
@@ -9010,8 +11620,22 @@
       <c r="K189" s="1">
         <v>5.221238938053097E-4</v>
       </c>
-      <c r="N189" s="1"/>
-      <c r="P189" s="1"/>
+      <c r="M189">
+        <f t="shared" si="8"/>
+        <v>-7622000000</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="9"/>
+        <v>-4148000000</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="10"/>
+        <v>-10450000000</v>
+      </c>
+      <c r="P189">
+        <f t="shared" si="11"/>
+        <v>-5256000000</v>
+      </c>
       <c r="R189" s="1"/>
       <c r="T189" s="1"/>
     </row>
@@ -9049,8 +11673,22 @@
       <c r="K190" s="1">
         <v>0</v>
       </c>
-      <c r="N190" s="1"/>
-      <c r="P190" s="1"/>
+      <c r="M190">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="10"/>
+        <v>1000000</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R190" s="1"/>
       <c r="T190" s="1"/>
     </row>
@@ -9088,8 +11726,22 @@
       <c r="K191" s="1">
         <v>0</v>
       </c>
-      <c r="N191" s="1"/>
-      <c r="P191" s="1"/>
+      <c r="M191">
+        <f t="shared" si="8"/>
+        <v>-1194000000</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="9"/>
+        <v>-818000000</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="10"/>
+        <v>-800000000</v>
+      </c>
+      <c r="P191">
+        <f t="shared" si="11"/>
+        <v>-150000000</v>
+      </c>
       <c r="R191" s="1"/>
       <c r="T191" s="1"/>
     </row>
@@ -9127,8 +11779,22 @@
       <c r="K192" s="1">
         <v>0</v>
       </c>
-      <c r="N192" s="1"/>
-      <c r="P192" s="1"/>
+      <c r="M192">
+        <f t="shared" si="8"/>
+        <v>-439000000</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="9"/>
+        <v>-92000000</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="10"/>
+        <v>-1043000000</v>
+      </c>
+      <c r="P192">
+        <f t="shared" si="11"/>
+        <v>-1226000000</v>
+      </c>
       <c r="R192" s="1"/>
       <c r="T192" s="1"/>
     </row>
@@ -9166,8 +11832,22 @@
       <c r="K193" s="1">
         <v>0</v>
       </c>
-      <c r="N193" s="1"/>
-      <c r="P193" s="1"/>
+      <c r="M193">
+        <f t="shared" si="8"/>
+        <v>-6000000</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <f t="shared" si="11"/>
+        <v>-7000000</v>
+      </c>
       <c r="R193" s="1"/>
       <c r="T193" s="1"/>
     </row>
@@ -9205,8 +11885,22 @@
       <c r="K194" s="1">
         <v>0</v>
       </c>
-      <c r="N194" s="1"/>
-      <c r="P194" s="1"/>
+      <c r="M194">
+        <f t="shared" si="8"/>
+        <v>-29000000</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="10"/>
+        <v>-11000000</v>
+      </c>
+      <c r="P194">
+        <f t="shared" si="11"/>
+        <v>-23000000</v>
+      </c>
       <c r="R194" s="1"/>
       <c r="T194" s="1"/>
     </row>
@@ -9244,14 +11938,42 @@
       <c r="K195" s="1">
         <v>8.1504424778761058E-3</v>
       </c>
-      <c r="N195" s="1"/>
-      <c r="P195" s="1"/>
+      <c r="M195">
+        <f t="shared" si="8"/>
+        <v>-575000000</v>
+      </c>
+      <c r="N195">
+        <f t="shared" si="9"/>
+        <v>-1914000000</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="10"/>
+        <v>-1276000000</v>
+      </c>
+      <c r="P195">
+        <f t="shared" si="11"/>
+        <v>-1062000000</v>
+      </c>
       <c r="R195" s="1"/>
       <c r="T195" s="1"/>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N196" s="1"/>
-      <c r="P196" s="1"/>
+      <c r="M196">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R196" s="1"/>
       <c r="T196" s="1"/>
     </row>
@@ -9289,8 +12011,22 @@
       <c r="K197" s="1">
         <v>0</v>
       </c>
-      <c r="N197" s="1"/>
-      <c r="P197" s="1"/>
+      <c r="M197">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="R197" s="1"/>
       <c r="T197" s="1"/>
     </row>
@@ -9328,8 +12064,22 @@
       <c r="K198" s="1">
         <v>1.1504424778761063E-4</v>
       </c>
-      <c r="N198" s="1"/>
-      <c r="P198" s="1"/>
+      <c r="M198">
+        <f t="shared" ref="M198:M261" si="12">D198-D466</f>
+        <v>-465000000</v>
+      </c>
+      <c r="N198">
+        <f t="shared" ref="N198:N261" si="13">F198-F466</f>
+        <v>92000000</v>
+      </c>
+      <c r="O198">
+        <f t="shared" ref="O198:O261" si="14">H198-H466</f>
+        <v>6000000</v>
+      </c>
+      <c r="P198">
+        <f t="shared" ref="P198:P261" si="15">J198-J466</f>
+        <v>13000000</v>
+      </c>
       <c r="R198" s="1"/>
       <c r="T198" s="1"/>
     </row>
@@ -9367,8 +12117,22 @@
       <c r="K199" s="1">
         <v>6.1061946902654868E-4</v>
       </c>
-      <c r="N199" s="1"/>
-      <c r="P199" s="1"/>
+      <c r="M199">
+        <f t="shared" si="12"/>
+        <v>-1934000000</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="13"/>
+        <v>-880000000</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="14"/>
+        <v>-951000000</v>
+      </c>
+      <c r="P199">
+        <f t="shared" si="15"/>
+        <v>-48000000</v>
+      </c>
       <c r="R199" s="1"/>
       <c r="T199" s="1"/>
     </row>
@@ -9406,8 +12170,22 @@
       <c r="K200" s="1">
         <v>0</v>
       </c>
-      <c r="N200" s="1"/>
-      <c r="P200" s="1"/>
+      <c r="M200">
+        <f t="shared" si="12"/>
+        <v>-12000000</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="13"/>
+        <v>-5000000</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="14"/>
+        <v>-20000000</v>
+      </c>
+      <c r="P200">
+        <f t="shared" si="15"/>
+        <v>-5000000</v>
+      </c>
       <c r="R200" s="1"/>
       <c r="T200" s="1"/>
     </row>
@@ -9445,8 +12223,22 @@
       <c r="K201" s="1">
         <v>0</v>
       </c>
-      <c r="N201" s="1"/>
-      <c r="P201" s="1"/>
+      <c r="M201">
+        <f t="shared" si="12"/>
+        <v>-15000000</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="13"/>
+        <v>-17000000</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="14"/>
+        <v>-7000000</v>
+      </c>
+      <c r="P201">
+        <f t="shared" si="15"/>
+        <v>-2000000</v>
+      </c>
       <c r="R201" s="1"/>
       <c r="T201" s="1"/>
     </row>
@@ -9484,14 +12276,42 @@
       <c r="K202" s="1">
         <v>0</v>
       </c>
-      <c r="N202" s="1"/>
-      <c r="P202" s="1"/>
+      <c r="M202">
+        <f t="shared" si="12"/>
+        <v>-30000000</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R202" s="1"/>
       <c r="T202" s="1"/>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N203" s="1"/>
-      <c r="P203" s="1"/>
+      <c r="M203">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R203" s="1"/>
       <c r="T203" s="1"/>
     </row>
@@ -9529,8 +12349,22 @@
       <c r="K204" s="1">
         <v>0</v>
       </c>
-      <c r="N204" s="1"/>
-      <c r="P204" s="1"/>
+      <c r="M204">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R204" s="1"/>
       <c r="T204" s="1"/>
     </row>
@@ -9568,8 +12402,22 @@
       <c r="K205" s="1">
         <v>1.2389380530973451E-4</v>
       </c>
-      <c r="N205" s="1"/>
-      <c r="P205" s="1"/>
+      <c r="M205">
+        <f t="shared" si="12"/>
+        <v>-863000000</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="13"/>
+        <v>-311000000</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="14"/>
+        <v>-5212000000</v>
+      </c>
+      <c r="P205">
+        <f t="shared" si="15"/>
+        <v>-8215000000</v>
+      </c>
       <c r="R205" s="1"/>
       <c r="T205" s="1"/>
     </row>
@@ -9607,8 +12455,22 @@
       <c r="K206" s="1">
         <v>1.7699115044247787E-5</v>
       </c>
-      <c r="N206" s="1"/>
-      <c r="P206" s="1"/>
+      <c r="M206">
+        <f t="shared" si="12"/>
+        <v>-645000000</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="13"/>
+        <v>-965000000</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="14"/>
+        <v>-346000000</v>
+      </c>
+      <c r="P206">
+        <f t="shared" si="15"/>
+        <v>-889000000</v>
+      </c>
       <c r="R206" s="1"/>
       <c r="T206" s="1"/>
     </row>
@@ -9646,8 +12508,22 @@
       <c r="K207" s="1">
         <v>8.5929203539823015E-2</v>
       </c>
-      <c r="N207" s="1"/>
-      <c r="P207" s="1"/>
+      <c r="M207">
+        <f t="shared" si="12"/>
+        <v>45775000000</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="13"/>
+        <v>33120000000</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="14"/>
+        <v>66302000000</v>
+      </c>
+      <c r="P207">
+        <f t="shared" si="15"/>
+        <v>9440000000</v>
+      </c>
       <c r="R207" s="1"/>
       <c r="T207" s="1"/>
     </row>
@@ -9685,8 +12561,22 @@
       <c r="K208" s="1">
         <v>0</v>
       </c>
-      <c r="N208" s="1"/>
-      <c r="P208" s="1"/>
+      <c r="M208">
+        <f t="shared" si="12"/>
+        <v>-59000000</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="13"/>
+        <v>-42000000</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="14"/>
+        <v>-76000000</v>
+      </c>
+      <c r="P208">
+        <f t="shared" si="15"/>
+        <v>-74000000</v>
+      </c>
       <c r="R208" s="1"/>
       <c r="T208" s="1"/>
     </row>
@@ -9724,8 +12614,22 @@
       <c r="K209" s="1">
         <v>2.7168141592920354E-3</v>
       </c>
-      <c r="N209" s="1"/>
-      <c r="P209" s="1"/>
+      <c r="M209">
+        <f t="shared" si="12"/>
+        <v>-28816000000</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="13"/>
+        <v>-16078000000</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="14"/>
+        <v>-49839000000</v>
+      </c>
+      <c r="P209">
+        <f t="shared" si="15"/>
+        <v>-16492000000</v>
+      </c>
       <c r="R209" s="1"/>
       <c r="T209" s="1"/>
     </row>
@@ -9763,8 +12667,22 @@
       <c r="K210" s="1">
         <v>2.6548672566371683E-5</v>
       </c>
-      <c r="N210" s="1"/>
-      <c r="P210" s="1"/>
+      <c r="M210">
+        <f t="shared" si="12"/>
+        <v>-16365000000</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="13"/>
+        <v>-2953000000</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="14"/>
+        <v>-23922000000</v>
+      </c>
+      <c r="P210">
+        <f t="shared" si="15"/>
+        <v>-8646000000</v>
+      </c>
       <c r="R210" s="1"/>
       <c r="T210" s="1"/>
     </row>
@@ -9802,8 +12720,22 @@
       <c r="K211" s="1">
         <v>0</v>
       </c>
-      <c r="N211" s="1"/>
-      <c r="P211" s="1"/>
+      <c r="M211">
+        <f t="shared" si="12"/>
+        <v>-541000000</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="13"/>
+        <v>-752000000</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="14"/>
+        <v>-1000000000</v>
+      </c>
+      <c r="P211">
+        <f t="shared" si="15"/>
+        <v>-3000000</v>
+      </c>
       <c r="R211" s="1"/>
       <c r="T211" s="1"/>
     </row>
@@ -9841,8 +12773,22 @@
       <c r="K212" s="1">
         <v>0</v>
       </c>
-      <c r="N212" s="1"/>
-      <c r="P212" s="1"/>
+      <c r="M212">
+        <f t="shared" si="12"/>
+        <v>-7000000</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="13"/>
+        <v>-55000000</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="14"/>
+        <v>-196000000</v>
+      </c>
+      <c r="P212">
+        <f t="shared" si="15"/>
+        <v>-241000000</v>
+      </c>
       <c r="R212" s="1"/>
       <c r="T212" s="1"/>
     </row>
@@ -9880,8 +12826,22 @@
       <c r="K213" s="1">
         <v>1.2654867256637167E-3</v>
       </c>
-      <c r="N213" s="1"/>
-      <c r="P213" s="1"/>
+      <c r="M213">
+        <f t="shared" si="12"/>
+        <v>-4239000000</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="13"/>
+        <v>-3828000000</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="14"/>
+        <v>-5298000000</v>
+      </c>
+      <c r="P213">
+        <f t="shared" si="15"/>
+        <v>-1510000000</v>
+      </c>
       <c r="R213" s="1"/>
       <c r="T213" s="1"/>
     </row>
@@ -9919,8 +12879,22 @@
       <c r="K214" s="1">
         <v>0</v>
       </c>
-      <c r="N214" s="1"/>
-      <c r="P214" s="1"/>
+      <c r="M214">
+        <f t="shared" si="12"/>
+        <v>-6000000</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="14"/>
+        <v>-7000000</v>
+      </c>
+      <c r="P214">
+        <f t="shared" si="15"/>
+        <v>-7000000</v>
+      </c>
       <c r="R214" s="1"/>
       <c r="T214" s="1"/>
     </row>
@@ -9958,8 +12932,22 @@
       <c r="K215" s="1">
         <v>0</v>
       </c>
-      <c r="N215" s="1"/>
-      <c r="P215" s="1"/>
+      <c r="M215">
+        <f t="shared" si="12"/>
+        <v>-51000000</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="13"/>
+        <v>-9000000</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="14"/>
+        <v>-6000000</v>
+      </c>
+      <c r="P215">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R215" s="1"/>
       <c r="T215" s="1"/>
     </row>
@@ -9997,8 +12985,22 @@
       <c r="K216" s="1">
         <v>0</v>
       </c>
-      <c r="N216" s="1"/>
-      <c r="P216" s="1"/>
+      <c r="M216">
+        <f t="shared" si="12"/>
+        <v>-65000000</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="13"/>
+        <v>-5000000</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="14"/>
+        <v>-34000000</v>
+      </c>
+      <c r="P216">
+        <f t="shared" si="15"/>
+        <v>-20000000</v>
+      </c>
       <c r="R216" s="1"/>
       <c r="T216" s="1"/>
     </row>
@@ -10036,8 +13038,22 @@
       <c r="K217" s="1">
         <v>0</v>
       </c>
-      <c r="N217" s="1"/>
-      <c r="P217" s="1"/>
+      <c r="M217">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R217" s="1"/>
       <c r="T217" s="1"/>
     </row>
@@ -10075,8 +13091,22 @@
       <c r="K218" s="1">
         <v>0</v>
       </c>
-      <c r="N218" s="1"/>
-      <c r="P218" s="1"/>
+      <c r="M218">
+        <f t="shared" si="12"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="14"/>
+        <v>-16000000</v>
+      </c>
+      <c r="P218">
+        <f t="shared" si="15"/>
+        <v>-8000000</v>
+      </c>
       <c r="R218" s="1"/>
       <c r="T218" s="1"/>
     </row>
@@ -10114,8 +13144,22 @@
       <c r="K219" s="1">
         <v>4.601769911504425E-4</v>
       </c>
-      <c r="N219" s="1"/>
-      <c r="P219" s="1"/>
+      <c r="M219">
+        <f t="shared" si="12"/>
+        <v>-22000000</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="13"/>
+        <v>55000000</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="14"/>
+        <v>90000000</v>
+      </c>
+      <c r="P219">
+        <f t="shared" si="15"/>
+        <v>-494000000</v>
+      </c>
       <c r="R219" s="1"/>
       <c r="T219" s="1"/>
     </row>
@@ -10153,8 +13197,22 @@
       <c r="K220" s="1">
         <v>0</v>
       </c>
-      <c r="N220" s="1"/>
-      <c r="P220" s="1"/>
+      <c r="M220">
+        <f t="shared" si="12"/>
+        <v>-2710000000</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="13"/>
+        <v>-3905000000</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="14"/>
+        <v>-6728000000</v>
+      </c>
+      <c r="P220">
+        <f t="shared" si="15"/>
+        <v>-1177000000</v>
+      </c>
       <c r="R220" s="1"/>
       <c r="T220" s="1"/>
     </row>
@@ -10192,8 +13250,22 @@
       <c r="K221" s="1">
         <v>0</v>
       </c>
-      <c r="N221" s="1"/>
-      <c r="P221" s="1"/>
+      <c r="M221">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="13"/>
+        <v>-82000000</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="14"/>
+        <v>-142000000</v>
+      </c>
+      <c r="P221">
+        <f t="shared" si="15"/>
+        <v>-18000000</v>
+      </c>
       <c r="R221" s="1"/>
       <c r="T221" s="1"/>
     </row>
@@ -10231,8 +13303,22 @@
       <c r="K222" s="1">
         <v>0</v>
       </c>
-      <c r="N222" s="1"/>
-      <c r="P222" s="1"/>
+      <c r="M222">
+        <f t="shared" si="12"/>
+        <v>-2710000000</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="13"/>
+        <v>-3905000000</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="14"/>
+        <v>-6770000000</v>
+      </c>
+      <c r="P222">
+        <f t="shared" si="15"/>
+        <v>-1177000000</v>
+      </c>
       <c r="R222" s="1"/>
       <c r="T222" s="1"/>
     </row>
@@ -10270,8 +13356,22 @@
       <c r="K223" s="1">
         <v>0</v>
       </c>
-      <c r="N223" s="1"/>
-      <c r="P223" s="1"/>
+      <c r="M223">
+        <f t="shared" si="12"/>
+        <v>-369000000</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="14"/>
+        <v>-562000000</v>
+      </c>
+      <c r="P223">
+        <f t="shared" si="15"/>
+        <v>-313000000</v>
+      </c>
       <c r="R223" s="1"/>
       <c r="T223" s="1"/>
     </row>
@@ -10309,8 +13409,22 @@
       <c r="K224" s="1">
         <v>0</v>
       </c>
-      <c r="N224" s="1"/>
-      <c r="P224" s="1"/>
+      <c r="M224">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R224" s="1"/>
       <c r="T224" s="1"/>
     </row>
@@ -10348,8 +13462,22 @@
       <c r="K225" s="1">
         <v>0</v>
       </c>
-      <c r="N225" s="1"/>
-      <c r="P225" s="1"/>
+      <c r="M225">
+        <f t="shared" si="12"/>
+        <v>-25000000</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="14"/>
+        <v>-10000000</v>
+      </c>
+      <c r="P225">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R225" s="1"/>
       <c r="T225" s="1"/>
     </row>
@@ -10387,8 +13515,22 @@
       <c r="K226" s="1">
         <v>2.0884955752212388E-3</v>
       </c>
-      <c r="N226" s="1"/>
-      <c r="P226" s="1"/>
+      <c r="M226">
+        <f t="shared" si="12"/>
+        <v>256000000</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="13"/>
+        <v>66000000</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="14"/>
+        <v>-33000000</v>
+      </c>
+      <c r="P226">
+        <f t="shared" si="15"/>
+        <v>133000000</v>
+      </c>
       <c r="R226" s="1"/>
       <c r="T226" s="1"/>
     </row>
@@ -10426,8 +13568,22 @@
       <c r="K227" s="1">
         <v>3.5398230088495576E-4</v>
       </c>
-      <c r="N227" s="1"/>
-      <c r="P227" s="1"/>
+      <c r="M227">
+        <f t="shared" si="12"/>
+        <v>-192000000</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="13"/>
+        <v>-35000000</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="14"/>
+        <v>-59000000</v>
+      </c>
+      <c r="P227">
+        <f t="shared" si="15"/>
+        <v>5000000</v>
+      </c>
       <c r="R227" s="1"/>
       <c r="T227" s="1"/>
     </row>
@@ -10465,8 +13621,22 @@
       <c r="K228" s="1">
         <v>8.6106194690265484E-3</v>
       </c>
-      <c r="N228" s="1"/>
-      <c r="P228" s="1"/>
+      <c r="M228">
+        <f t="shared" si="12"/>
+        <v>1958000000</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="13"/>
+        <v>2053000000</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="14"/>
+        <v>2818000000</v>
+      </c>
+      <c r="P228">
+        <f t="shared" si="15"/>
+        <v>432000000</v>
+      </c>
       <c r="R228" s="1"/>
       <c r="T228" s="1"/>
     </row>
@@ -10504,8 +13674,22 @@
       <c r="K229" s="1">
         <v>0</v>
       </c>
-      <c r="N229" s="1"/>
-      <c r="P229" s="1"/>
+      <c r="M229">
+        <f t="shared" si="12"/>
+        <v>-2000000</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <f t="shared" si="15"/>
+        <v>-2000000</v>
+      </c>
       <c r="R229" s="1"/>
       <c r="T229" s="1"/>
     </row>
@@ -10543,8 +13727,22 @@
       <c r="K230" s="1">
         <v>0</v>
       </c>
-      <c r="N230" s="1"/>
-      <c r="P230" s="1"/>
+      <c r="M230">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R230" s="1"/>
       <c r="T230" s="1"/>
     </row>
@@ -10582,8 +13780,22 @@
       <c r="K231" s="1">
         <v>0</v>
       </c>
-      <c r="N231" s="1"/>
-      <c r="P231" s="1"/>
+      <c r="M231">
+        <f t="shared" si="12"/>
+        <v>1000000</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="13"/>
+        <v>-15000000</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="14"/>
+        <v>-52000000</v>
+      </c>
+      <c r="P231">
+        <f t="shared" si="15"/>
+        <v>-19000000</v>
+      </c>
       <c r="R231" s="1"/>
       <c r="T231" s="1"/>
     </row>
@@ -10621,8 +13833,22 @@
       <c r="K232" s="1">
         <v>0</v>
       </c>
-      <c r="N232" s="1"/>
-      <c r="P232" s="1"/>
+      <c r="M232">
+        <f t="shared" si="12"/>
+        <v>-1036000000</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="13"/>
+        <v>-656000000</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="14"/>
+        <v>-2281000000</v>
+      </c>
+      <c r="P232">
+        <f t="shared" si="15"/>
+        <v>-87000000</v>
+      </c>
       <c r="R232" s="1"/>
       <c r="T232" s="1"/>
     </row>
@@ -10660,8 +13886,22 @@
       <c r="K233" s="1">
         <v>0</v>
       </c>
-      <c r="N233" s="1"/>
-      <c r="P233" s="1"/>
+      <c r="M233">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R233" s="1"/>
       <c r="T233" s="1"/>
     </row>
@@ -10699,8 +13939,22 @@
       <c r="K234" s="1">
         <v>0</v>
       </c>
-      <c r="N234" s="1"/>
-      <c r="P234" s="1"/>
+      <c r="M234">
+        <f t="shared" si="12"/>
+        <v>-34000000</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="13"/>
+        <v>-166000000</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="14"/>
+        <v>-181000000</v>
+      </c>
+      <c r="P234">
+        <f t="shared" si="15"/>
+        <v>-78000000</v>
+      </c>
       <c r="R234" s="1"/>
       <c r="T234" s="1"/>
     </row>
@@ -10738,8 +13992,22 @@
       <c r="K235" s="1">
         <v>5.7920353982300887E-2</v>
       </c>
-      <c r="N235" s="1"/>
-      <c r="P235" s="1"/>
+      <c r="M235">
+        <f t="shared" si="12"/>
+        <v>-30740000000</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="13"/>
+        <v>-16849000000</v>
+      </c>
+      <c r="O235">
+        <f t="shared" si="14"/>
+        <v>-17003000000</v>
+      </c>
+      <c r="P235">
+        <f t="shared" si="15"/>
+        <v>-882000000</v>
+      </c>
       <c r="R235" s="1"/>
       <c r="T235" s="1"/>
     </row>
@@ -10777,8 +14045,22 @@
       <c r="K236" s="1">
         <v>0.1183362831858407</v>
       </c>
-      <c r="N236" s="1"/>
-      <c r="P236" s="1"/>
+      <c r="M236">
+        <f t="shared" si="12"/>
+        <v>41296000000</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="13"/>
+        <v>34244000000</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="14"/>
+        <v>57639000000</v>
+      </c>
+      <c r="P236">
+        <f t="shared" si="15"/>
+        <v>-741000000</v>
+      </c>
       <c r="R236" s="1"/>
       <c r="T236" s="1"/>
     </row>
@@ -10816,8 +14098,22 @@
       <c r="K237" s="1">
         <v>0</v>
       </c>
-      <c r="N237" s="1"/>
-      <c r="P237" s="1"/>
+      <c r="M237">
+        <f t="shared" si="12"/>
+        <v>-32000000</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="14"/>
+        <v>-22000000</v>
+      </c>
+      <c r="P237">
+        <f t="shared" si="15"/>
+        <v>-75000000</v>
+      </c>
       <c r="R237" s="1"/>
       <c r="T237" s="1"/>
     </row>
@@ -10855,8 +14151,22 @@
       <c r="K238" s="1">
         <v>2.6548672566371683E-5</v>
       </c>
-      <c r="N238" s="1"/>
-      <c r="P238" s="1"/>
+      <c r="M238">
+        <f t="shared" si="12"/>
+        <v>-4712000000</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="13"/>
+        <v>-335000000</v>
+      </c>
+      <c r="O238">
+        <f t="shared" si="14"/>
+        <v>-2832000000</v>
+      </c>
+      <c r="P238">
+        <f t="shared" si="15"/>
+        <v>-820000000</v>
+      </c>
       <c r="R238" s="1"/>
       <c r="T238" s="1"/>
     </row>
@@ -10894,8 +14204,22 @@
       <c r="K239" s="1">
         <v>0</v>
       </c>
-      <c r="N239" s="1"/>
-      <c r="P239" s="1"/>
+      <c r="M239">
+        <f t="shared" si="12"/>
+        <v>-29000000</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="13"/>
+        <v>-54000000</v>
+      </c>
+      <c r="O239">
+        <f t="shared" si="14"/>
+        <v>-39000000</v>
+      </c>
+      <c r="P239">
+        <f t="shared" si="15"/>
+        <v>-3000000</v>
+      </c>
       <c r="R239" s="1"/>
       <c r="T239" s="1"/>
     </row>
@@ -10933,8 +14257,22 @@
       <c r="K240" s="1">
         <v>0</v>
       </c>
-      <c r="N240" s="1"/>
-      <c r="P240" s="1"/>
+      <c r="M240">
+        <f t="shared" si="12"/>
+        <v>-18000000</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="13"/>
+        <v>-64000000</v>
+      </c>
+      <c r="O240">
+        <f t="shared" si="14"/>
+        <v>-1231000000</v>
+      </c>
+      <c r="P240">
+        <f t="shared" si="15"/>
+        <v>-377000000</v>
+      </c>
       <c r="R240" s="1"/>
       <c r="T240" s="1"/>
     </row>
@@ -10972,8 +14310,22 @@
       <c r="K241" s="1">
         <v>0</v>
       </c>
-      <c r="N241" s="1"/>
-      <c r="P241" s="1"/>
+      <c r="M241">
+        <f t="shared" si="12"/>
+        <v>-12746000000</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="13"/>
+        <v>-7037000000</v>
+      </c>
+      <c r="O241">
+        <f t="shared" si="14"/>
+        <v>-11052000000</v>
+      </c>
+      <c r="P241">
+        <f t="shared" si="15"/>
+        <v>-1542000000</v>
+      </c>
       <c r="R241" s="1"/>
       <c r="T241" s="1"/>
     </row>
@@ -11011,8 +14363,22 @@
       <c r="K242" s="1">
         <v>0</v>
       </c>
-      <c r="N242" s="1"/>
-      <c r="P242" s="1"/>
+      <c r="M242">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <f t="shared" si="14"/>
+        <v>-32000000</v>
+      </c>
+      <c r="P242">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R242" s="1"/>
       <c r="T242" s="1"/>
     </row>
@@ -11050,8 +14416,22 @@
       <c r="K243" s="1">
         <v>0</v>
       </c>
-      <c r="N243" s="1"/>
-      <c r="P243" s="1"/>
+      <c r="M243">
+        <f t="shared" si="12"/>
+        <v>-27697000000</v>
+      </c>
+      <c r="N243">
+        <f t="shared" si="13"/>
+        <v>-11151000000</v>
+      </c>
+      <c r="O243">
+        <f t="shared" si="14"/>
+        <v>-39838000000</v>
+      </c>
+      <c r="P243">
+        <f t="shared" si="15"/>
+        <v>-7710000000</v>
+      </c>
       <c r="R243" s="1"/>
       <c r="T243" s="1"/>
     </row>
@@ -11089,8 +14469,22 @@
       <c r="K244" s="1">
         <v>0</v>
       </c>
-      <c r="N244" s="1"/>
-      <c r="P244" s="1"/>
+      <c r="M244">
+        <f t="shared" si="12"/>
+        <v>-6000000</v>
+      </c>
+      <c r="N244">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <f t="shared" si="14"/>
+        <v>-12000000</v>
+      </c>
+      <c r="P244">
+        <f t="shared" si="15"/>
+        <v>-7000000</v>
+      </c>
       <c r="R244" s="1"/>
       <c r="T244" s="1"/>
     </row>
@@ -11128,8 +14522,22 @@
       <c r="K245" s="1">
         <v>2.7168141592920354E-3</v>
       </c>
-      <c r="N245" s="1"/>
-      <c r="P245" s="1"/>
+      <c r="M245">
+        <f t="shared" si="12"/>
+        <v>-28816000000</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="13"/>
+        <v>-16078000000</v>
+      </c>
+      <c r="O245">
+        <f t="shared" si="14"/>
+        <v>-49839000000</v>
+      </c>
+      <c r="P245">
+        <f t="shared" si="15"/>
+        <v>-16492000000</v>
+      </c>
       <c r="R245" s="1"/>
       <c r="T245" s="1"/>
     </row>
@@ -11167,8 +14575,22 @@
       <c r="K246" s="1">
         <v>0</v>
       </c>
-      <c r="N246" s="1"/>
-      <c r="P246" s="1"/>
+      <c r="M246">
+        <f t="shared" si="12"/>
+        <v>-2710000000</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="13"/>
+        <v>-3905000000</v>
+      </c>
+      <c r="O246">
+        <f t="shared" si="14"/>
+        <v>-6770000000</v>
+      </c>
+      <c r="P246">
+        <f t="shared" si="15"/>
+        <v>-1177000000</v>
+      </c>
       <c r="R246" s="1"/>
       <c r="T246" s="1"/>
     </row>
@@ -11206,8 +14628,22 @@
       <c r="K247" s="1">
         <v>0</v>
       </c>
-      <c r="N247" s="1"/>
-      <c r="P247" s="1"/>
+      <c r="M247">
+        <f t="shared" si="12"/>
+        <v>-13000000</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="13"/>
+        <v>-6000000</v>
+      </c>
+      <c r="O247">
+        <f t="shared" si="14"/>
+        <v>-124000000</v>
+      </c>
+      <c r="P247">
+        <f t="shared" si="15"/>
+        <v>-32000000</v>
+      </c>
       <c r="R247" s="1"/>
       <c r="T247" s="1"/>
     </row>
@@ -11245,8 +14681,22 @@
       <c r="K248" s="1">
         <v>0</v>
       </c>
-      <c r="N248" s="1"/>
-      <c r="P248" s="1"/>
+      <c r="M248">
+        <f t="shared" si="12"/>
+        <v>-327000000</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="13"/>
+        <v>-173000000</v>
+      </c>
+      <c r="O248">
+        <f t="shared" si="14"/>
+        <v>-442000000</v>
+      </c>
+      <c r="P248">
+        <f t="shared" si="15"/>
+        <v>-75000000</v>
+      </c>
       <c r="R248" s="1"/>
       <c r="T248" s="1"/>
     </row>
@@ -11284,8 +14734,22 @@
       <c r="K249" s="1">
         <v>1.6778761061946902E-2</v>
       </c>
-      <c r="N249" s="1"/>
-      <c r="P249" s="1"/>
+      <c r="M249">
+        <f t="shared" si="12"/>
+        <v>-19064000000</v>
+      </c>
+      <c r="N249">
+        <f t="shared" si="13"/>
+        <v>-3560000000</v>
+      </c>
+      <c r="O249">
+        <f t="shared" si="14"/>
+        <v>-5686000000</v>
+      </c>
+      <c r="P249">
+        <f t="shared" si="15"/>
+        <v>384000000</v>
+      </c>
       <c r="R249" s="1"/>
       <c r="T249" s="1"/>
     </row>
@@ -11323,8 +14787,22 @@
       <c r="K250" s="1">
         <v>0</v>
       </c>
-      <c r="N250" s="1"/>
-      <c r="P250" s="1"/>
+      <c r="M250">
+        <f t="shared" si="12"/>
+        <v>-6000000</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <f t="shared" si="14"/>
+        <v>-7000000</v>
+      </c>
+      <c r="P250">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R250" s="1"/>
       <c r="T250" s="1"/>
     </row>
@@ -11362,8 +14840,22 @@
       <c r="K251" s="1">
         <v>0</v>
       </c>
-      <c r="N251" s="1"/>
-      <c r="P251" s="1"/>
+      <c r="M251">
+        <f t="shared" si="12"/>
+        <v>-81000000</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="13"/>
+        <v>-52000000</v>
+      </c>
+      <c r="O251">
+        <f t="shared" si="14"/>
+        <v>-384000000</v>
+      </c>
+      <c r="P251">
+        <f t="shared" si="15"/>
+        <v>-60000000</v>
+      </c>
       <c r="R251" s="1"/>
       <c r="T251" s="1"/>
     </row>
@@ -11401,8 +14893,22 @@
       <c r="K252" s="1">
         <v>0</v>
       </c>
-      <c r="N252" s="1"/>
-      <c r="P252" s="1"/>
+      <c r="M252">
+        <f t="shared" si="12"/>
+        <v>-165000000</v>
+      </c>
+      <c r="N252">
+        <f t="shared" si="13"/>
+        <v>-93000000</v>
+      </c>
+      <c r="O252">
+        <f t="shared" si="14"/>
+        <v>-799000000</v>
+      </c>
+      <c r="P252">
+        <f t="shared" si="15"/>
+        <v>-149000000</v>
+      </c>
       <c r="R252" s="1"/>
       <c r="T252" s="1"/>
     </row>
@@ -11440,14 +14946,42 @@
       <c r="K253" s="1">
         <v>3.4424778761061947E-3</v>
       </c>
-      <c r="N253" s="1"/>
-      <c r="P253" s="1"/>
+      <c r="M253">
+        <f t="shared" si="12"/>
+        <v>4331000000</v>
+      </c>
+      <c r="N253">
+        <f t="shared" si="13"/>
+        <v>2500000000</v>
+      </c>
+      <c r="O253">
+        <f t="shared" si="14"/>
+        <v>5364000000</v>
+      </c>
+      <c r="P253">
+        <f t="shared" si="15"/>
+        <v>-6476000000</v>
+      </c>
       <c r="R253" s="1"/>
       <c r="T253" s="1"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N254" s="1"/>
-      <c r="P254" s="1"/>
+      <c r="M254">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R254" s="1"/>
       <c r="T254" s="1"/>
     </row>
@@ -11485,8 +15019,22 @@
       <c r="K255" s="1">
         <v>0</v>
       </c>
-      <c r="N255" s="1"/>
-      <c r="P255" s="1"/>
+      <c r="M255">
+        <f t="shared" si="12"/>
+        <v>-204000000</v>
+      </c>
+      <c r="N255">
+        <f t="shared" si="13"/>
+        <v>-138000000</v>
+      </c>
+      <c r="O255">
+        <f t="shared" si="14"/>
+        <v>-55000000</v>
+      </c>
+      <c r="P255">
+        <f t="shared" si="15"/>
+        <v>-40000000</v>
+      </c>
       <c r="R255" s="1"/>
       <c r="T255" s="1"/>
     </row>
@@ -11524,8 +15072,22 @@
       <c r="K256" s="1">
         <v>0.42022123893805308</v>
       </c>
-      <c r="N256" s="1"/>
-      <c r="P256" s="1"/>
+      <c r="M256">
+        <f t="shared" si="12"/>
+        <v>132001000000</v>
+      </c>
+      <c r="N256">
+        <f t="shared" si="13"/>
+        <v>38838000000</v>
+      </c>
+      <c r="O256">
+        <f t="shared" si="14"/>
+        <v>87479000000</v>
+      </c>
+      <c r="P256">
+        <f t="shared" si="15"/>
+        <v>44395000000</v>
+      </c>
       <c r="R256" s="1"/>
       <c r="T256" s="1"/>
     </row>
@@ -11563,8 +15125,22 @@
       <c r="K257" s="1">
         <v>0</v>
       </c>
-      <c r="N257" s="1"/>
-      <c r="P257" s="1"/>
+      <c r="M257">
+        <f t="shared" si="12"/>
+        <v>235000000</v>
+      </c>
+      <c r="N257">
+        <f t="shared" si="13"/>
+        <v>339000000</v>
+      </c>
+      <c r="O257">
+        <f t="shared" si="14"/>
+        <v>121000000</v>
+      </c>
+      <c r="P257">
+        <f t="shared" si="15"/>
+        <v>-145000000</v>
+      </c>
       <c r="R257" s="1"/>
       <c r="T257" s="1"/>
     </row>
@@ -11599,8 +15175,22 @@
       <c r="K258" s="1">
         <v>0</v>
       </c>
-      <c r="N258" s="1"/>
-      <c r="P258" s="1"/>
+      <c r="M258">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R258" s="1"/>
       <c r="T258" s="1"/>
     </row>
@@ -11635,8 +15225,22 @@
       <c r="K259" s="1">
         <v>0</v>
       </c>
-      <c r="N259" s="1"/>
-      <c r="P259" s="1"/>
+      <c r="M259">
+        <f t="shared" si="12"/>
+        <v>-875000000</v>
+      </c>
+      <c r="N259">
+        <f t="shared" si="13"/>
+        <v>-2230000000</v>
+      </c>
+      <c r="O259">
+        <f t="shared" si="14"/>
+        <v>-2906000000</v>
+      </c>
+      <c r="P259">
+        <f t="shared" si="15"/>
+        <v>-160000000</v>
+      </c>
       <c r="R259" s="1"/>
       <c r="T259" s="1"/>
     </row>
@@ -11671,8 +15275,22 @@
       <c r="K260" s="1">
         <v>0</v>
       </c>
-      <c r="N260" s="1"/>
-      <c r="P260" s="1"/>
+      <c r="M260">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R260" s="1"/>
       <c r="T260" s="1"/>
     </row>
@@ -11707,8 +15325,22 @@
       <c r="K261" s="1">
         <v>0</v>
       </c>
-      <c r="N261" s="1"/>
-      <c r="P261" s="1"/>
+      <c r="M261">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R261" s="1"/>
       <c r="T261" s="1"/>
     </row>
@@ -11743,8 +15375,22 @@
       <c r="K262" s="1">
         <v>0</v>
       </c>
-      <c r="N262" s="1"/>
-      <c r="P262" s="1"/>
+      <c r="M262">
+        <f t="shared" ref="M262:M325" si="16">D262-D530</f>
+        <v>-1163000000</v>
+      </c>
+      <c r="N262">
+        <f t="shared" ref="N262:N325" si="17">F262-F530</f>
+        <v>-803000000</v>
+      </c>
+      <c r="O262">
+        <f t="shared" ref="O262:O325" si="18">H262-H530</f>
+        <v>-6875000000</v>
+      </c>
+      <c r="P262">
+        <f t="shared" ref="P262:P325" si="19">J262-J530</f>
+        <v>-429000000</v>
+      </c>
       <c r="R262" s="1"/>
       <c r="T262" s="1"/>
     </row>
@@ -11779,8 +15425,22 @@
       <c r="K263" s="1">
         <v>0</v>
       </c>
-      <c r="N263" s="1"/>
-      <c r="P263" s="1"/>
+      <c r="M263">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <f t="shared" si="19"/>
+        <v>-7000000</v>
+      </c>
       <c r="R263" s="1"/>
       <c r="T263" s="1"/>
     </row>
@@ -11815,8 +15475,22 @@
       <c r="K264" s="1">
         <v>0</v>
       </c>
-      <c r="N264" s="1"/>
-      <c r="P264" s="1"/>
+      <c r="M264">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <f t="shared" si="18"/>
+        <v>-7000000</v>
+      </c>
+      <c r="P264">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="R264" s="1"/>
       <c r="T264" s="1"/>
     </row>
@@ -11851,8 +15525,22 @@
       <c r="K265" s="1">
         <v>0</v>
       </c>
-      <c r="N265" s="1"/>
-      <c r="P265" s="1"/>
+      <c r="M265">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <f t="shared" si="18"/>
+        <v>-2000000</v>
+      </c>
+      <c r="P265">
+        <f t="shared" si="19"/>
+        <v>-28000000</v>
+      </c>
       <c r="R265" s="1"/>
       <c r="T265" s="1"/>
     </row>
@@ -11890,8 +15578,22 @@
       <c r="K266" s="1">
         <v>0</v>
       </c>
-      <c r="N266" s="1"/>
-      <c r="P266" s="1"/>
+      <c r="M266">
+        <f t="shared" si="16"/>
+        <v>-1208000000</v>
+      </c>
+      <c r="N266">
+        <f t="shared" si="17"/>
+        <v>-709000000</v>
+      </c>
+      <c r="O266">
+        <f t="shared" si="18"/>
+        <v>-430000000</v>
+      </c>
+      <c r="P266">
+        <f t="shared" si="19"/>
+        <v>-1000000</v>
+      </c>
       <c r="R266" s="1"/>
       <c r="T266" s="1"/>
     </row>
@@ -11929,8 +15631,22 @@
       <c r="K267" s="1">
         <v>2.6637168141592921E-3</v>
       </c>
-      <c r="N267" s="1"/>
-      <c r="P267" s="1"/>
+      <c r="M267">
+        <f t="shared" si="16"/>
+        <v>-575000000</v>
+      </c>
+      <c r="N267">
+        <f t="shared" si="17"/>
+        <v>-1850000000</v>
+      </c>
+      <c r="O267">
+        <f t="shared" si="18"/>
+        <v>546000000</v>
+      </c>
+      <c r="P267">
+        <f t="shared" si="19"/>
+        <v>241000000</v>
+      </c>
       <c r="R267" s="1"/>
       <c r="T267" s="1"/>
     </row>
@@ -11947,8 +15663,22 @@
       <c r="E268" s="1">
         <v>0</v>
       </c>
-      <c r="N268" s="1"/>
-      <c r="P268" s="1"/>
+      <c r="M268">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="R268" s="1"/>
       <c r="T268" s="1"/>
     </row>
@@ -11965,8 +15695,22 @@
       <c r="E269" s="1">
         <v>0</v>
       </c>
-      <c r="N269" s="1"/>
-      <c r="P269" s="1"/>
+      <c r="M269">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="R269" s="1"/>
       <c r="T269" s="1"/>
     </row>
@@ -12001,8 +15745,22 @@
       <c r="J270">
         <v>112758000000</v>
       </c>
-      <c r="N270" s="1"/>
-      <c r="P270" s="1"/>
+      <c r="M270">
+        <f>D270-D538</f>
+        <v>875000000</v>
+      </c>
+      <c r="N270">
+        <f t="shared" si="17"/>
+        <v>645000000</v>
+      </c>
+      <c r="O270">
+        <f t="shared" si="18"/>
+        <v>627000000</v>
+      </c>
+      <c r="P270">
+        <f t="shared" si="19"/>
+        <v>1215000000</v>
+      </c>
       <c r="R270" s="1"/>
       <c r="T270" s="1"/>
     </row>

--- a/arms-import-export-91-23.xlsx
+++ b/arms-import-export-91-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mailb\OneDrive\Documents\GitHub\Sci-Py-Final-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38951CFB-5FCB-4A48-935C-6D1B5B3AD978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F702C8-32F3-4B3D-B79B-FA7AFE96E772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2052,7 +2052,7 @@
   <dimension ref="A2:T538"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M270" sqref="M270"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,7 +2068,7 @@
     <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2124,16 +2124,16 @@
       <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L4" t="s">
+        <v>550</v>
+      </c>
       <c r="M4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O4" t="s">
-        <v>552</v>
-      </c>
-      <c r="P4" t="s">
         <v>553</v>
       </c>
       <c r="R4" s="1"/>
@@ -2173,19 +2173,19 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <f>D5-D273</f>
         <v>18000000</v>
       </c>
+      <c r="M5">
+        <f>F5-F273</f>
+        <v>0</v>
+      </c>
       <c r="N5">
-        <f>F5-F273</f>
+        <f>H5-H273</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>H5-H273</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
         <f>J5-J273</f>
         <v>0</v>
       </c>
@@ -2226,20 +2226,20 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <f>D6-D274</f>
         <v>-2641000000</v>
       </c>
+      <c r="M6">
+        <f>F6-F274</f>
+        <v>-3854000000</v>
+      </c>
       <c r="N6">
-        <f t="shared" ref="N6:N69" si="0">F6-F274</f>
-        <v>-3854000000</v>
+        <f>H6-H274</f>
+        <v>-3231000000</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O69" si="1">H6-H274</f>
-        <v>-3231000000</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ref="P6:P69" si="2">J6-J274</f>
+        <f>J6-J274</f>
         <v>-249000000</v>
       </c>
       <c r="R6" s="1"/>
@@ -2279,20 +2279,20 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
+      <c r="L7">
+        <f>D7-D275</f>
+        <v>-1269000000</v>
+      </c>
       <c r="M7">
-        <f t="shared" ref="M6:M69" si="3">D7-D275</f>
-        <v>-1269000000</v>
+        <f>F7-F275</f>
+        <v>-550000000</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>-550000000</v>
+        <f>H7-H275</f>
+        <v>-3359000000</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
-        <v>-3359000000</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
+        <f>J7-J275</f>
         <v>-299000000</v>
       </c>
       <c r="R7" s="1"/>
@@ -2332,20 +2332,20 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
+      <c r="L8">
+        <f>D8-D276</f>
+        <v>-630000000</v>
+      </c>
       <c r="M8">
-        <f t="shared" si="3"/>
-        <v>-630000000</v>
+        <f>F8-F276</f>
+        <v>-752000000</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>-752000000</v>
+        <f>H8-H276</f>
+        <v>-2753000000</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
-        <v>-2753000000</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
+        <f>J8-J276</f>
         <v>-1491000000</v>
       </c>
       <c r="R8" s="1"/>
@@ -2385,20 +2385,20 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
+      <c r="L9">
+        <f>D9-D277</f>
+        <v>-1298000000</v>
+      </c>
       <c r="M9">
-        <f t="shared" si="3"/>
-        <v>-1298000000</v>
+        <f>F9-F277</f>
+        <v>-137000000</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>-137000000</v>
+        <f>H9-H277</f>
+        <v>-790000000</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
-        <v>-790000000</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
+        <f>J9-J277</f>
         <v>-112000000</v>
       </c>
       <c r="R9" s="1"/>
@@ -2438,20 +2438,20 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
+      <c r="L10">
+        <f>D10-D278</f>
+        <v>-28000000</v>
+      </c>
       <c r="M10">
-        <f t="shared" si="3"/>
-        <v>-28000000</v>
+        <f>F10-F278</f>
+        <v>-12000000</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>-12000000</v>
+        <f>H10-H278</f>
+        <v>-44000000</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>-44000000</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
+        <f>J10-J278</f>
         <v>-1000000</v>
       </c>
       <c r="R10" s="1"/>
@@ -2491,20 +2491,20 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
+      <c r="L11">
+        <f>D11-D279</f>
+        <v>0</v>
+      </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f>F11-F279</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f>H11-H279</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
+        <f>J11-J279</f>
         <v>0</v>
       </c>
       <c r="R11" s="1"/>
@@ -2544,20 +2544,20 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
+      <c r="L12">
+        <f>D12-D280</f>
+        <v>-52237000000</v>
+      </c>
       <c r="M12">
-        <f t="shared" si="3"/>
-        <v>-52237000000</v>
+        <f>F12-F280</f>
+        <v>-24169000000</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>-24169000000</v>
+        <f>H12-H280</f>
+        <v>-85696000000</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
-        <v>-85696000000</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
+        <f>J12-J280</f>
         <v>-31734000000</v>
       </c>
       <c r="R12" s="1"/>
@@ -2597,20 +2597,20 @@
       <c r="K13" s="1">
         <v>2.504424778761062E-3</v>
       </c>
+      <c r="L13">
+        <f>D13-D281</f>
+        <v>-5608000000</v>
+      </c>
       <c r="M13">
-        <f t="shared" si="3"/>
-        <v>-5608000000</v>
+        <f>F13-F281</f>
+        <v>-7229000000</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
-        <v>-7229000000</v>
+        <f>H13-H281</f>
+        <v>-10112000000</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>-10112000000</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
+        <f>J13-J281</f>
         <v>-2175000000</v>
       </c>
       <c r="R13" s="1"/>
@@ -2650,20 +2650,20 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
+      <c r="L14">
+        <f>D14-D282</f>
+        <v>-1065000000</v>
+      </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>-1065000000</v>
+        <f>F14-F282</f>
+        <v>-231000000</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>-231000000</v>
+        <f>H14-H282</f>
+        <v>-199000000</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
-        <v>-199000000</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
+        <f>J14-J282</f>
         <v>-151000000</v>
       </c>
       <c r="R14" s="1"/>
@@ -2703,20 +2703,20 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
+      <c r="L15">
+        <f>D15-D283</f>
+        <v>-300000000</v>
+      </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>-300000000</v>
+        <f>F15-F283</f>
+        <v>-161000000</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
-        <v>-161000000</v>
+        <f>H15-H283</f>
+        <v>-449000000</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>-449000000</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
+        <f>J15-J283</f>
         <v>-68000000</v>
       </c>
       <c r="R15" s="1"/>
@@ -2756,20 +2756,20 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
+      <c r="L16">
+        <f>D16-D284</f>
+        <v>0</v>
+      </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f>F16-F284</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f>H16-H284</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
+        <f>J16-J284</f>
         <v>0</v>
       </c>
       <c r="R16" s="1"/>
@@ -2809,20 +2809,20 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
+      <c r="L17">
+        <f>D17-D285</f>
+        <v>0</v>
+      </c>
       <c r="M17">
-        <f t="shared" si="3"/>
+        <f>F17-F285</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f>H17-H285</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
+        <f>J17-J285</f>
         <v>0</v>
       </c>
       <c r="R17" s="1"/>
@@ -2862,20 +2862,20 @@
       <c r="K18" s="1">
         <v>6.0973451327433629E-3</v>
       </c>
+      <c r="L18">
+        <f>D18-D286</f>
+        <v>-5802000000</v>
+      </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>-5802000000</v>
+        <f>F18-F286</f>
+        <v>-3323000000</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
-        <v>-3323000000</v>
+        <f>H18-H286</f>
+        <v>-10939000000</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>-10939000000</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
+        <f>J18-J286</f>
         <v>-3365000000</v>
       </c>
       <c r="R18" s="1"/>
@@ -2915,20 +2915,20 @@
       <c r="K19" s="1">
         <v>2.3008849557522125E-4</v>
       </c>
+      <c r="L19">
+        <f>D19-D287</f>
+        <v>-470000000</v>
+      </c>
       <c r="M19">
-        <f t="shared" si="3"/>
-        <v>-470000000</v>
+        <f>F19-F287</f>
+        <v>-639000000</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
-        <v>-639000000</v>
+        <f>H19-H287</f>
+        <v>166000000</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
-        <v>166000000</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
+        <f>J19-J287</f>
         <v>-33000000</v>
       </c>
       <c r="R19" s="1"/>
@@ -2968,20 +2968,20 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
+      <c r="L20">
+        <f>D20-D288</f>
+        <v>-167000000</v>
+      </c>
       <c r="M20">
-        <f t="shared" si="3"/>
-        <v>-167000000</v>
+        <f>F20-F288</f>
+        <v>-615000000</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
-        <v>-615000000</v>
+        <f>H20-H288</f>
+        <v>-3458000000</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
-        <v>-3458000000</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
+        <f>J20-J288</f>
         <v>-79000000</v>
       </c>
       <c r="R20" s="1"/>
@@ -3021,20 +3021,20 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
+      <c r="L21">
+        <f>D21-D289</f>
+        <v>-4000000</v>
+      </c>
       <c r="M21">
-        <f t="shared" si="3"/>
-        <v>-4000000</v>
+        <f>F21-F289</f>
+        <v>-1000000</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
+        <f>H21-H289</f>
+        <v>-13000000</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>-13000000</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="2"/>
+        <f>J21-J289</f>
         <v>0</v>
       </c>
       <c r="R21" s="1"/>
@@ -3074,20 +3074,20 @@
       <c r="K22" s="1">
         <v>2.672566371681416E-3</v>
       </c>
+      <c r="L22">
+        <f>D22-D290</f>
+        <v>-15000000</v>
+      </c>
       <c r="M22">
-        <f t="shared" si="3"/>
-        <v>-15000000</v>
+        <f>F22-F290</f>
+        <v>283000000</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
-        <v>283000000</v>
+        <f>H22-H290</f>
+        <v>22000000</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
-        <v>22000000</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="2"/>
+        <f>J22-J290</f>
         <v>-287000000</v>
       </c>
       <c r="R22" s="1"/>
@@ -3127,20 +3127,20 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
+      <c r="L23">
+        <f>D23-D291</f>
+        <v>-8000000</v>
+      </c>
       <c r="M23">
-        <f t="shared" si="3"/>
-        <v>-8000000</v>
+        <f>F23-F291</f>
+        <v>-4000000</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
-        <v>-4000000</v>
+        <f>H23-H291</f>
+        <v>-23000000</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>-23000000</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
+        <f>J23-J291</f>
         <v>-15000000</v>
       </c>
       <c r="R23" s="1"/>
@@ -3180,20 +3180,20 @@
       <c r="K24" s="1">
         <v>0</v>
       </c>
+      <c r="L24">
+        <f>D24-D292</f>
+        <v>-10000000</v>
+      </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>-10000000</v>
+        <f>F24-F292</f>
+        <v>-23000000</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
-        <v>-23000000</v>
+        <f>H24-H292</f>
+        <v>-64000000</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
-        <v>-64000000</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
+        <f>J24-J292</f>
         <v>-52000000</v>
       </c>
       <c r="R24" s="1"/>
@@ -3233,20 +3233,20 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
+      <c r="L25">
+        <f>D25-D293</f>
+        <v>-1162000000</v>
+      </c>
       <c r="M25">
-        <f t="shared" si="3"/>
-        <v>-1162000000</v>
+        <f>F25-F293</f>
+        <v>-355000000</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
-        <v>-355000000</v>
+        <f>H25-H293</f>
+        <v>-3507000000</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
-        <v>-3507000000</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
+        <f>J25-J293</f>
         <v>-508000000</v>
       </c>
       <c r="R25" s="1"/>
@@ -3286,20 +3286,20 @@
       <c r="K26" s="1">
         <v>3.8938053097345134E-4</v>
       </c>
+      <c r="L26">
+        <f>D26-D294</f>
+        <v>9000000</v>
+      </c>
       <c r="M26">
-        <f t="shared" si="3"/>
-        <v>9000000</v>
+        <f>F26-F294</f>
+        <v>-309000000</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
-        <v>-309000000</v>
+        <f>H26-H294</f>
+        <v>237000000</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
-        <v>237000000</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
+        <f>J26-J294</f>
         <v>-5000000</v>
       </c>
       <c r="R26" s="1"/>
@@ -3339,20 +3339,20 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
+      <c r="L27">
+        <f>D27-D295</f>
+        <v>-827000000</v>
+      </c>
       <c r="M27">
-        <f t="shared" si="3"/>
-        <v>-827000000</v>
+        <f>F27-F295</f>
+        <v>-187000000</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>-187000000</v>
+        <f>H27-H295</f>
+        <v>-359000000</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
-        <v>-359000000</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
+        <f>J27-J295</f>
         <v>-919000000</v>
       </c>
       <c r="R27" s="1"/>
@@ -3392,20 +3392,20 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
+      <c r="L28">
+        <f>D28-D296</f>
+        <v>-36000000</v>
+      </c>
       <c r="M28">
-        <f t="shared" si="3"/>
-        <v>-36000000</v>
+        <f>F28-F296</f>
+        <v>-4000000</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
-        <v>-4000000</v>
+        <f>H28-H296</f>
+        <v>-78000000</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
-        <v>-78000000</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
+        <f>J28-J296</f>
         <v>0</v>
       </c>
       <c r="R28" s="1"/>
@@ -3445,20 +3445,20 @@
       <c r="K29" s="1">
         <v>1.7699115044247787E-5</v>
       </c>
+      <c r="L29">
+        <f>D29-D297</f>
+        <v>-166000000</v>
+      </c>
       <c r="M29">
-        <f t="shared" si="3"/>
-        <v>-166000000</v>
+        <f>F29-F297</f>
+        <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H29-H297</f>
+        <v>17000000</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
-        <v>17000000</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="2"/>
+        <f>J29-J297</f>
         <v>-10000000</v>
       </c>
       <c r="R29" s="1"/>
@@ -3498,20 +3498,20 @@
       <c r="K30" s="1">
         <v>2.336283185840708E-3</v>
       </c>
+      <c r="L30">
+        <f>D30-D298</f>
+        <v>1445000000</v>
+      </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>1445000000</v>
+        <f>F30-F298</f>
+        <v>237000000</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
-        <v>237000000</v>
+        <f>H30-H298</f>
+        <v>92000000</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
-        <v>92000000</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
+        <f>J30-J298</f>
         <v>-164000000</v>
       </c>
       <c r="R30" s="1"/>
@@ -3551,20 +3551,20 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
+      <c r="L31">
+        <f>D31-D299</f>
+        <v>-1000000</v>
+      </c>
       <c r="M31">
-        <f t="shared" si="3"/>
-        <v>-1000000</v>
+        <f>F31-F299</f>
+        <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H31-H299</f>
+        <v>-2000000</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
-        <v>-2000000</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
+        <f>J31-J299</f>
         <v>-1000000</v>
       </c>
       <c r="R31" s="1"/>
@@ -3604,20 +3604,20 @@
       <c r="K32" s="1">
         <v>0</v>
       </c>
+      <c r="L32">
+        <f>D32-D300</f>
+        <v>0</v>
+      </c>
       <c r="M32">
-        <f t="shared" si="3"/>
+        <f>F32-F300</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f>H32-H300</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
+        <f>J32-J300</f>
         <v>0</v>
       </c>
       <c r="R32" s="1"/>
@@ -3657,20 +3657,20 @@
       <c r="K33" s="1">
         <v>0</v>
       </c>
+      <c r="L33">
+        <f>D33-D301</f>
+        <v>-96000000</v>
+      </c>
       <c r="M33">
-        <f t="shared" si="3"/>
-        <v>-96000000</v>
+        <f>F33-F301</f>
+        <v>-21000000</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
-        <v>-21000000</v>
+        <f>H33-H301</f>
+        <v>-154000000</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
-        <v>-154000000</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="2"/>
+        <f>J33-J301</f>
         <v>-26000000</v>
       </c>
       <c r="R33" s="1"/>
@@ -3710,20 +3710,20 @@
       <c r="K34" s="1">
         <v>2.7522123893805308E-3</v>
       </c>
+      <c r="L34">
+        <f>D34-D302</f>
+        <v>-3116000000</v>
+      </c>
       <c r="M34">
-        <f t="shared" si="3"/>
-        <v>-3116000000</v>
+        <f>F34-F302</f>
+        <v>-705000000</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>-705000000</v>
+        <f>H34-H302</f>
+        <v>-1479000000</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
-        <v>-1479000000</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
+        <f>J34-J302</f>
         <v>-708000000</v>
       </c>
       <c r="R34" s="1"/>
@@ -3763,20 +3763,20 @@
       <c r="K35" s="1">
         <v>0</v>
       </c>
+      <c r="L35">
+        <f>D35-D303</f>
+        <v>0</v>
+      </c>
       <c r="M35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F35-F303</f>
+        <v>-30000000</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
-        <v>-30000000</v>
+        <f>H35-H303</f>
+        <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="2"/>
+        <f>J35-J303</f>
         <v>0</v>
       </c>
       <c r="R35" s="1"/>
@@ -3816,20 +3816,20 @@
       <c r="K36" s="1">
         <v>0</v>
       </c>
+      <c r="L36">
+        <f>D36-D304</f>
+        <v>-69000000</v>
+      </c>
       <c r="M36">
-        <f t="shared" si="3"/>
-        <v>-69000000</v>
+        <f>F36-F304</f>
+        <v>-35000000</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
-        <v>-35000000</v>
+        <f>H36-H304</f>
+        <v>-418000000</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
-        <v>-418000000</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="2"/>
+        <f>J36-J304</f>
         <v>-11000000</v>
       </c>
       <c r="R36" s="1"/>
@@ -3869,20 +3869,20 @@
       <c r="K37" s="1">
         <v>0</v>
       </c>
+      <c r="L37">
+        <f>D37-D305</f>
+        <v>0</v>
+      </c>
       <c r="M37">
-        <f t="shared" si="3"/>
+        <f>F37-F305</f>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H37-H305</f>
+        <v>-2000000</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
-        <v>-2000000</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="2"/>
+        <f>J37-J305</f>
         <v>-4000000</v>
       </c>
       <c r="R37" s="1"/>
@@ -3922,20 +3922,20 @@
       <c r="K38" s="1">
         <v>0</v>
       </c>
+      <c r="L38">
+        <f>D38-D306</f>
+        <v>-210000000</v>
+      </c>
       <c r="M38">
-        <f t="shared" si="3"/>
-        <v>-210000000</v>
+        <f>F38-F306</f>
+        <v>-19000000</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
-        <v>-19000000</v>
+        <f>H38-H306</f>
+        <v>-41000000</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
-        <v>-41000000</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="2"/>
+        <f>J38-J306</f>
         <v>-99000000</v>
       </c>
       <c r="R38" s="1"/>
@@ -3975,20 +3975,20 @@
       <c r="K39" s="1">
         <v>0</v>
       </c>
+      <c r="L39">
+        <f>D39-D307</f>
+        <v>-1000000</v>
+      </c>
       <c r="M39">
-        <f t="shared" si="3"/>
-        <v>-1000000</v>
+        <f>F39-F307</f>
+        <v>-9000000</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f>H39-H307</f>
         <v>-9000000</v>
       </c>
       <c r="O39">
-        <f t="shared" si="1"/>
-        <v>-9000000</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="2"/>
+        <f>J39-J307</f>
         <v>-90000000</v>
       </c>
       <c r="R39" s="1"/>
@@ -4028,20 +4028,20 @@
       <c r="K40" s="1">
         <v>6.0884955752212389E-3</v>
       </c>
+      <c r="L40">
+        <f>D40-D308</f>
+        <v>-3218000000</v>
+      </c>
       <c r="M40">
-        <f t="shared" si="3"/>
-        <v>-3218000000</v>
+        <f>F40-F308</f>
+        <v>-153000000</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
-        <v>-153000000</v>
+        <f>H40-H308</f>
+        <v>-909000000</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
-        <v>-909000000</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="2"/>
+        <f>J40-J308</f>
         <v>10000000</v>
       </c>
       <c r="R40" s="1"/>
@@ -4081,20 +4081,20 @@
       <c r="K41" s="1">
         <v>1.4070796460176992E-2</v>
       </c>
+      <c r="L41">
+        <f>D41-D309</f>
+        <v>-3581000000</v>
+      </c>
       <c r="M41">
-        <f t="shared" si="3"/>
-        <v>-3581000000</v>
+        <f>F41-F309</f>
+        <v>-5012000000</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
-        <v>-5012000000</v>
+        <f>H41-H309</f>
+        <v>-2424000000</v>
       </c>
       <c r="O41">
-        <f t="shared" si="1"/>
-        <v>-2424000000</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="2"/>
+        <f>J41-J309</f>
         <v>-2844000000</v>
       </c>
       <c r="R41" s="1"/>
@@ -4134,20 +4134,20 @@
       <c r="K42" s="1">
         <v>4.8672566371681415E-3</v>
       </c>
+      <c r="L42">
+        <f>D42-D310</f>
+        <v>158000000</v>
+      </c>
       <c r="M42">
-        <f t="shared" si="3"/>
-        <v>158000000</v>
+        <f>F42-F310</f>
+        <v>1267000000</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
-        <v>1267000000</v>
+        <f>H42-H310</f>
+        <v>2477000000</v>
       </c>
       <c r="O42">
-        <f t="shared" si="1"/>
-        <v>2477000000</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="2"/>
+        <f>J42-J310</f>
         <v>482000000</v>
       </c>
       <c r="R42" s="1"/>
@@ -4187,20 +4187,20 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
+      <c r="L43">
+        <f>D43-D311</f>
+        <v>0</v>
+      </c>
       <c r="M43">
-        <f t="shared" si="3"/>
+        <f>F43-F311</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f>H43-H311</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="2"/>
+        <f>J43-J311</f>
         <v>0</v>
       </c>
       <c r="R43" s="1"/>
@@ -4240,20 +4240,20 @@
       <c r="K44" s="1">
         <v>7.0796460176991149E-5</v>
       </c>
+      <c r="L44">
+        <f>D44-D312</f>
+        <v>-2020000000</v>
+      </c>
       <c r="M44">
-        <f t="shared" si="3"/>
-        <v>-2020000000</v>
+        <f>F44-F312</f>
+        <v>-2882000000</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
-        <v>-2882000000</v>
+        <f>H44-H312</f>
+        <v>-1362000000</v>
       </c>
       <c r="O44">
-        <f t="shared" si="1"/>
-        <v>-1362000000</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="2"/>
+        <f>J44-J312</f>
         <v>-560000000</v>
       </c>
       <c r="R44" s="1"/>
@@ -4293,20 +4293,20 @@
       <c r="K45" s="1">
         <v>5.7743362831858408E-2</v>
       </c>
+      <c r="L45">
+        <f>D45-D313</f>
+        <v>-9520000000</v>
+      </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>-9520000000</v>
+        <f>F45-F313</f>
+        <v>-10686000000</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
-        <v>-10686000000</v>
+        <f>H45-H313</f>
+        <v>3170000000</v>
       </c>
       <c r="O45">
-        <f t="shared" si="1"/>
-        <v>3170000000</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="2"/>
+        <f>J45-J313</f>
         <v>3872000000</v>
       </c>
       <c r="R45" s="1"/>
@@ -4346,20 +4346,20 @@
       <c r="K46" s="1">
         <v>0</v>
       </c>
+      <c r="L46">
+        <f>D46-D314</f>
+        <v>-97000000</v>
+      </c>
       <c r="M46">
-        <f t="shared" si="3"/>
-        <v>-97000000</v>
+        <f>F46-F314</f>
+        <v>-9000000</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
-        <v>-9000000</v>
+        <f>H46-H314</f>
+        <v>-55000000</v>
       </c>
       <c r="O46">
-        <f t="shared" si="1"/>
-        <v>-55000000</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="2"/>
+        <f>J46-J314</f>
         <v>-73000000</v>
       </c>
       <c r="R46" s="1"/>
@@ -4399,20 +4399,20 @@
       <c r="K47" s="1">
         <v>0</v>
       </c>
+      <c r="L47">
+        <f>D47-D315</f>
+        <v>-43000000</v>
+      </c>
       <c r="M47">
-        <f t="shared" si="3"/>
-        <v>-43000000</v>
+        <f>F47-F315</f>
+        <v>-9000000</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
-        <v>-9000000</v>
+        <f>H47-H315</f>
+        <v>-328000000</v>
       </c>
       <c r="O47">
-        <f t="shared" si="1"/>
-        <v>-328000000</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="2"/>
+        <f>J47-J315</f>
         <v>-12000000</v>
       </c>
       <c r="R47" s="1"/>
@@ -4452,20 +4452,20 @@
       <c r="K48" s="1">
         <v>0</v>
       </c>
+      <c r="L48">
+        <f>D48-D316</f>
+        <v>-220000000</v>
+      </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>-220000000</v>
+        <f>F48-F316</f>
+        <v>-105000000</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
-        <v>-105000000</v>
+        <f>H48-H316</f>
+        <v>-218000000</v>
       </c>
       <c r="O48">
-        <f t="shared" si="1"/>
-        <v>-218000000</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="2"/>
+        <f>J48-J316</f>
         <v>-57000000</v>
       </c>
       <c r="R48" s="1"/>
@@ -4505,20 +4505,20 @@
       <c r="K49" s="1">
         <v>0</v>
       </c>
+      <c r="L49">
+        <f>D49-D317</f>
+        <v>-57000000</v>
+      </c>
       <c r="M49">
-        <f t="shared" si="3"/>
-        <v>-57000000</v>
+        <f>F49-F317</f>
+        <v>-16000000</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
-        <v>-16000000</v>
+        <f>H49-H317</f>
+        <v>-102000000</v>
       </c>
       <c r="O49">
-        <f t="shared" si="1"/>
-        <v>-102000000</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="2"/>
+        <f>J49-J317</f>
         <v>-3000000</v>
       </c>
       <c r="R49" s="1"/>
@@ -4558,20 +4558,20 @@
       <c r="K50" s="1">
         <v>3.5398230088495574E-5</v>
       </c>
+      <c r="L50">
+        <f>D50-D318</f>
+        <v>-1339000000</v>
+      </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>-1339000000</v>
+        <f>F50-F318</f>
+        <v>-692000000</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
-        <v>-692000000</v>
+        <f>H50-H318</f>
+        <v>-1271000000</v>
       </c>
       <c r="O50">
-        <f t="shared" si="1"/>
-        <v>-1271000000</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="2"/>
+        <f>J50-J318</f>
         <v>-171000000</v>
       </c>
       <c r="R50" s="1"/>
@@ -4611,20 +4611,20 @@
       <c r="K51" s="1">
         <v>0</v>
       </c>
+      <c r="L51">
+        <f>D51-D319</f>
+        <v>0</v>
+      </c>
       <c r="M51">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F51-F319</f>
+        <v>-6000000</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
-        <v>-6000000</v>
+        <f>H51-H319</f>
+        <v>-1000000</v>
       </c>
       <c r="O51">
-        <f t="shared" si="1"/>
-        <v>-1000000</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="2"/>
+        <f>J51-J319</f>
         <v>0</v>
       </c>
       <c r="R51" s="1"/>
@@ -4664,20 +4664,20 @@
       <c r="K52" s="1">
         <v>0</v>
       </c>
+      <c r="L52">
+        <f>D52-D320</f>
+        <v>-17000000</v>
+      </c>
       <c r="M52">
-        <f t="shared" si="3"/>
-        <v>-17000000</v>
+        <f>F52-F320</f>
+        <v>-2000000</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
-        <v>-2000000</v>
+        <f>H52-H320</f>
+        <v>-13000000</v>
       </c>
       <c r="O52">
-        <f t="shared" si="1"/>
-        <v>-13000000</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="2"/>
+        <f>J52-J320</f>
         <v>0</v>
       </c>
       <c r="R52" s="1"/>
@@ -4717,20 +4717,20 @@
       <c r="K53" s="1">
         <v>0</v>
       </c>
+      <c r="L53">
+        <f>D53-D321</f>
+        <v>-3000000</v>
+      </c>
       <c r="M53">
-        <f t="shared" si="3"/>
-        <v>-3000000</v>
+        <f>F53-F321</f>
+        <v>3000000</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
+        <f>H53-H321</f>
+        <v>-8000000</v>
       </c>
       <c r="O53">
-        <f t="shared" si="1"/>
-        <v>-8000000</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="2"/>
+        <f>J53-J321</f>
         <v>0</v>
       </c>
       <c r="R53" s="1"/>
@@ -4770,20 +4770,20 @@
       <c r="K54" s="1">
         <v>0</v>
       </c>
+      <c r="L54">
+        <f>D54-D322</f>
+        <v>0</v>
+      </c>
       <c r="M54">
-        <f t="shared" si="3"/>
+        <f>F54-F322</f>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f>H54-H322</f>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="2"/>
+        <f>J54-J322</f>
         <v>0</v>
       </c>
       <c r="R54" s="1"/>
@@ -4823,20 +4823,20 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
+      <c r="L55">
+        <f>D55-D323</f>
+        <v>-159000000</v>
+      </c>
       <c r="M55">
-        <f t="shared" si="3"/>
-        <v>-159000000</v>
+        <f>F55-F323</f>
+        <v>-8000000</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
-        <v>-8000000</v>
+        <f>H55-H323</f>
+        <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="2"/>
+        <f>J55-J323</f>
         <v>0</v>
       </c>
       <c r="R55" s="1"/>
@@ -4876,20 +4876,20 @@
       <c r="K56" s="1">
         <v>0</v>
       </c>
+      <c r="L56">
+        <f>D56-D324</f>
+        <v>0</v>
+      </c>
       <c r="M56">
-        <f t="shared" si="3"/>
+        <f>F56-F324</f>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f>H56-H324</f>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="2"/>
+        <f>J56-J324</f>
         <v>0</v>
       </c>
       <c r="R56" s="1"/>
@@ -4929,20 +4929,20 @@
       <c r="K57" s="1">
         <v>0</v>
       </c>
+      <c r="L57">
+        <f>D57-D325</f>
+        <v>0</v>
+      </c>
       <c r="M57">
-        <f t="shared" si="3"/>
+        <f>F57-F325</f>
         <v>0</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f>H57-H325</f>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="2"/>
+        <f>J57-J325</f>
         <v>0</v>
       </c>
       <c r="R57" s="1"/>
@@ -4982,20 +4982,20 @@
       <c r="K58" s="1">
         <v>3.5398230088495576E-4</v>
       </c>
+      <c r="L58">
+        <f>D58-D326</f>
+        <v>-810000000</v>
+      </c>
       <c r="M58">
-        <f t="shared" si="3"/>
-        <v>-810000000</v>
+        <f>F58-F326</f>
+        <v>-73000000</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
-        <v>-73000000</v>
+        <f>H58-H326</f>
+        <v>-140000000</v>
       </c>
       <c r="O58">
-        <f t="shared" si="1"/>
-        <v>-140000000</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="2"/>
+        <f>J58-J326</f>
         <v>-1000000</v>
       </c>
       <c r="R58" s="1"/>
@@ -5035,20 +5035,20 @@
       <c r="K59" s="1">
         <v>2.5486725663716814E-3</v>
       </c>
+      <c r="L59">
+        <f>D59-D327</f>
+        <v>933000000</v>
+      </c>
       <c r="M59">
-        <f t="shared" si="3"/>
-        <v>933000000</v>
+        <f>F59-F327</f>
+        <v>-483000000</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
-        <v>-483000000</v>
+        <f>H59-H327</f>
+        <v>466000000</v>
       </c>
       <c r="O59">
-        <f t="shared" si="1"/>
-        <v>466000000</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="2"/>
+        <f>J59-J327</f>
         <v>31000000</v>
       </c>
       <c r="R59" s="1"/>
@@ -5088,20 +5088,20 @@
       <c r="K60" s="1">
         <v>6.0053097345132742E-2</v>
       </c>
+      <c r="L60">
+        <f>D60-D328</f>
+        <v>17800000000</v>
+      </c>
       <c r="M60">
-        <f t="shared" si="3"/>
-        <v>17800000000</v>
+        <f>F60-F328</f>
+        <v>12063000000</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
-        <v>12063000000</v>
+        <f>H60-H328</f>
+        <v>14134000000</v>
       </c>
       <c r="O60">
-        <f t="shared" si="1"/>
-        <v>14134000000</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="2"/>
+        <f>J60-J328</f>
         <v>5953000000</v>
       </c>
       <c r="R60" s="1"/>
@@ -5141,20 +5141,20 @@
       <c r="K61" s="1">
         <v>0</v>
       </c>
+      <c r="L61">
+        <f>D61-D329</f>
+        <v>-32000000</v>
+      </c>
       <c r="M61">
-        <f t="shared" si="3"/>
-        <v>-32000000</v>
+        <f>F61-F329</f>
+        <v>-11000000</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
-        <v>-11000000</v>
+        <f>H61-H329</f>
+        <v>-46000000</v>
       </c>
       <c r="O61">
-        <f t="shared" si="1"/>
-        <v>-46000000</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="2"/>
+        <f>J61-J329</f>
         <v>-66000000</v>
       </c>
       <c r="R61" s="1"/>
@@ -5194,20 +5194,20 @@
       <c r="K62" s="1">
         <v>0</v>
       </c>
+      <c r="L62">
+        <f>D62-D330</f>
+        <v>0</v>
+      </c>
       <c r="M62">
-        <f t="shared" si="3"/>
+        <f>F62-F330</f>
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f>H62-H330</f>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="2"/>
+        <f>J62-J330</f>
         <v>0</v>
       </c>
       <c r="R62" s="1"/>
@@ -5247,20 +5247,20 @@
       <c r="K63" s="1">
         <v>1.1592920353982301E-3</v>
       </c>
+      <c r="L63">
+        <f>D63-D331</f>
+        <v>-623000000</v>
+      </c>
       <c r="M63">
-        <f t="shared" si="3"/>
-        <v>-623000000</v>
+        <f>F63-F331</f>
+        <v>-759000000</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
-        <v>-759000000</v>
+        <f>H63-H331</f>
+        <v>-453000000</v>
       </c>
       <c r="O63">
-        <f t="shared" si="1"/>
-        <v>-453000000</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="2"/>
+        <f>J63-J331</f>
         <v>-658000000</v>
       </c>
       <c r="R63" s="1"/>
@@ -5300,20 +5300,20 @@
       <c r="K64" s="1">
         <v>0</v>
       </c>
+      <c r="L64">
+        <f>D64-D332</f>
+        <v>-37000000</v>
+      </c>
       <c r="M64">
-        <f t="shared" si="3"/>
-        <v>-37000000</v>
+        <f>F64-F332</f>
+        <v>-47000000</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
-        <v>-47000000</v>
+        <f>H64-H332</f>
+        <v>-60000000</v>
       </c>
       <c r="O64">
-        <f t="shared" si="1"/>
-        <v>-60000000</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="2"/>
+        <f>J64-J332</f>
         <v>-18000000</v>
       </c>
       <c r="R64" s="1"/>
@@ -5353,20 +5353,20 @@
       <c r="K65" s="1">
         <v>0</v>
       </c>
+      <c r="L65">
+        <f>D65-D333</f>
+        <v>-3576000000</v>
+      </c>
       <c r="M65">
-        <f t="shared" si="3"/>
-        <v>-3576000000</v>
+        <f>F65-F333</f>
+        <v>-3830000000</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
-        <v>-3830000000</v>
+        <f>H65-H333</f>
+        <v>-10103000000</v>
       </c>
       <c r="O65">
-        <f t="shared" si="1"/>
-        <v>-10103000000</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="2"/>
+        <f>J65-J333</f>
         <v>-1430000000</v>
       </c>
       <c r="R65" s="1"/>
@@ -5406,40 +5406,40 @@
       <c r="K66" s="1">
         <v>5.8035398230088499E-2</v>
       </c>
+      <c r="L66">
+        <f>D66-D334</f>
+        <v>-31879000000</v>
+      </c>
       <c r="M66">
-        <f t="shared" si="3"/>
-        <v>-31879000000</v>
+        <f>F66-F334</f>
+        <v>-16757000000</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
-        <v>-16757000000</v>
+        <f>H66-H334</f>
+        <v>-16997000000</v>
       </c>
       <c r="O66">
-        <f t="shared" si="1"/>
-        <v>-16997000000</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="2"/>
+        <f>J66-J334</f>
         <v>-862000000</v>
       </c>
       <c r="R66" s="1"/>
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f>D67-D335</f>
+        <v>0</v>
+      </c>
       <c r="M67">
-        <f t="shared" si="3"/>
+        <f>F67-F335</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="0"/>
+        <f>H67-H335</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="2"/>
+        <f>J67-J335</f>
         <v>0</v>
       </c>
       <c r="R67" s="1"/>
@@ -5479,20 +5479,20 @@
       <c r="K68" s="1">
         <v>4.661946902654867E-2</v>
       </c>
+      <c r="L68">
+        <f>D68-D336</f>
+        <v>-93479000000</v>
+      </c>
       <c r="M68">
-        <f t="shared" si="3"/>
-        <v>-93479000000</v>
+        <f>F68-F336</f>
+        <v>-41679000000</v>
       </c>
       <c r="N68">
-        <f t="shared" si="0"/>
-        <v>-41679000000</v>
+        <f>H68-H336</f>
+        <v>-64544000000</v>
       </c>
       <c r="O68">
-        <f t="shared" si="1"/>
-        <v>-64544000000</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="2"/>
+        <f>J68-J336</f>
         <v>-16734000000</v>
       </c>
       <c r="R68" s="1"/>
@@ -5532,20 +5532,20 @@
       <c r="K69" s="1">
         <v>1.1309734513274336E-2</v>
       </c>
+      <c r="L69">
+        <f>D69-D337</f>
+        <v>-6766000000</v>
+      </c>
       <c r="M69">
-        <f t="shared" si="3"/>
-        <v>-6766000000</v>
+        <f>F69-F337</f>
+        <v>167000000</v>
       </c>
       <c r="N69">
-        <f t="shared" si="0"/>
-        <v>167000000</v>
+        <f>H69-H337</f>
+        <v>-7153000000</v>
       </c>
       <c r="O69">
-        <f t="shared" si="1"/>
-        <v>-7153000000</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="2"/>
+        <f>J69-J337</f>
         <v>-9525000000</v>
       </c>
       <c r="R69" s="1"/>
@@ -5585,20 +5585,20 @@
       <c r="K70" s="1">
         <v>0.44118584070796463</v>
       </c>
+      <c r="L70">
+        <f>D70-D338</f>
+        <v>55800000000</v>
+      </c>
       <c r="M70">
-        <f t="shared" ref="M70:M133" si="4">D70-D338</f>
-        <v>55800000000</v>
+        <f>F70-F338</f>
+        <v>52717000000</v>
       </c>
       <c r="N70">
-        <f t="shared" ref="N70:N133" si="5">F70-F338</f>
-        <v>52717000000</v>
+        <f>H70-H338</f>
+        <v>109897000000</v>
       </c>
       <c r="O70">
-        <f t="shared" ref="O70:O133" si="6">H70-H338</f>
-        <v>109897000000</v>
-      </c>
-      <c r="P70">
-        <f t="shared" ref="P70:P133" si="7">J70-J338</f>
+        <f>J70-J338</f>
         <v>20331000000</v>
       </c>
       <c r="R70" s="1"/>
@@ -5638,20 +5638,20 @@
       <c r="K71" s="1">
         <v>0</v>
       </c>
+      <c r="L71">
+        <f>D71-D339</f>
+        <v>-450000000</v>
+      </c>
       <c r="M71">
-        <f t="shared" si="4"/>
-        <v>-450000000</v>
+        <f>F71-F339</f>
+        <v>-290000000</v>
       </c>
       <c r="N71">
-        <f t="shared" si="5"/>
-        <v>-290000000</v>
+        <f>H71-H339</f>
+        <v>-384000000</v>
       </c>
       <c r="O71">
-        <f t="shared" si="6"/>
-        <v>-384000000</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="7"/>
+        <f>J71-J339</f>
         <v>-53000000</v>
       </c>
       <c r="R71" s="1"/>
@@ -5691,20 +5691,20 @@
       <c r="K72" s="1">
         <v>7.6991150442477872E-4</v>
       </c>
+      <c r="L72">
+        <f>D72-D340</f>
+        <v>-12790000000</v>
+      </c>
       <c r="M72">
-        <f t="shared" si="4"/>
-        <v>-12790000000</v>
+        <f>F72-F340</f>
+        <v>-3233000000</v>
       </c>
       <c r="N72">
-        <f t="shared" si="5"/>
-        <v>-3233000000</v>
+        <f>H72-H340</f>
+        <v>-11030000000</v>
       </c>
       <c r="O72">
-        <f t="shared" si="6"/>
-        <v>-11030000000</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="7"/>
+        <f>J72-J340</f>
         <v>-4461000000</v>
       </c>
       <c r="R72" s="1"/>
@@ -5744,20 +5744,20 @@
       <c r="K73" s="1">
         <v>0.26446902654867255</v>
       </c>
+      <c r="L73">
+        <f>D73-D341</f>
+        <v>16331000000</v>
+      </c>
       <c r="M73">
-        <f t="shared" si="4"/>
-        <v>16331000000</v>
+        <f>F73-F341</f>
+        <v>21301000000</v>
       </c>
       <c r="N73">
-        <f t="shared" si="5"/>
-        <v>21301000000</v>
+        <f>H73-H341</f>
+        <v>41587000000</v>
       </c>
       <c r="O73">
-        <f t="shared" si="6"/>
-        <v>41587000000</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="7"/>
+        <f>J73-J341</f>
         <v>21210000000</v>
       </c>
       <c r="R73" s="1"/>
@@ -5797,20 +5797,20 @@
       <c r="K74" s="1">
         <v>0</v>
       </c>
+      <c r="L74">
+        <f>D74-D342</f>
+        <v>-497000000</v>
+      </c>
       <c r="M74">
-        <f t="shared" si="4"/>
-        <v>-497000000</v>
+        <f>F74-F342</f>
+        <v>-182000000</v>
       </c>
       <c r="N74">
-        <f t="shared" si="5"/>
-        <v>-182000000</v>
+        <f>H74-H342</f>
+        <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="7"/>
+        <f>J74-J342</f>
         <v>0</v>
       </c>
       <c r="R74" s="1"/>
@@ -5850,20 +5850,20 @@
       <c r="K75" s="1">
         <v>3.1061946902654868E-2</v>
       </c>
+      <c r="L75">
+        <f>D75-D343</f>
+        <v>-2127000000</v>
+      </c>
       <c r="M75">
-        <f t="shared" si="4"/>
-        <v>-2127000000</v>
+        <f>F75-F343</f>
+        <v>1415000000</v>
       </c>
       <c r="N75">
-        <f t="shared" si="5"/>
-        <v>1415000000</v>
+        <f>H75-H343</f>
+        <v>4802000000</v>
       </c>
       <c r="O75">
-        <f t="shared" si="6"/>
-        <v>4802000000</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="7"/>
+        <f>J75-J343</f>
         <v>2920000000</v>
       </c>
       <c r="R75" s="1"/>
@@ -5903,20 +5903,20 @@
       <c r="K76" s="1">
         <v>1.9469026548672567E-4</v>
       </c>
+      <c r="L76">
+        <f>D76-D344</f>
+        <v>-91000000</v>
+      </c>
       <c r="M76">
-        <f t="shared" si="4"/>
-        <v>-91000000</v>
+        <f>F76-F344</f>
+        <v>-129000000</v>
       </c>
       <c r="N76">
-        <f t="shared" si="5"/>
-        <v>-129000000</v>
+        <f>H76-H344</f>
+        <v>-150000000</v>
       </c>
       <c r="O76">
-        <f t="shared" si="6"/>
-        <v>-150000000</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="7"/>
+        <f>J76-J344</f>
         <v>-59000000</v>
       </c>
       <c r="R76" s="1"/>
@@ -5956,20 +5956,20 @@
       <c r="K77" s="1">
         <v>0</v>
       </c>
+      <c r="L77">
+        <f>D77-D345</f>
+        <v>-800000000</v>
+      </c>
       <c r="M77">
-        <f t="shared" si="4"/>
-        <v>-800000000</v>
+        <f>F77-F345</f>
+        <v>-239000000</v>
       </c>
       <c r="N77">
-        <f t="shared" si="5"/>
-        <v>-239000000</v>
+        <f>H77-H345</f>
+        <v>-716000000</v>
       </c>
       <c r="O77">
-        <f t="shared" si="6"/>
-        <v>-716000000</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="7"/>
+        <f>J77-J345</f>
         <v>-78000000</v>
       </c>
       <c r="R77" s="1"/>
@@ -6009,20 +6009,20 @@
       <c r="K78" s="1">
         <v>0.28534513274336282</v>
       </c>
+      <c r="L78">
+        <f>D78-D346</f>
+        <v>16121000000</v>
+      </c>
       <c r="M78">
-        <f t="shared" si="4"/>
-        <v>16121000000</v>
+        <f>F78-F346</f>
+        <v>18472000000</v>
       </c>
       <c r="N78">
-        <f t="shared" si="5"/>
-        <v>18472000000</v>
+        <f>H78-H346</f>
+        <v>42977000000</v>
       </c>
       <c r="O78">
-        <f t="shared" si="6"/>
-        <v>42977000000</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="7"/>
+        <f>J78-J346</f>
         <v>18627000000</v>
       </c>
       <c r="R78" s="1"/>
@@ -6062,20 +6062,20 @@
       <c r="K79" s="1">
         <v>0</v>
       </c>
+      <c r="L79">
+        <f>D79-D347</f>
+        <v>-3025000000</v>
+      </c>
       <c r="M79">
-        <f t="shared" si="4"/>
-        <v>-3025000000</v>
+        <f>F79-F347</f>
+        <v>-5317000000</v>
       </c>
       <c r="N79">
-        <f t="shared" si="5"/>
-        <v>-5317000000</v>
+        <f>H79-H347</f>
+        <v>-23889000000</v>
       </c>
       <c r="O79">
-        <f t="shared" si="6"/>
-        <v>-23889000000</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="7"/>
+        <f>J79-J347</f>
         <v>-9530000000</v>
       </c>
       <c r="R79" s="1"/>
@@ -6115,20 +6115,20 @@
       <c r="K80" s="1">
         <v>8.7610619469026551E-4</v>
       </c>
+      <c r="L80">
+        <f>D80-D348</f>
+        <v>-4115000000</v>
+      </c>
       <c r="M80">
-        <f t="shared" si="4"/>
-        <v>-4115000000</v>
+        <f>F80-F348</f>
+        <v>-204000000</v>
       </c>
       <c r="N80">
-        <f t="shared" si="5"/>
-        <v>-204000000</v>
+        <f>H80-H348</f>
+        <v>-754000000</v>
       </c>
       <c r="O80">
-        <f t="shared" si="6"/>
-        <v>-754000000</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="7"/>
+        <f>J80-J348</f>
         <v>-39000000</v>
       </c>
       <c r="R80" s="1"/>
@@ -6168,20 +6168,20 @@
       <c r="K81" s="1">
         <v>0</v>
       </c>
+      <c r="L81">
+        <f>D81-D349</f>
+        <v>-21000000</v>
+      </c>
       <c r="M81">
-        <f t="shared" si="4"/>
-        <v>-21000000</v>
+        <f>F81-F349</f>
+        <v>0</v>
       </c>
       <c r="N81">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>H81-H349</f>
+        <v>-1000000</v>
       </c>
       <c r="O81">
-        <f t="shared" si="6"/>
-        <v>-1000000</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="7"/>
+        <f>J81-J349</f>
         <v>-7000000</v>
       </c>
       <c r="R81" s="1"/>
@@ -6221,20 +6221,20 @@
       <c r="K82" s="1">
         <v>0.10229203539823009</v>
       </c>
+      <c r="L82">
+        <f>D82-D350</f>
+        <v>17876000000</v>
+      </c>
       <c r="M82">
-        <f t="shared" si="4"/>
-        <v>17876000000</v>
+        <f>F82-F350</f>
+        <v>10881000000</v>
       </c>
       <c r="N82">
-        <f t="shared" si="5"/>
-        <v>10881000000</v>
+        <f>H82-H350</f>
+        <v>19514000000</v>
       </c>
       <c r="O82">
-        <f t="shared" si="6"/>
-        <v>19514000000</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="7"/>
+        <f>J82-J350</f>
         <v>10825000000</v>
       </c>
       <c r="R82" s="1"/>
@@ -6274,20 +6274,20 @@
       <c r="K83" s="1">
         <v>0</v>
       </c>
+      <c r="L83">
+        <f>D83-D351</f>
+        <v>0</v>
+      </c>
       <c r="M83">
-        <f t="shared" si="4"/>
+        <f>F83-F351</f>
         <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="5"/>
+        <f>H83-H351</f>
         <v>0</v>
       </c>
       <c r="O83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="7"/>
+        <f>J83-J351</f>
         <v>0</v>
       </c>
       <c r="R83" s="1"/>
@@ -6327,20 +6327,20 @@
       <c r="K84" s="1">
         <v>0</v>
       </c>
+      <c r="L84">
+        <f>D84-D352</f>
+        <v>-6000000</v>
+      </c>
       <c r="M84">
-        <f t="shared" si="4"/>
-        <v>-6000000</v>
+        <f>F84-F352</f>
+        <v>0</v>
       </c>
       <c r="N84">
-        <f t="shared" si="5"/>
+        <f>H84-H352</f>
         <v>0</v>
       </c>
       <c r="O84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="7"/>
+        <f>J84-J352</f>
         <v>-14000000</v>
       </c>
       <c r="R84" s="1"/>
@@ -6380,20 +6380,20 @@
       <c r="K85" s="1">
         <v>0</v>
       </c>
+      <c r="L85">
+        <f>D85-D353</f>
+        <v>0</v>
+      </c>
       <c r="M85">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>F85-F353</f>
+        <v>-45000000</v>
       </c>
       <c r="N85">
-        <f t="shared" si="5"/>
-        <v>-45000000</v>
+        <f>H85-H353</f>
+        <v>-69000000</v>
       </c>
       <c r="O85">
-        <f t="shared" si="6"/>
-        <v>-69000000</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="7"/>
+        <f>J85-J353</f>
         <v>-18000000</v>
       </c>
       <c r="R85" s="1"/>
@@ -6433,20 +6433,20 @@
       <c r="K86" s="1">
         <v>3.7371681415929205E-2</v>
       </c>
+      <c r="L86">
+        <f>D86-D354</f>
+        <v>9037000000</v>
+      </c>
       <c r="M86">
-        <f t="shared" si="4"/>
-        <v>9037000000</v>
+        <f>F86-F354</f>
+        <v>3655000000</v>
       </c>
       <c r="N86">
-        <f t="shared" si="5"/>
-        <v>3655000000</v>
+        <f>H86-H354</f>
+        <v>6560000000</v>
       </c>
       <c r="O86">
-        <f t="shared" si="6"/>
-        <v>6560000000</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="7"/>
+        <f>J86-J354</f>
         <v>1275000000</v>
       </c>
       <c r="R86" s="1"/>
@@ -6486,20 +6486,20 @@
       <c r="K87" s="1">
         <v>0</v>
       </c>
+      <c r="L87">
+        <f>D87-D355</f>
+        <v>33000000</v>
+      </c>
       <c r="M87">
-        <f t="shared" si="4"/>
-        <v>33000000</v>
+        <f>F87-F355</f>
+        <v>-545000000</v>
       </c>
       <c r="N87">
-        <f t="shared" si="5"/>
-        <v>-545000000</v>
+        <f>H87-H355</f>
+        <v>-49000000</v>
       </c>
       <c r="O87">
-        <f t="shared" si="6"/>
-        <v>-49000000</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="7"/>
+        <f>J87-J355</f>
         <v>-3000000</v>
       </c>
       <c r="R87" s="1"/>
@@ -6539,20 +6539,20 @@
       <c r="K88" s="1">
         <v>0</v>
       </c>
+      <c r="L88">
+        <f>D88-D356</f>
+        <v>-51000000</v>
+      </c>
       <c r="M88">
-        <f t="shared" si="4"/>
-        <v>-51000000</v>
+        <f>F88-F356</f>
+        <v>-45000000</v>
       </c>
       <c r="N88">
-        <f t="shared" si="5"/>
-        <v>-45000000</v>
+        <f>H88-H356</f>
+        <v>-220000000</v>
       </c>
       <c r="O88">
-        <f t="shared" si="6"/>
-        <v>-220000000</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="7"/>
+        <f>J88-J356</f>
         <v>-58000000</v>
       </c>
       <c r="R88" s="1"/>
@@ -6592,20 +6592,20 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
+      <c r="L89">
+        <f>D89-D357</f>
+        <v>0</v>
+      </c>
       <c r="M89">
-        <f t="shared" si="4"/>
+        <f>F89-F357</f>
         <v>0</v>
       </c>
       <c r="N89">
-        <f t="shared" si="5"/>
+        <f>H89-H357</f>
         <v>0</v>
       </c>
       <c r="O89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="7"/>
+        <f>J89-J357</f>
         <v>0</v>
       </c>
       <c r="R89" s="1"/>
@@ -6645,20 +6645,20 @@
       <c r="K90" s="1">
         <v>0</v>
       </c>
+      <c r="L90">
+        <f>D90-D358</f>
+        <v>-39000000</v>
+      </c>
       <c r="M90">
-        <f t="shared" si="4"/>
-        <v>-39000000</v>
+        <f>F90-F358</f>
+        <v>-1000000</v>
       </c>
       <c r="N90">
-        <f t="shared" si="5"/>
-        <v>-1000000</v>
+        <f>H90-H358</f>
+        <v>-22000000</v>
       </c>
       <c r="O90">
-        <f t="shared" si="6"/>
-        <v>-22000000</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="7"/>
+        <f>J90-J358</f>
         <v>-1000000</v>
       </c>
       <c r="R90" s="1"/>
@@ -6698,20 +6698,20 @@
       <c r="K91" s="1">
         <v>0</v>
       </c>
+      <c r="L91">
+        <f>D91-D359</f>
+        <v>0</v>
+      </c>
       <c r="M91">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>F91-F359</f>
+        <v>-21000000</v>
       </c>
       <c r="N91">
-        <f t="shared" si="5"/>
-        <v>-21000000</v>
+        <f>H91-H359</f>
+        <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <f t="shared" si="7"/>
+        <f>J91-J359</f>
         <v>-1000000</v>
       </c>
       <c r="R91" s="1"/>
@@ -6751,20 +6751,20 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
+      <c r="L92">
+        <f>D92-D360</f>
+        <v>-11000000</v>
+      </c>
       <c r="M92">
-        <f t="shared" si="4"/>
-        <v>-11000000</v>
+        <f>F92-F360</f>
+        <v>0</v>
       </c>
       <c r="N92">
-        <f t="shared" si="5"/>
+        <f>H92-H360</f>
         <v>0</v>
       </c>
       <c r="O92">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <f t="shared" si="7"/>
+        <f>J92-J360</f>
         <v>0</v>
       </c>
       <c r="R92" s="1"/>
@@ -6804,20 +6804,20 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
+      <c r="L93">
+        <f>D93-D361</f>
+        <v>-10000000</v>
+      </c>
       <c r="M93">
-        <f t="shared" si="4"/>
-        <v>-10000000</v>
+        <f>F93-F361</f>
+        <v>-151000000</v>
       </c>
       <c r="N93">
-        <f t="shared" si="5"/>
-        <v>-151000000</v>
+        <f>H93-H361</f>
+        <v>-233000000</v>
       </c>
       <c r="O93">
-        <f t="shared" si="6"/>
-        <v>-233000000</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="7"/>
+        <f>J93-J361</f>
         <v>0</v>
       </c>
       <c r="R93" s="1"/>
@@ -6857,20 +6857,20 @@
       <c r="K94" s="1">
         <v>1.2389380530973451E-4</v>
       </c>
+      <c r="L94">
+        <f>D94-D362</f>
+        <v>-13305000000</v>
+      </c>
       <c r="M94">
-        <f t="shared" si="4"/>
-        <v>-13305000000</v>
+        <f>F94-F362</f>
+        <v>-5540000000</v>
       </c>
       <c r="N94">
-        <f t="shared" si="5"/>
-        <v>-5540000000</v>
+        <f>H94-H362</f>
+        <v>-2134000000</v>
       </c>
       <c r="O94">
-        <f t="shared" si="6"/>
-        <v>-2134000000</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="7"/>
+        <f>J94-J362</f>
         <v>-1162000000</v>
       </c>
       <c r="R94" s="1"/>
@@ -6910,20 +6910,20 @@
       <c r="K95" s="1">
         <v>0</v>
       </c>
+      <c r="L95">
+        <f>D95-D363</f>
+        <v>0</v>
+      </c>
       <c r="M95">
-        <f t="shared" si="4"/>
+        <f>F95-F363</f>
         <v>0</v>
       </c>
       <c r="N95">
-        <f t="shared" si="5"/>
+        <f>H95-H363</f>
         <v>0</v>
       </c>
       <c r="O95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="7"/>
+        <f>J95-J363</f>
         <v>0</v>
       </c>
       <c r="R95" s="1"/>
@@ -6963,20 +6963,20 @@
       <c r="K96" s="1">
         <v>0</v>
       </c>
+      <c r="L96">
+        <f>D96-D364</f>
+        <v>0</v>
+      </c>
       <c r="M96">
-        <f t="shared" si="4"/>
+        <f>F96-F364</f>
         <v>0</v>
       </c>
       <c r="N96">
-        <f t="shared" si="5"/>
+        <f>H96-H364</f>
         <v>0</v>
       </c>
       <c r="O96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="7"/>
+        <f>J96-J364</f>
         <v>0</v>
       </c>
       <c r="R96" s="1"/>
@@ -7016,20 +7016,20 @@
       <c r="K97" s="1">
         <v>0</v>
       </c>
+      <c r="L97">
+        <f>D97-D365</f>
+        <v>-24000000</v>
+      </c>
       <c r="M97">
-        <f t="shared" si="4"/>
-        <v>-24000000</v>
+        <f>F97-F365</f>
+        <v>0</v>
       </c>
       <c r="N97">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>H97-H365</f>
+        <v>-53000000</v>
       </c>
       <c r="O97">
-        <f t="shared" si="6"/>
-        <v>-53000000</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="7"/>
+        <f>J97-J365</f>
         <v>-15000000</v>
       </c>
       <c r="R97" s="1"/>
@@ -7069,20 +7069,20 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
+      <c r="L98">
+        <f>D98-D366</f>
+        <v>0</v>
+      </c>
       <c r="M98">
-        <f t="shared" si="4"/>
+        <f>F98-F366</f>
         <v>0</v>
       </c>
       <c r="N98">
-        <f t="shared" si="5"/>
+        <f>H98-H366</f>
         <v>0</v>
       </c>
       <c r="O98">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <f t="shared" si="7"/>
+        <f>J98-J366</f>
         <v>0</v>
       </c>
       <c r="R98" s="1"/>
@@ -7122,20 +7122,20 @@
       <c r="K99" s="1">
         <v>0</v>
       </c>
+      <c r="L99">
+        <f>D99-D367</f>
+        <v>-10000000</v>
+      </c>
       <c r="M99">
-        <f t="shared" si="4"/>
-        <v>-10000000</v>
+        <f>F99-F367</f>
+        <v>0</v>
       </c>
       <c r="N99">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>H99-H367</f>
+        <v>-2000000</v>
       </c>
       <c r="O99">
-        <f t="shared" si="6"/>
-        <v>-2000000</v>
-      </c>
-      <c r="P99">
-        <f t="shared" si="7"/>
+        <f>J99-J367</f>
         <v>-15000000</v>
       </c>
       <c r="R99" s="1"/>
@@ -7149,20 +7149,20 @@
       <c r="G100"/>
       <c r="I100"/>
       <c r="K100"/>
+      <c r="L100">
+        <f>D100-D368</f>
+        <v>0</v>
+      </c>
       <c r="M100">
-        <f t="shared" si="4"/>
+        <f>F100-F368</f>
         <v>0</v>
       </c>
       <c r="N100">
-        <f t="shared" si="5"/>
+        <f>H100-H368</f>
         <v>0</v>
       </c>
       <c r="O100">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <f t="shared" si="7"/>
+        <f>J100-J368</f>
         <v>0</v>
       </c>
       <c r="R100" s="1"/>
@@ -7202,20 +7202,20 @@
       <c r="K101" s="1">
         <v>0</v>
       </c>
+      <c r="L101">
+        <f>D101-D369</f>
+        <v>0</v>
+      </c>
       <c r="M101">
-        <f t="shared" si="4"/>
+        <f>F101-F369</f>
         <v>0</v>
       </c>
       <c r="N101">
-        <f t="shared" si="5"/>
+        <f>H101-H369</f>
         <v>0</v>
       </c>
       <c r="O101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <f t="shared" si="7"/>
+        <f>J101-J369</f>
         <v>0</v>
       </c>
       <c r="R101" s="1"/>
@@ -7255,20 +7255,20 @@
       <c r="K102" s="1">
         <v>0</v>
       </c>
+      <c r="L102">
+        <f>D102-D370</f>
+        <v>0</v>
+      </c>
       <c r="M102">
-        <f t="shared" si="4"/>
+        <f>F102-F370</f>
         <v>0</v>
       </c>
       <c r="N102">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>H102-H370</f>
+        <v>-75000000</v>
       </c>
       <c r="O102">
-        <f t="shared" si="6"/>
-        <v>-75000000</v>
-      </c>
-      <c r="P102">
-        <f t="shared" si="7"/>
+        <f>J102-J370</f>
         <v>-4000000</v>
       </c>
       <c r="R102" s="1"/>
@@ -7308,20 +7308,20 @@
       <c r="K103" s="1">
         <v>0</v>
       </c>
+      <c r="L103">
+        <f>D103-D371</f>
+        <v>0</v>
+      </c>
       <c r="M103">
-        <f t="shared" si="4"/>
+        <f>F103-F371</f>
         <v>0</v>
       </c>
       <c r="N103">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>H103-H371</f>
+        <v>-7286000000</v>
       </c>
       <c r="O103">
-        <f t="shared" si="6"/>
-        <v>-7286000000</v>
-      </c>
-      <c r="P103">
-        <f t="shared" si="7"/>
+        <f>J103-J371</f>
         <v>-495000000</v>
       </c>
       <c r="R103" s="1"/>
@@ -7361,20 +7361,20 @@
       <c r="K104" s="1">
         <v>3.8053097345132743E-4</v>
       </c>
+      <c r="L104">
+        <f>D104-D372</f>
+        <v>-239000000</v>
+      </c>
       <c r="M104">
-        <f t="shared" si="4"/>
-        <v>-239000000</v>
+        <f>F104-F372</f>
+        <v>-135000000</v>
       </c>
       <c r="N104">
-        <f t="shared" si="5"/>
-        <v>-135000000</v>
+        <f>H104-H372</f>
+        <v>-125000000</v>
       </c>
       <c r="O104">
-        <f t="shared" si="6"/>
-        <v>-125000000</v>
-      </c>
-      <c r="P104">
-        <f t="shared" si="7"/>
+        <f>J104-J372</f>
         <v>-74000000</v>
       </c>
       <c r="R104" s="1"/>
@@ -7414,20 +7414,20 @@
       <c r="K105" s="1">
         <v>0</v>
       </c>
+      <c r="L105">
+        <f>D105-D373</f>
+        <v>0</v>
+      </c>
       <c r="M105">
-        <f t="shared" si="4"/>
+        <f>F105-F373</f>
         <v>0</v>
       </c>
       <c r="N105">
-        <f t="shared" si="5"/>
+        <f>H105-H373</f>
         <v>0</v>
       </c>
       <c r="O105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P105">
-        <f t="shared" si="7"/>
+        <f>J105-J373</f>
         <v>0</v>
       </c>
       <c r="R105" s="1"/>
@@ -7467,20 +7467,20 @@
       <c r="K106" s="1">
         <v>0</v>
       </c>
+      <c r="L106">
+        <f>D106-D374</f>
+        <v>-1267000000</v>
+      </c>
       <c r="M106">
-        <f t="shared" si="4"/>
-        <v>-1267000000</v>
+        <f>F106-F374</f>
+        <v>-452000000</v>
       </c>
       <c r="N106">
-        <f t="shared" si="5"/>
-        <v>-452000000</v>
+        <f>H106-H374</f>
+        <v>-56000000</v>
       </c>
       <c r="O106">
-        <f t="shared" si="6"/>
-        <v>-56000000</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="7"/>
+        <f>J106-J374</f>
         <v>-432000000</v>
       </c>
       <c r="R106" s="1"/>
@@ -7490,20 +7490,20 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
+      <c r="L107">
+        <f>D107-D375</f>
+        <v>0</v>
+      </c>
       <c r="M107">
-        <f t="shared" si="4"/>
+        <f>F107-F375</f>
         <v>0</v>
       </c>
       <c r="N107">
-        <f t="shared" si="5"/>
+        <f>H107-H375</f>
         <v>0</v>
       </c>
       <c r="O107">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P107">
-        <f t="shared" si="7"/>
+        <f>J107-J375</f>
         <v>0</v>
       </c>
       <c r="R107" s="1"/>
@@ -7513,20 +7513,20 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
+      <c r="L108">
+        <f>D108-D376</f>
+        <v>0</v>
+      </c>
       <c r="M108">
-        <f t="shared" si="4"/>
+        <f>F108-F376</f>
         <v>0</v>
       </c>
       <c r="N108">
-        <f t="shared" si="5"/>
+        <f>H108-H376</f>
         <v>0</v>
       </c>
       <c r="O108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P108">
-        <f t="shared" si="7"/>
+        <f>J108-J376</f>
         <v>0</v>
       </c>
       <c r="R108" s="1"/>
@@ -7536,20 +7536,20 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
+      <c r="L109">
+        <f>D109-D377</f>
+        <v>0</v>
+      </c>
       <c r="M109">
-        <f t="shared" si="4"/>
+        <f>F109-F377</f>
         <v>0</v>
       </c>
       <c r="N109">
-        <f t="shared" si="5"/>
+        <f>H109-H377</f>
         <v>0</v>
       </c>
       <c r="O109">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P109">
-        <f t="shared" si="7"/>
+        <f>J109-J377</f>
         <v>0</v>
       </c>
       <c r="R109" s="1"/>
@@ -7559,20 +7559,20 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
+      <c r="L110">
+        <f>D110-D378</f>
+        <v>0</v>
+      </c>
       <c r="M110">
-        <f t="shared" si="4"/>
+        <f>F110-F378</f>
         <v>0</v>
       </c>
       <c r="N110">
-        <f t="shared" si="5"/>
+        <f>H110-H378</f>
         <v>0</v>
       </c>
       <c r="O110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <f t="shared" si="7"/>
+        <f>J110-J378</f>
         <v>0</v>
       </c>
       <c r="R110" s="1"/>
@@ -7612,40 +7612,40 @@
       <c r="K111" s="1">
         <v>1.5044247787610621E-4</v>
       </c>
+      <c r="L111">
+        <f>D111-D379</f>
+        <v>-2149000000</v>
+      </c>
       <c r="M111">
-        <f t="shared" si="4"/>
-        <v>-2149000000</v>
+        <f>F111-F379</f>
+        <v>-1399000000</v>
       </c>
       <c r="N111">
-        <f t="shared" si="5"/>
-        <v>-1399000000</v>
+        <f>H111-H379</f>
+        <v>-4996000000</v>
       </c>
       <c r="O111">
-        <f t="shared" si="6"/>
-        <v>-4996000000</v>
-      </c>
-      <c r="P111">
-        <f t="shared" si="7"/>
+        <f>J111-J379</f>
         <v>-1119000000</v>
       </c>
       <c r="R111" s="1"/>
       <c r="T111" s="1"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <f>D112-D380</f>
+        <v>0</v>
+      </c>
       <c r="M112">
-        <f t="shared" si="4"/>
+        <f>F112-F380</f>
         <v>0</v>
       </c>
       <c r="N112">
-        <f t="shared" si="5"/>
+        <f>H112-H380</f>
         <v>0</v>
       </c>
       <c r="O112">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P112">
-        <f t="shared" si="7"/>
+        <f>J112-J380</f>
         <v>0</v>
       </c>
       <c r="R112" s="1"/>
@@ -7685,20 +7685,20 @@
       <c r="K113" s="1">
         <v>0</v>
       </c>
+      <c r="L113">
+        <f>D113-D381</f>
+        <v>0</v>
+      </c>
       <c r="M113">
-        <f t="shared" si="4"/>
+        <f>F113-F381</f>
         <v>0</v>
       </c>
       <c r="N113">
-        <f t="shared" si="5"/>
+        <f>H113-H381</f>
         <v>0</v>
       </c>
       <c r="O113">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P113">
-        <f t="shared" si="7"/>
+        <f>J113-J381</f>
         <v>0</v>
       </c>
       <c r="R113" s="1"/>
@@ -7738,20 +7738,20 @@
       <c r="K114" s="1">
         <v>2.1946902654867255E-3</v>
       </c>
+      <c r="L114">
+        <f>D114-D382</f>
+        <v>-17407000000</v>
+      </c>
       <c r="M114">
-        <f t="shared" si="4"/>
-        <v>-17407000000</v>
+        <f>F114-F382</f>
+        <v>-10574000000</v>
       </c>
       <c r="N114">
-        <f t="shared" si="5"/>
-        <v>-10574000000</v>
+        <f>H114-H382</f>
+        <v>-32177000000</v>
       </c>
       <c r="O114">
-        <f t="shared" si="6"/>
-        <v>-32177000000</v>
-      </c>
-      <c r="P114">
-        <f t="shared" si="7"/>
+        <f>J114-J382</f>
         <v>-10358000000</v>
       </c>
       <c r="R114" s="1"/>
@@ -7791,20 +7791,20 @@
       <c r="K115" s="1">
         <v>0</v>
       </c>
+      <c r="L115">
+        <f>D115-D383</f>
+        <v>0</v>
+      </c>
       <c r="M115">
-        <f t="shared" si="4"/>
+        <f>F115-F383</f>
         <v>0</v>
       </c>
       <c r="N115">
-        <f t="shared" si="5"/>
+        <f>H115-H383</f>
         <v>0</v>
       </c>
       <c r="O115">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="7"/>
+        <f>J115-J383</f>
         <v>0</v>
       </c>
       <c r="R115" s="1"/>
@@ -7844,20 +7844,20 @@
       <c r="K116" s="1">
         <v>5.221238938053097E-4</v>
       </c>
+      <c r="L116">
+        <f>D116-D384</f>
+        <v>-151000000</v>
+      </c>
       <c r="M116">
-        <f t="shared" si="4"/>
-        <v>-151000000</v>
+        <f>F116-F384</f>
+        <v>99000000</v>
       </c>
       <c r="N116">
-        <f t="shared" si="5"/>
-        <v>99000000</v>
+        <f>H116-H384</f>
+        <v>-23000000</v>
       </c>
       <c r="O116">
-        <f t="shared" si="6"/>
-        <v>-23000000</v>
-      </c>
-      <c r="P116">
-        <f t="shared" si="7"/>
+        <f>J116-J384</f>
         <v>-29000000</v>
       </c>
       <c r="R116" s="1"/>
@@ -7897,20 +7897,20 @@
       <c r="K117" s="1">
         <v>2.8849557522123894E-3</v>
       </c>
+      <c r="L117">
+        <f>D117-D385</f>
+        <v>-6229000000</v>
+      </c>
       <c r="M117">
-        <f t="shared" si="4"/>
-        <v>-6229000000</v>
+        <f>F117-F385</f>
+        <v>-893000000</v>
       </c>
       <c r="N117">
-        <f t="shared" si="5"/>
-        <v>-893000000</v>
+        <f>H117-H385</f>
+        <v>-391000000</v>
       </c>
       <c r="O117">
-        <f t="shared" si="6"/>
-        <v>-391000000</v>
-      </c>
-      <c r="P117">
-        <f t="shared" si="7"/>
+        <f>J117-J385</f>
         <v>303000000</v>
       </c>
       <c r="R117" s="1"/>
@@ -7950,20 +7950,20 @@
       <c r="K118" s="1">
         <v>0</v>
       </c>
+      <c r="L118">
+        <f>D118-D386</f>
+        <v>0</v>
+      </c>
       <c r="M118">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>F118-F386</f>
+        <v>-1678000000</v>
       </c>
       <c r="N118">
-        <f t="shared" si="5"/>
-        <v>-1678000000</v>
+        <f>H118-H386</f>
+        <v>-7473000000</v>
       </c>
       <c r="O118">
-        <f t="shared" si="6"/>
-        <v>-7473000000</v>
-      </c>
-      <c r="P118">
-        <f t="shared" si="7"/>
+        <f>J118-J386</f>
         <v>-66000000</v>
       </c>
       <c r="R118" s="1"/>
@@ -8003,20 +8003,20 @@
       <c r="K119" s="1">
         <v>0</v>
       </c>
+      <c r="L119">
+        <f>D119-D387</f>
+        <v>5000000</v>
+      </c>
       <c r="M119">
-        <f t="shared" si="4"/>
-        <v>5000000</v>
+        <f>F119-F387</f>
+        <v>0</v>
       </c>
       <c r="N119">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>H119-H387</f>
+        <v>-50000000</v>
       </c>
       <c r="O119">
-        <f t="shared" si="6"/>
-        <v>-50000000</v>
-      </c>
-      <c r="P119">
-        <f t="shared" si="7"/>
+        <f>J119-J387</f>
         <v>0</v>
       </c>
       <c r="R119" s="1"/>
@@ -8056,20 +8056,20 @@
       <c r="K120" s="1">
         <v>2.6929203539823008E-2</v>
       </c>
+      <c r="L120">
+        <f>D120-D388</f>
+        <v>-3753000000</v>
+      </c>
       <c r="M120">
-        <f t="shared" si="4"/>
-        <v>-3753000000</v>
+        <f>F120-F388</f>
+        <v>-1415000000</v>
       </c>
       <c r="N120">
-        <f t="shared" si="5"/>
-        <v>-1415000000</v>
+        <f>H120-H388</f>
+        <v>3223000000</v>
       </c>
       <c r="O120">
-        <f t="shared" si="6"/>
-        <v>3223000000</v>
-      </c>
-      <c r="P120">
-        <f t="shared" si="7"/>
+        <f>J120-J388</f>
         <v>530000000</v>
       </c>
       <c r="R120" s="1"/>
@@ -8109,20 +8109,20 @@
       <c r="K121" s="1">
         <v>4.9805309734513276E-2</v>
       </c>
+      <c r="L121">
+        <f>D121-D389</f>
+        <v>1116000000</v>
+      </c>
       <c r="M121">
-        <f t="shared" si="4"/>
-        <v>1116000000</v>
+        <f>F121-F389</f>
+        <v>1560000000</v>
       </c>
       <c r="N121">
-        <f t="shared" si="5"/>
-        <v>1560000000</v>
+        <f>H121-H389</f>
+        <v>3912000000</v>
       </c>
       <c r="O121">
-        <f t="shared" si="6"/>
-        <v>3912000000</v>
-      </c>
-      <c r="P121">
-        <f t="shared" si="7"/>
+        <f>J121-J389</f>
         <v>4494000000</v>
       </c>
       <c r="R121" s="1"/>
@@ -8162,20 +8162,20 @@
       <c r="K122" s="1">
         <v>0</v>
       </c>
+      <c r="L122">
+        <f>D122-D390</f>
+        <v>-20000000</v>
+      </c>
       <c r="M122">
-        <f t="shared" si="4"/>
-        <v>-20000000</v>
+        <f>F122-F390</f>
+        <v>-35000000</v>
       </c>
       <c r="N122">
-        <f t="shared" si="5"/>
-        <v>-35000000</v>
+        <f>H122-H390</f>
+        <v>-48000000</v>
       </c>
       <c r="O122">
-        <f t="shared" si="6"/>
-        <v>-48000000</v>
-      </c>
-      <c r="P122">
-        <f t="shared" si="7"/>
+        <f>J122-J390</f>
         <v>-48000000</v>
       </c>
       <c r="R122" s="1"/>
@@ -8215,20 +8215,20 @@
       <c r="K123" s="1">
         <v>1.84070796460177E-3</v>
       </c>
+      <c r="L123">
+        <f>D123-D391</f>
+        <v>-1153000000</v>
+      </c>
       <c r="M123">
-        <f t="shared" si="4"/>
-        <v>-1153000000</v>
+        <f>F123-F391</f>
+        <v>-757000000</v>
       </c>
       <c r="N123">
-        <f t="shared" si="5"/>
-        <v>-757000000</v>
+        <f>H123-H391</f>
+        <v>-1493000000</v>
       </c>
       <c r="O123">
-        <f t="shared" si="6"/>
-        <v>-1493000000</v>
-      </c>
-      <c r="P123">
-        <f t="shared" si="7"/>
+        <f>J123-J391</f>
         <v>-59000000</v>
       </c>
       <c r="R123" s="1"/>
@@ -8268,20 +8268,20 @@
       <c r="K124" s="1">
         <v>1.1504424778761063E-4</v>
       </c>
+      <c r="L124">
+        <f>D124-D392</f>
+        <v>-15385000000</v>
+      </c>
       <c r="M124">
-        <f t="shared" si="4"/>
-        <v>-15385000000</v>
+        <f>F124-F392</f>
+        <v>-3720000000</v>
       </c>
       <c r="N124">
-        <f t="shared" si="5"/>
-        <v>-3720000000</v>
+        <f>H124-H392</f>
+        <v>-4767000000</v>
       </c>
       <c r="O124">
-        <f t="shared" si="6"/>
-        <v>-4767000000</v>
-      </c>
-      <c r="P124">
-        <f t="shared" si="7"/>
+        <f>J124-J392</f>
         <v>-4703000000</v>
       </c>
       <c r="R124" s="1"/>
@@ -8321,20 +8321,20 @@
       <c r="K125" s="1">
         <v>0</v>
       </c>
+      <c r="L125">
+        <f>D125-D393</f>
+        <v>-439000000</v>
+      </c>
       <c r="M125">
-        <f t="shared" si="4"/>
-        <v>-439000000</v>
+        <f>F125-F393</f>
+        <v>-281000000</v>
       </c>
       <c r="N125">
-        <f t="shared" si="5"/>
-        <v>-281000000</v>
+        <f>H125-H393</f>
+        <v>-1867000000</v>
       </c>
       <c r="O125">
-        <f t="shared" si="6"/>
-        <v>-1867000000</v>
-      </c>
-      <c r="P125">
-        <f t="shared" si="7"/>
+        <f>J125-J393</f>
         <v>-670000000</v>
       </c>
       <c r="R125" s="1"/>
@@ -8374,20 +8374,20 @@
       <c r="K126" s="1">
         <v>0</v>
       </c>
+      <c r="L126">
+        <f>D126-D394</f>
+        <v>-116000000</v>
+      </c>
       <c r="M126">
-        <f t="shared" si="4"/>
-        <v>-116000000</v>
+        <f>F126-F394</f>
+        <v>-45000000</v>
       </c>
       <c r="N126">
-        <f t="shared" si="5"/>
-        <v>-45000000</v>
+        <f>H126-H394</f>
+        <v>-320000000</v>
       </c>
       <c r="O126">
-        <f t="shared" si="6"/>
-        <v>-320000000</v>
-      </c>
-      <c r="P126">
-        <f t="shared" si="7"/>
+        <f>J126-J394</f>
         <v>-76000000</v>
       </c>
       <c r="R126" s="1"/>
@@ -8427,20 +8427,20 @@
       <c r="K127" s="1">
         <v>0</v>
       </c>
+      <c r="L127">
+        <f>D127-D395</f>
+        <v>139000000</v>
+      </c>
       <c r="M127">
-        <f t="shared" si="4"/>
-        <v>139000000</v>
+        <f>F127-F395</f>
+        <v>39000000</v>
       </c>
       <c r="N127">
-        <f t="shared" si="5"/>
-        <v>39000000</v>
+        <f>H127-H395</f>
+        <v>-26000000</v>
       </c>
       <c r="O127">
-        <f t="shared" si="6"/>
-        <v>-26000000</v>
-      </c>
-      <c r="P127">
-        <f t="shared" si="7"/>
+        <f>J127-J395</f>
         <v>-39000000</v>
       </c>
       <c r="R127" s="1"/>
@@ -8480,20 +8480,20 @@
       <c r="K128" s="1">
         <v>0</v>
       </c>
+      <c r="L128">
+        <f>D128-D396</f>
+        <v>-125000000</v>
+      </c>
       <c r="M128">
-        <f t="shared" si="4"/>
-        <v>-125000000</v>
+        <f>F128-F396</f>
+        <v>-74000000</v>
       </c>
       <c r="N128">
-        <f t="shared" si="5"/>
-        <v>-74000000</v>
+        <f>H128-H396</f>
+        <v>-186000000</v>
       </c>
       <c r="O128">
-        <f t="shared" si="6"/>
-        <v>-186000000</v>
-      </c>
-      <c r="P128">
-        <f t="shared" si="7"/>
+        <f>J128-J396</f>
         <v>-121000000</v>
       </c>
       <c r="R128" s="1"/>
@@ -8533,20 +8533,20 @@
       <c r="K129" s="1">
         <v>0</v>
       </c>
+      <c r="L129">
+        <f>D129-D397</f>
+        <v>-6000000</v>
+      </c>
       <c r="M129">
-        <f t="shared" si="4"/>
-        <v>-6000000</v>
+        <f>F129-F397</f>
+        <v>0</v>
       </c>
       <c r="N129">
-        <f t="shared" si="5"/>
+        <f>H129-H397</f>
         <v>0</v>
       </c>
       <c r="O129">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P129">
-        <f t="shared" si="7"/>
+        <f>J129-J397</f>
         <v>-7000000</v>
       </c>
       <c r="R129" s="1"/>
@@ -8586,20 +8586,20 @@
       <c r="K130" s="1">
         <v>0</v>
       </c>
+      <c r="L130">
+        <f>D130-D398</f>
+        <v>0</v>
+      </c>
       <c r="M130">
-        <f t="shared" si="4"/>
+        <f>F130-F398</f>
         <v>0</v>
       </c>
       <c r="N130">
-        <f t="shared" si="5"/>
+        <f>H130-H398</f>
         <v>0</v>
       </c>
       <c r="O130">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P130">
-        <f t="shared" si="7"/>
+        <f>J130-J398</f>
         <v>0</v>
       </c>
       <c r="R130" s="1"/>
@@ -8639,20 +8639,20 @@
       <c r="K131" s="1">
         <v>1.8646017699115044E-2</v>
       </c>
+      <c r="L131">
+        <f>D131-D399</f>
+        <v>-14819000000</v>
+      </c>
       <c r="M131">
-        <f t="shared" si="4"/>
-        <v>-14819000000</v>
+        <f>F131-F399</f>
+        <v>-6782000000</v>
       </c>
       <c r="N131">
-        <f t="shared" si="5"/>
-        <v>-6782000000</v>
+        <f>H131-H399</f>
+        <v>-5535000000</v>
       </c>
       <c r="O131">
-        <f t="shared" si="6"/>
-        <v>-5535000000</v>
-      </c>
-      <c r="P131">
-        <f t="shared" si="7"/>
+        <f>J131-J399</f>
         <v>-590000000</v>
       </c>
       <c r="R131" s="1"/>
@@ -8692,20 +8692,20 @@
       <c r="K132" s="1">
         <v>0</v>
       </c>
+      <c r="L132">
+        <f>D132-D400</f>
+        <v>-4952000000</v>
+      </c>
       <c r="M132">
-        <f t="shared" si="4"/>
-        <v>-4952000000</v>
+        <f>F132-F400</f>
+        <v>-321000000</v>
       </c>
       <c r="N132">
-        <f t="shared" si="5"/>
-        <v>-321000000</v>
+        <f>H132-H400</f>
+        <v>-1743000000</v>
       </c>
       <c r="O132">
-        <f t="shared" si="6"/>
-        <v>-1743000000</v>
-      </c>
-      <c r="P132">
-        <f t="shared" si="7"/>
+        <f>J132-J400</f>
         <v>-3675000000</v>
       </c>
       <c r="R132" s="1"/>
@@ -8745,20 +8745,20 @@
       <c r="K133" s="1">
         <v>0</v>
       </c>
+      <c r="L133">
+        <f>D133-D401</f>
+        <v>-9601000000</v>
+      </c>
       <c r="M133">
-        <f t="shared" si="4"/>
-        <v>-9601000000</v>
+        <f>F133-F401</f>
+        <v>-3049000000</v>
       </c>
       <c r="N133">
-        <f t="shared" si="5"/>
-        <v>-3049000000</v>
+        <f>H133-H401</f>
+        <v>-6619000000</v>
       </c>
       <c r="O133">
-        <f t="shared" si="6"/>
-        <v>-6619000000</v>
-      </c>
-      <c r="P133">
-        <f t="shared" si="7"/>
+        <f>J133-J401</f>
         <v>-1046000000</v>
       </c>
       <c r="R133" s="1"/>
@@ -8798,20 +8798,20 @@
       <c r="K134" s="1">
         <v>0</v>
       </c>
+      <c r="L134">
+        <f>D134-D402</f>
+        <v>-102000000</v>
+      </c>
       <c r="M134">
-        <f t="shared" ref="M134:M197" si="8">D134-D402</f>
-        <v>-102000000</v>
+        <f>F134-F402</f>
+        <v>-37000000</v>
       </c>
       <c r="N134">
-        <f t="shared" ref="N134:N197" si="9">F134-F402</f>
-        <v>-37000000</v>
+        <f>H134-H402</f>
+        <v>-212000000</v>
       </c>
       <c r="O134">
-        <f t="shared" ref="O134:O197" si="10">H134-H402</f>
-        <v>-212000000</v>
-      </c>
-      <c r="P134">
-        <f t="shared" ref="P134:P197" si="11">J134-J402</f>
+        <f>J134-J402</f>
         <v>-22000000</v>
       </c>
       <c r="R134" s="1"/>
@@ -8851,20 +8851,20 @@
       <c r="K135" s="1">
         <v>0</v>
       </c>
+      <c r="L135">
+        <f>D135-D403</f>
+        <v>-143000000</v>
+      </c>
       <c r="M135">
-        <f t="shared" si="8"/>
-        <v>-143000000</v>
+        <f>F135-F403</f>
+        <v>-59000000</v>
       </c>
       <c r="N135">
-        <f t="shared" si="9"/>
-        <v>-59000000</v>
+        <f>H135-H403</f>
+        <v>-366000000</v>
       </c>
       <c r="O135">
-        <f t="shared" si="10"/>
-        <v>-366000000</v>
-      </c>
-      <c r="P135">
-        <f t="shared" si="11"/>
+        <f>J135-J403</f>
         <v>-123000000</v>
       </c>
       <c r="R135" s="1"/>
@@ -8904,20 +8904,20 @@
       <c r="K136" s="1">
         <v>0</v>
       </c>
+      <c r="L136">
+        <f>D136-D404</f>
+        <v>-10000000</v>
+      </c>
       <c r="M136">
-        <f t="shared" si="8"/>
-        <v>-10000000</v>
+        <f>F136-F404</f>
+        <v>0</v>
       </c>
       <c r="N136">
-        <f t="shared" si="9"/>
+        <f>H136-H404</f>
         <v>0</v>
       </c>
       <c r="O136">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P136">
-        <f t="shared" si="11"/>
+        <f>J136-J404</f>
         <v>0</v>
       </c>
       <c r="R136" s="1"/>
@@ -8957,20 +8957,20 @@
       <c r="K137" s="1">
         <v>0</v>
       </c>
+      <c r="L137">
+        <f>D137-D405</f>
+        <v>47000000</v>
+      </c>
       <c r="M137">
-        <f t="shared" si="8"/>
-        <v>47000000</v>
+        <f>F137-F405</f>
+        <v>231000000</v>
       </c>
       <c r="N137">
-        <f t="shared" si="9"/>
-        <v>231000000</v>
+        <f>H137-H405</f>
+        <v>-207000000</v>
       </c>
       <c r="O137">
-        <f t="shared" si="10"/>
-        <v>-207000000</v>
-      </c>
-      <c r="P137">
-        <f t="shared" si="11"/>
+        <f>J137-J405</f>
         <v>0</v>
       </c>
       <c r="R137" s="1"/>
@@ -9010,20 +9010,20 @@
       <c r="K138" s="1">
         <v>0</v>
       </c>
+      <c r="L138">
+        <f>D138-D406</f>
+        <v>0</v>
+      </c>
       <c r="M138">
-        <f t="shared" si="8"/>
+        <f>F138-F406</f>
         <v>0</v>
       </c>
       <c r="N138">
-        <f t="shared" si="9"/>
+        <f>H138-H406</f>
         <v>0</v>
       </c>
       <c r="O138">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <f t="shared" si="11"/>
+        <f>J138-J406</f>
         <v>0</v>
       </c>
       <c r="R138" s="1"/>
@@ -9063,20 +9063,20 @@
       <c r="K139" s="1">
         <v>0</v>
       </c>
+      <c r="L139">
+        <f>D139-D407</f>
+        <v>-12941000000</v>
+      </c>
       <c r="M139">
-        <f t="shared" si="8"/>
-        <v>-12941000000</v>
+        <f>F139-F407</f>
+        <v>-7049000000</v>
       </c>
       <c r="N139">
-        <f t="shared" si="9"/>
-        <v>-7049000000</v>
+        <f>H139-H407</f>
+        <v>-11130000000</v>
       </c>
       <c r="O139">
-        <f t="shared" si="10"/>
-        <v>-11130000000</v>
-      </c>
-      <c r="P139">
-        <f t="shared" si="11"/>
+        <f>J139-J407</f>
         <v>-1542000000</v>
       </c>
       <c r="R139" s="1"/>
@@ -9116,20 +9116,20 @@
       <c r="K140" s="1">
         <v>0</v>
       </c>
+      <c r="L140">
+        <f>D140-D408</f>
+        <v>-1842000000</v>
+      </c>
       <c r="M140">
-        <f t="shared" si="8"/>
-        <v>-1842000000</v>
+        <f>F140-F408</f>
+        <v>-2779000000</v>
       </c>
       <c r="N140">
-        <f t="shared" si="9"/>
-        <v>-2779000000</v>
+        <f>H140-H408</f>
+        <v>-12059000000</v>
       </c>
       <c r="O140">
-        <f t="shared" si="10"/>
-        <v>-12059000000</v>
-      </c>
-      <c r="P140">
-        <f t="shared" si="11"/>
+        <f>J140-J408</f>
         <v>-2477000000</v>
       </c>
       <c r="R140" s="1"/>
@@ -9169,20 +9169,20 @@
       <c r="K141" s="1">
         <v>0</v>
       </c>
+      <c r="L141">
+        <f>D141-D409</f>
+        <v>-2836000000</v>
+      </c>
       <c r="M141">
-        <f t="shared" si="8"/>
-        <v>-2836000000</v>
+        <f>F141-F409</f>
+        <v>-3486000000</v>
       </c>
       <c r="N141">
-        <f t="shared" si="9"/>
-        <v>-3486000000</v>
+        <f>H141-H409</f>
+        <v>-9165000000</v>
       </c>
       <c r="O141">
-        <f t="shared" si="10"/>
-        <v>-9165000000</v>
-      </c>
-      <c r="P141">
-        <f t="shared" si="11"/>
+        <f>J141-J409</f>
         <v>-829000000</v>
       </c>
       <c r="R141" s="1"/>
@@ -9222,20 +9222,20 @@
       <c r="K142" s="1">
         <v>0</v>
       </c>
+      <c r="L142">
+        <f>D142-D410</f>
+        <v>0</v>
+      </c>
       <c r="M142">
-        <f t="shared" si="8"/>
+        <f>F142-F410</f>
         <v>0</v>
       </c>
       <c r="N142">
-        <f t="shared" si="9"/>
+        <f>H142-H410</f>
         <v>0</v>
       </c>
       <c r="O142">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P142">
-        <f t="shared" si="11"/>
+        <f>J142-J410</f>
         <v>0</v>
       </c>
       <c r="R142" s="1"/>
@@ -9275,20 +9275,20 @@
       <c r="K143" s="1">
         <v>0</v>
       </c>
+      <c r="L143">
+        <f>D143-D411</f>
+        <v>-1289000000</v>
+      </c>
       <c r="M143">
-        <f t="shared" si="8"/>
-        <v>-1289000000</v>
+        <f>F143-F411</f>
+        <v>-392000000</v>
       </c>
       <c r="N143">
-        <f t="shared" si="9"/>
-        <v>-392000000</v>
+        <f>H143-H411</f>
+        <v>-257000000</v>
       </c>
       <c r="O143">
-        <f t="shared" si="10"/>
-        <v>-257000000</v>
-      </c>
-      <c r="P143">
-        <f t="shared" si="11"/>
+        <f>J143-J411</f>
         <v>-62000000</v>
       </c>
       <c r="R143" s="1"/>
@@ -9298,20 +9298,20 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
+      <c r="L144">
+        <f>D144-D412</f>
+        <v>0</v>
+      </c>
       <c r="M144">
-        <f t="shared" si="8"/>
+        <f>F144-F412</f>
         <v>0</v>
       </c>
       <c r="N144">
-        <f t="shared" si="9"/>
+        <f>H144-H412</f>
         <v>0</v>
       </c>
       <c r="O144">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P144">
-        <f t="shared" si="11"/>
+        <f>J144-J412</f>
         <v>0</v>
       </c>
       <c r="R144" s="1"/>
@@ -9321,20 +9321,20 @@
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
+      <c r="L145">
+        <f>D145-D413</f>
+        <v>0</v>
+      </c>
       <c r="M145">
-        <f t="shared" si="8"/>
+        <f>F145-F413</f>
         <v>0</v>
       </c>
       <c r="N145">
-        <f t="shared" si="9"/>
+        <f>H145-H413</f>
         <v>0</v>
       </c>
       <c r="O145">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P145">
-        <f t="shared" si="11"/>
+        <f>J145-J413</f>
         <v>0</v>
       </c>
       <c r="R145" s="1"/>
@@ -9374,40 +9374,40 @@
       <c r="K146" s="1">
         <v>0</v>
       </c>
+      <c r="L146">
+        <f>D146-D414</f>
+        <v>-15000000</v>
+      </c>
       <c r="M146">
-        <f t="shared" si="8"/>
-        <v>-15000000</v>
+        <f>F146-F414</f>
+        <v>-2000000</v>
       </c>
       <c r="N146">
-        <f t="shared" si="9"/>
-        <v>-2000000</v>
+        <f>H146-H414</f>
+        <v>-3000000</v>
       </c>
       <c r="O146">
-        <f t="shared" si="10"/>
-        <v>-3000000</v>
-      </c>
-      <c r="P146">
-        <f t="shared" si="11"/>
+        <f>J146-J414</f>
         <v>0</v>
       </c>
       <c r="R146" s="1"/>
       <c r="T146" s="1"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <f>D147-D415</f>
+        <v>0</v>
+      </c>
       <c r="M147">
-        <f t="shared" si="8"/>
+        <f>F147-F415</f>
         <v>0</v>
       </c>
       <c r="N147">
-        <f t="shared" si="9"/>
+        <f>H147-H415</f>
         <v>0</v>
       </c>
       <c r="O147">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P147">
-        <f t="shared" si="11"/>
+        <f>J147-J415</f>
         <v>0</v>
       </c>
       <c r="R147" s="1"/>
@@ -9447,20 +9447,20 @@
       <c r="K148" s="1">
         <v>3.0973451327433627E-4</v>
       </c>
+      <c r="L148">
+        <f>D148-D416</f>
+        <v>-158000000</v>
+      </c>
       <c r="M148">
-        <f t="shared" si="8"/>
-        <v>-158000000</v>
+        <f>F148-F416</f>
+        <v>-169000000</v>
       </c>
       <c r="N148">
-        <f t="shared" si="9"/>
-        <v>-169000000</v>
+        <f>H148-H416</f>
+        <v>-133000000</v>
       </c>
       <c r="O148">
-        <f t="shared" si="10"/>
-        <v>-133000000</v>
-      </c>
-      <c r="P148">
-        <f t="shared" si="11"/>
+        <f>J148-J416</f>
         <v>-359000000</v>
       </c>
       <c r="R148" s="1"/>
@@ -9500,20 +9500,20 @@
       <c r="K149" s="1">
         <v>0</v>
       </c>
+      <c r="L149">
+        <f>D149-D417</f>
+        <v>-5000000</v>
+      </c>
       <c r="M149">
-        <f t="shared" si="8"/>
-        <v>-5000000</v>
+        <f>F149-F417</f>
+        <v>-10000000</v>
       </c>
       <c r="N149">
-        <f t="shared" si="9"/>
-        <v>-10000000</v>
+        <f>H149-H417</f>
+        <v>-16000000</v>
       </c>
       <c r="O149">
-        <f t="shared" si="10"/>
-        <v>-16000000</v>
-      </c>
-      <c r="P149">
-        <f t="shared" si="11"/>
+        <f>J149-J417</f>
         <v>-89000000</v>
       </c>
       <c r="R149" s="1"/>
@@ -9553,20 +9553,20 @@
       <c r="K150" s="1">
         <v>1.5044247787610621E-4</v>
       </c>
+      <c r="L150">
+        <f>D150-D418</f>
+        <v>-77000000</v>
+      </c>
       <c r="M150">
-        <f t="shared" si="8"/>
-        <v>-77000000</v>
+        <f>F150-F418</f>
+        <v>-135000000</v>
       </c>
       <c r="N150">
-        <f t="shared" si="9"/>
-        <v>-135000000</v>
+        <f>H150-H418</f>
+        <v>-175000000</v>
       </c>
       <c r="O150">
-        <f t="shared" si="10"/>
-        <v>-175000000</v>
-      </c>
-      <c r="P150">
-        <f t="shared" si="11"/>
+        <f>J150-J418</f>
         <v>-75000000</v>
       </c>
       <c r="R150" s="1"/>
@@ -9606,20 +9606,20 @@
       <c r="K151" s="1">
         <v>0</v>
       </c>
+      <c r="L151">
+        <f>D151-D419</f>
+        <v>0</v>
+      </c>
       <c r="M151">
-        <f t="shared" si="8"/>
+        <f>F151-F419</f>
         <v>0</v>
       </c>
       <c r="N151">
-        <f t="shared" si="9"/>
+        <f>H151-H419</f>
         <v>0</v>
       </c>
       <c r="O151">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P151">
-        <f t="shared" si="11"/>
+        <f>J151-J419</f>
         <v>0</v>
       </c>
       <c r="R151" s="1"/>
@@ -9659,20 +9659,20 @@
       <c r="K152" s="1">
         <v>0</v>
       </c>
+      <c r="L152">
+        <f>D152-D420</f>
+        <v>0</v>
+      </c>
       <c r="M152">
-        <f t="shared" si="8"/>
+        <f>F152-F420</f>
         <v>0</v>
       </c>
       <c r="N152">
-        <f t="shared" si="9"/>
+        <f>H152-H420</f>
         <v>0</v>
       </c>
       <c r="O152">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P152">
-        <f t="shared" si="11"/>
+        <f>J152-J420</f>
         <v>0</v>
       </c>
       <c r="R152" s="1"/>
@@ -9712,20 +9712,20 @@
       <c r="K153" s="1">
         <v>8.3185840707964602E-4</v>
       </c>
+      <c r="L153">
+        <f>D153-D421</f>
+        <v>-996000000</v>
+      </c>
       <c r="M153">
-        <f t="shared" si="8"/>
-        <v>-996000000</v>
+        <f>F153-F421</f>
+        <v>-274000000</v>
       </c>
       <c r="N153">
-        <f t="shared" si="9"/>
-        <v>-274000000</v>
+        <f>H153-H421</f>
+        <v>-4677000000</v>
       </c>
       <c r="O153">
-        <f t="shared" si="10"/>
-        <v>-4677000000</v>
-      </c>
-      <c r="P153">
-        <f t="shared" si="11"/>
+        <f>J153-J421</f>
         <v>-930000000</v>
       </c>
       <c r="R153" s="1"/>
@@ -9765,20 +9765,20 @@
       <c r="K154" s="1">
         <v>0</v>
       </c>
+      <c r="L154">
+        <f>D154-D422</f>
+        <v>0</v>
+      </c>
       <c r="M154">
-        <f t="shared" si="8"/>
+        <f>F154-F422</f>
         <v>0</v>
       </c>
       <c r="N154">
-        <f t="shared" si="9"/>
+        <f>H154-H422</f>
         <v>0</v>
       </c>
       <c r="O154">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P154">
-        <f t="shared" si="11"/>
+        <f>J154-J422</f>
         <v>0</v>
       </c>
       <c r="R154" s="1"/>
@@ -9818,20 +9818,20 @@
       <c r="K155" s="1">
         <v>0</v>
       </c>
+      <c r="L155">
+        <f>D155-D423</f>
+        <v>363000000</v>
+      </c>
       <c r="M155">
-        <f t="shared" si="8"/>
-        <v>363000000</v>
+        <f>F155-F423</f>
+        <v>89000000</v>
       </c>
       <c r="N155">
-        <f t="shared" si="9"/>
-        <v>89000000</v>
+        <f>H155-H423</f>
+        <v>12000000</v>
       </c>
       <c r="O155">
-        <f t="shared" si="10"/>
-        <v>12000000</v>
-      </c>
-      <c r="P155">
-        <f t="shared" si="11"/>
+        <f>J155-J423</f>
         <v>-13000000</v>
       </c>
       <c r="R155" s="1"/>
@@ -9871,20 +9871,20 @@
       <c r="K156" s="1">
         <v>0</v>
       </c>
+      <c r="L156">
+        <f>D156-D424</f>
+        <v>-21000000</v>
+      </c>
       <c r="M156">
-        <f t="shared" si="8"/>
-        <v>-21000000</v>
+        <f>F156-F424</f>
+        <v>0</v>
       </c>
       <c r="N156">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>H156-H424</f>
+        <v>-2000000</v>
       </c>
       <c r="O156">
-        <f t="shared" si="10"/>
-        <v>-2000000</v>
-      </c>
-      <c r="P156">
-        <f t="shared" si="11"/>
+        <f>J156-J424</f>
         <v>-1000000</v>
       </c>
       <c r="R156" s="1"/>
@@ -9924,20 +9924,20 @@
       <c r="K157" s="1">
         <v>0</v>
       </c>
+      <c r="L157">
+        <f>D157-D425</f>
+        <v>-10000000</v>
+      </c>
       <c r="M157">
-        <f t="shared" si="8"/>
-        <v>-10000000</v>
+        <f>F157-F425</f>
+        <v>-15000000</v>
       </c>
       <c r="N157">
-        <f t="shared" si="9"/>
-        <v>-15000000</v>
+        <f>H157-H425</f>
+        <v>-12000000</v>
       </c>
       <c r="O157">
-        <f t="shared" si="10"/>
-        <v>-12000000</v>
-      </c>
-      <c r="P157">
-        <f t="shared" si="11"/>
+        <f>J157-J425</f>
         <v>-5000000</v>
       </c>
       <c r="R157" s="1"/>
@@ -9977,20 +9977,20 @@
       <c r="K158" s="1">
         <v>0</v>
       </c>
+      <c r="L158">
+        <f>D158-D426</f>
+        <v>-65356000000</v>
+      </c>
       <c r="M158">
-        <f t="shared" si="8"/>
-        <v>-65356000000</v>
+        <f>F158-F426</f>
+        <v>-29287000000</v>
       </c>
       <c r="N158">
-        <f t="shared" si="9"/>
-        <v>-29287000000</v>
+        <f>H158-H426</f>
+        <v>-89096000000</v>
       </c>
       <c r="O158">
-        <f t="shared" si="10"/>
-        <v>-89096000000</v>
-      </c>
-      <c r="P158">
-        <f t="shared" si="11"/>
+        <f>J158-J426</f>
         <v>-34298000000</v>
       </c>
       <c r="R158" s="1"/>
@@ -10030,20 +10030,20 @@
       <c r="K159" s="1">
         <v>0</v>
       </c>
+      <c r="L159">
+        <f>D159-D427</f>
+        <v>-1625000000</v>
+      </c>
       <c r="M159">
-        <f t="shared" si="8"/>
-        <v>-1625000000</v>
+        <f>F159-F427</f>
+        <v>-518000000</v>
       </c>
       <c r="N159">
-        <f t="shared" si="9"/>
-        <v>-518000000</v>
+        <f>H159-H427</f>
+        <v>-1586000000</v>
       </c>
       <c r="O159">
-        <f t="shared" si="10"/>
-        <v>-1586000000</v>
-      </c>
-      <c r="P159">
-        <f t="shared" si="11"/>
+        <f>J159-J427</f>
         <v>-245000000</v>
       </c>
       <c r="R159" s="1"/>
@@ -10083,20 +10083,20 @@
       <c r="K160" s="1">
         <v>0</v>
       </c>
+      <c r="L160">
+        <f>D160-D428</f>
+        <v>-6000000</v>
+      </c>
       <c r="M160">
-        <f t="shared" si="8"/>
-        <v>-6000000</v>
+        <f>F160-F428</f>
+        <v>0</v>
       </c>
       <c r="N160">
-        <f t="shared" si="9"/>
+        <f>H160-H428</f>
         <v>0</v>
       </c>
       <c r="O160">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P160">
-        <f t="shared" si="11"/>
+        <f>J160-J428</f>
         <v>0</v>
       </c>
       <c r="R160" s="1"/>
@@ -10136,20 +10136,20 @@
       <c r="K161" s="1">
         <v>2.2407079646017698E-2</v>
       </c>
+      <c r="L161">
+        <f>D161-D429</f>
+        <v>-120578000000</v>
+      </c>
       <c r="M161">
-        <f t="shared" si="8"/>
-        <v>-120578000000</v>
+        <f>F161-F429</f>
+        <v>-59020000000</v>
       </c>
       <c r="N161">
-        <f t="shared" si="9"/>
-        <v>-59020000000</v>
+        <f>H161-H429</f>
+        <v>-134774000000</v>
       </c>
       <c r="O161">
-        <f t="shared" si="10"/>
-        <v>-134774000000</v>
-      </c>
-      <c r="P161">
-        <f t="shared" si="11"/>
+        <f>J161-J429</f>
         <v>-43096000000</v>
       </c>
       <c r="R161" s="1"/>
@@ -10189,20 +10189,20 @@
       <c r="K162" s="1">
         <v>4.3362831858407078E-4</v>
       </c>
+      <c r="L162">
+        <f>D162-D430</f>
+        <v>-256000000</v>
+      </c>
       <c r="M162">
-        <f t="shared" si="8"/>
-        <v>-256000000</v>
+        <f>F162-F430</f>
+        <v>0</v>
       </c>
       <c r="N162">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>H162-H430</f>
+        <v>-1000000</v>
       </c>
       <c r="O162">
-        <f t="shared" si="10"/>
-        <v>-1000000</v>
-      </c>
-      <c r="P162">
-        <f t="shared" si="11"/>
+        <f>J162-J430</f>
         <v>43000000</v>
       </c>
       <c r="R162" s="1"/>
@@ -10242,20 +10242,20 @@
       <c r="K163" s="1">
         <v>0</v>
       </c>
+      <c r="L163">
+        <f>D163-D431</f>
+        <v>-24000000</v>
+      </c>
       <c r="M163">
-        <f t="shared" si="8"/>
-        <v>-24000000</v>
+        <f>F163-F431</f>
+        <v>-34000000</v>
       </c>
       <c r="N163">
-        <f t="shared" si="9"/>
-        <v>-34000000</v>
+        <f>H163-H431</f>
+        <v>-114000000</v>
       </c>
       <c r="O163">
-        <f t="shared" si="10"/>
-        <v>-114000000</v>
-      </c>
-      <c r="P163">
-        <f t="shared" si="11"/>
+        <f>J163-J431</f>
         <v>-225000000</v>
       </c>
       <c r="R163" s="1"/>
@@ -10295,20 +10295,20 @@
       <c r="K164" s="1">
         <v>0</v>
       </c>
+      <c r="L164">
+        <f>D164-D432</f>
+        <v>-24000000</v>
+      </c>
       <c r="M164">
-        <f t="shared" si="8"/>
-        <v>-24000000</v>
+        <f>F164-F432</f>
+        <v>-12000000</v>
       </c>
       <c r="N164">
-        <f t="shared" si="9"/>
-        <v>-12000000</v>
+        <f>H164-H432</f>
+        <v>-47000000</v>
       </c>
       <c r="O164">
-        <f t="shared" si="10"/>
-        <v>-47000000</v>
-      </c>
-      <c r="P164">
-        <f t="shared" si="11"/>
+        <f>J164-J432</f>
         <v>-45000000</v>
       </c>
       <c r="R164" s="1"/>
@@ -10348,20 +10348,20 @@
       <c r="K165" s="1">
         <v>0</v>
       </c>
+      <c r="L165">
+        <f>D165-D433</f>
+        <v>-1990000000</v>
+      </c>
       <c r="M165">
-        <f t="shared" si="8"/>
-        <v>-1990000000</v>
+        <f>F165-F433</f>
+        <v>-822000000</v>
       </c>
       <c r="N165">
-        <f t="shared" si="9"/>
-        <v>-822000000</v>
+        <f>H165-H433</f>
+        <v>-2613000000</v>
       </c>
       <c r="O165">
-        <f t="shared" si="10"/>
-        <v>-2613000000</v>
-      </c>
-      <c r="P165">
-        <f t="shared" si="11"/>
+        <f>J165-J433</f>
         <v>-634000000</v>
       </c>
       <c r="R165" s="1"/>
@@ -10401,20 +10401,20 @@
       <c r="K166" s="1">
         <v>0</v>
       </c>
+      <c r="L166">
+        <f>D166-D434</f>
+        <v>-27712000000</v>
+      </c>
       <c r="M166">
-        <f t="shared" si="8"/>
-        <v>-27712000000</v>
+        <f>F166-F434</f>
+        <v>-11168000000</v>
       </c>
       <c r="N166">
-        <f t="shared" si="9"/>
-        <v>-11168000000</v>
+        <f>H166-H434</f>
+        <v>-39845000000</v>
       </c>
       <c r="O166">
-        <f t="shared" si="10"/>
-        <v>-39845000000</v>
-      </c>
-      <c r="P166">
-        <f t="shared" si="11"/>
+        <f>J166-J434</f>
         <v>-7712000000</v>
       </c>
       <c r="R166" s="1"/>
@@ -10454,20 +10454,20 @@
       <c r="K167" s="1">
         <v>0</v>
       </c>
+      <c r="L167">
+        <f>D167-D435</f>
+        <v>0</v>
+      </c>
       <c r="M167">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>F167-F435</f>
+        <v>180000000</v>
       </c>
       <c r="N167">
-        <f t="shared" si="9"/>
-        <v>180000000</v>
+        <f>H167-H435</f>
+        <v>3000000</v>
       </c>
       <c r="O167">
-        <f t="shared" si="10"/>
-        <v>3000000</v>
-      </c>
-      <c r="P167">
-        <f t="shared" si="11"/>
+        <f>J167-J435</f>
         <v>-8000000</v>
       </c>
       <c r="R167" s="1"/>
@@ -10507,20 +10507,20 @@
       <c r="K168" s="1">
         <v>0</v>
       </c>
+      <c r="L168">
+        <f>D168-D436</f>
+        <v>0</v>
+      </c>
       <c r="M168">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>F168-F436</f>
+        <v>-15000000</v>
       </c>
       <c r="N168">
-        <f t="shared" si="9"/>
-        <v>-15000000</v>
+        <f>H168-H436</f>
+        <v>-235000000</v>
       </c>
       <c r="O168">
-        <f t="shared" si="10"/>
-        <v>-235000000</v>
-      </c>
-      <c r="P168">
-        <f t="shared" si="11"/>
+        <f>J168-J436</f>
         <v>-36000000</v>
       </c>
       <c r="R168" s="1"/>
@@ -10560,20 +10560,20 @@
       <c r="K169" s="1">
         <v>0</v>
       </c>
+      <c r="L169">
+        <f>D169-D437</f>
+        <v>0</v>
+      </c>
       <c r="M169">
-        <f t="shared" si="8"/>
+        <f>F169-F437</f>
         <v>0</v>
       </c>
       <c r="N169">
-        <f t="shared" si="9"/>
+        <f>H169-H437</f>
         <v>0</v>
       </c>
       <c r="O169">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P169">
-        <f t="shared" si="11"/>
+        <f>J169-J437</f>
         <v>0</v>
       </c>
       <c r="R169" s="1"/>
@@ -10613,20 +10613,20 @@
       <c r="K170" s="1">
         <v>0</v>
       </c>
+      <c r="L170">
+        <f>D170-D438</f>
+        <v>-3000000</v>
+      </c>
       <c r="M170">
-        <f t="shared" si="8"/>
-        <v>-3000000</v>
+        <f>F170-F438</f>
+        <v>0</v>
       </c>
       <c r="N170">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>H170-H438</f>
+        <v>-100000000</v>
       </c>
       <c r="O170">
-        <f t="shared" si="10"/>
-        <v>-100000000</v>
-      </c>
-      <c r="P170">
-        <f t="shared" si="11"/>
+        <f>J170-J438</f>
         <v>-27000000</v>
       </c>
       <c r="R170" s="1"/>
@@ -10666,20 +10666,20 @@
       <c r="K171" s="1">
         <v>0</v>
       </c>
+      <c r="L171">
+        <f>D171-D439</f>
+        <v>-117000000</v>
+      </c>
       <c r="M171">
-        <f t="shared" si="8"/>
-        <v>-117000000</v>
+        <f>F171-F439</f>
+        <v>0</v>
       </c>
       <c r="N171">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>H171-H439</f>
+        <v>-112000000</v>
       </c>
       <c r="O171">
-        <f t="shared" si="10"/>
-        <v>-112000000</v>
-      </c>
-      <c r="P171">
-        <f t="shared" si="11"/>
+        <f>J171-J439</f>
         <v>-6000000</v>
       </c>
       <c r="R171" s="1"/>
@@ -10719,20 +10719,20 @@
       <c r="K172" s="1">
         <v>0</v>
       </c>
+      <c r="L172">
+        <f>D172-D440</f>
+        <v>-38000000</v>
+      </c>
       <c r="M172">
-        <f t="shared" si="8"/>
-        <v>-38000000</v>
+        <f>F172-F440</f>
+        <v>-10000000</v>
       </c>
       <c r="N172">
-        <f t="shared" si="9"/>
-        <v>-10000000</v>
+        <f>H172-H440</f>
+        <v>-75000000</v>
       </c>
       <c r="O172">
-        <f t="shared" si="10"/>
-        <v>-75000000</v>
-      </c>
-      <c r="P172">
-        <f t="shared" si="11"/>
+        <f>J172-J440</f>
         <v>-5000000</v>
       </c>
       <c r="R172" s="1"/>
@@ -10772,20 +10772,20 @@
       <c r="K173" s="1">
         <v>0</v>
       </c>
+      <c r="L173">
+        <f>D173-D441</f>
+        <v>-3000000</v>
+      </c>
       <c r="M173">
-        <f t="shared" si="8"/>
+        <f>F173-F441</f>
         <v>-3000000</v>
       </c>
       <c r="N173">
-        <f t="shared" si="9"/>
-        <v>-3000000</v>
+        <f>H173-H441</f>
+        <v>-7000000</v>
       </c>
       <c r="O173">
-        <f t="shared" si="10"/>
-        <v>-7000000</v>
-      </c>
-      <c r="P173">
-        <f t="shared" si="11"/>
+        <f>J173-J441</f>
         <v>-19000000</v>
       </c>
       <c r="R173" s="1"/>
@@ -10825,20 +10825,20 @@
       <c r="K174" s="1">
         <v>0</v>
       </c>
+      <c r="L174">
+        <f>D174-D442</f>
+        <v>-2924000000</v>
+      </c>
       <c r="M174">
-        <f t="shared" si="8"/>
-        <v>-2924000000</v>
+        <f>F174-F442</f>
+        <v>-2586000000</v>
       </c>
       <c r="N174">
-        <f t="shared" si="9"/>
-        <v>-2586000000</v>
+        <f>H174-H442</f>
+        <v>-1104000000</v>
       </c>
       <c r="O174">
-        <f t="shared" si="10"/>
-        <v>-1104000000</v>
-      </c>
-      <c r="P174">
-        <f t="shared" si="11"/>
+        <f>J174-J442</f>
         <v>-268000000</v>
       </c>
       <c r="R174" s="1"/>
@@ -10878,20 +10878,20 @@
       <c r="K175" s="1">
         <v>0.42630973451327436</v>
       </c>
+      <c r="L175">
+        <f>D175-D443</f>
+        <v>128783000000</v>
+      </c>
       <c r="M175">
-        <f t="shared" si="8"/>
-        <v>128783000000</v>
+        <f>F175-F443</f>
+        <v>38685000000</v>
       </c>
       <c r="N175">
-        <f t="shared" si="9"/>
-        <v>38685000000</v>
+        <f>H175-H443</f>
+        <v>86570000000</v>
       </c>
       <c r="O175">
-        <f t="shared" si="10"/>
-        <v>86570000000</v>
-      </c>
-      <c r="P175">
-        <f t="shared" si="11"/>
+        <f>J175-J443</f>
         <v>44405000000</v>
       </c>
       <c r="R175" s="1"/>
@@ -10931,20 +10931,20 @@
       <c r="K176" s="1">
         <v>0</v>
       </c>
+      <c r="L176">
+        <f>D176-D444</f>
+        <v>-48000000</v>
+      </c>
       <c r="M176">
-        <f t="shared" si="8"/>
-        <v>-48000000</v>
+        <f>F176-F444</f>
+        <v>-131000000</v>
       </c>
       <c r="N176">
-        <f t="shared" si="9"/>
-        <v>-131000000</v>
+        <f>H176-H444</f>
+        <v>-110000000</v>
       </c>
       <c r="O176">
-        <f t="shared" si="10"/>
-        <v>-110000000</v>
-      </c>
-      <c r="P176">
-        <f t="shared" si="11"/>
+        <f>J176-J444</f>
         <v>0</v>
       </c>
       <c r="R176" s="1"/>
@@ -10984,20 +10984,20 @@
       <c r="K177" s="1">
         <v>0</v>
       </c>
+      <c r="L177">
+        <f>D177-D445</f>
+        <v>0</v>
+      </c>
       <c r="M177">
-        <f t="shared" si="8"/>
+        <f>F177-F445</f>
         <v>0</v>
       </c>
       <c r="N177">
-        <f t="shared" si="9"/>
+        <f>H177-H445</f>
         <v>0</v>
       </c>
       <c r="O177">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P177">
-        <f t="shared" si="11"/>
+        <f>J177-J445</f>
         <v>0</v>
       </c>
       <c r="R177" s="1"/>
@@ -11037,20 +11037,20 @@
       <c r="K178" s="1">
         <v>0</v>
       </c>
+      <c r="L178">
+        <f>D178-D446</f>
+        <v>-23000000</v>
+      </c>
       <c r="M178">
-        <f t="shared" si="8"/>
-        <v>-23000000</v>
+        <f>F178-F446</f>
+        <v>-9000000</v>
       </c>
       <c r="N178">
-        <f t="shared" si="9"/>
-        <v>-9000000</v>
+        <f>H178-H446</f>
+        <v>-34000000</v>
       </c>
       <c r="O178">
-        <f t="shared" si="10"/>
-        <v>-34000000</v>
-      </c>
-      <c r="P178">
-        <f t="shared" si="11"/>
+        <f>J178-J446</f>
         <v>-83000000</v>
       </c>
       <c r="R178" s="1"/>
@@ -11090,20 +11090,20 @@
       <c r="K179" s="1">
         <v>4.424778761061947E-5</v>
       </c>
+      <c r="L179">
+        <f>D179-D447</f>
+        <v>-334000000</v>
+      </c>
       <c r="M179">
-        <f t="shared" si="8"/>
-        <v>-334000000</v>
+        <f>F179-F447</f>
+        <v>-187000000</v>
       </c>
       <c r="N179">
-        <f t="shared" si="9"/>
-        <v>-187000000</v>
+        <f>H179-H447</f>
+        <v>-950000000</v>
       </c>
       <c r="O179">
-        <f t="shared" si="10"/>
-        <v>-950000000</v>
-      </c>
-      <c r="P179">
-        <f t="shared" si="11"/>
+        <f>J179-J447</f>
         <v>-455000000</v>
       </c>
       <c r="R179" s="1"/>
@@ -11143,20 +11143,20 @@
       <c r="K180" s="1">
         <v>0</v>
       </c>
+      <c r="L180">
+        <f>D180-D448</f>
+        <v>97000000</v>
+      </c>
       <c r="M180">
-        <f t="shared" si="8"/>
-        <v>97000000</v>
+        <f>F180-F448</f>
+        <v>-29000000</v>
       </c>
       <c r="N180">
-        <f t="shared" si="9"/>
-        <v>-29000000</v>
+        <f>H180-H448</f>
+        <v>-133000000</v>
       </c>
       <c r="O180">
-        <f t="shared" si="10"/>
-        <v>-133000000</v>
-      </c>
-      <c r="P180">
-        <f t="shared" si="11"/>
+        <f>J180-J448</f>
         <v>0</v>
       </c>
       <c r="R180" s="1"/>
@@ -11196,20 +11196,20 @@
       <c r="K181" s="1">
         <v>1.2389380530973451E-2</v>
       </c>
+      <c r="L181">
+        <f>D181-D449</f>
+        <v>2996000000</v>
+      </c>
       <c r="M181">
-        <f t="shared" si="8"/>
-        <v>2996000000</v>
+        <f>F181-F449</f>
+        <v>2895000000</v>
       </c>
       <c r="N181">
-        <f t="shared" si="9"/>
-        <v>2895000000</v>
+        <f>H181-H449</f>
+        <v>3777000000</v>
       </c>
       <c r="O181">
-        <f t="shared" si="10"/>
-        <v>3777000000</v>
-      </c>
-      <c r="P181">
-        <f t="shared" si="11"/>
+        <f>J181-J449</f>
         <v>-820000000</v>
       </c>
       <c r="R181" s="1"/>
@@ -11249,20 +11249,20 @@
       <c r="K182" s="1">
         <v>4.2035398230088495E-3</v>
       </c>
+      <c r="L182">
+        <f>D182-D450</f>
+        <v>-1377000000</v>
+      </c>
       <c r="M182">
-        <f t="shared" si="8"/>
-        <v>-1377000000</v>
+        <f>F182-F450</f>
+        <v>-1956000000</v>
       </c>
       <c r="N182">
-        <f t="shared" si="9"/>
-        <v>-1956000000</v>
+        <f>H182-H450</f>
+        <v>-1263000000</v>
       </c>
       <c r="O182">
-        <f t="shared" si="10"/>
-        <v>-1263000000</v>
-      </c>
-      <c r="P182">
-        <f t="shared" si="11"/>
+        <f>J182-J450</f>
         <v>-1387000000</v>
       </c>
       <c r="R182" s="1"/>
@@ -11302,20 +11302,20 @@
       <c r="K183" s="1">
         <v>0</v>
       </c>
+      <c r="L183">
+        <f>D183-D451</f>
+        <v>-38000000</v>
+      </c>
       <c r="M183">
-        <f t="shared" si="8"/>
-        <v>-38000000</v>
+        <f>F183-F451</f>
+        <v>-44000000</v>
       </c>
       <c r="N183">
-        <f t="shared" si="9"/>
-        <v>-44000000</v>
+        <f>H183-H451</f>
+        <v>-75000000</v>
       </c>
       <c r="O183">
-        <f t="shared" si="10"/>
-        <v>-75000000</v>
-      </c>
-      <c r="P183">
-        <f t="shared" si="11"/>
+        <f>J183-J451</f>
         <v>0</v>
       </c>
       <c r="R183" s="1"/>
@@ -11355,20 +11355,20 @@
       <c r="K184" s="1">
         <v>0</v>
       </c>
+      <c r="L184">
+        <f>D184-D452</f>
+        <v>0</v>
+      </c>
       <c r="M184">
-        <f t="shared" si="8"/>
+        <f>F184-F452</f>
         <v>0</v>
       </c>
       <c r="N184">
-        <f t="shared" si="9"/>
+        <f>H184-H452</f>
         <v>0</v>
       </c>
       <c r="O184">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P184">
-        <f t="shared" si="11"/>
+        <f>J184-J452</f>
         <v>0</v>
       </c>
       <c r="R184" s="1"/>
@@ -11408,20 +11408,20 @@
       <c r="K185" s="1">
         <v>4.3362831858407078E-4</v>
       </c>
+      <c r="L185">
+        <f>D185-D453</f>
+        <v>-965000000</v>
+      </c>
       <c r="M185">
-        <f t="shared" si="8"/>
-        <v>-965000000</v>
+        <f>F185-F453</f>
+        <v>-243000000</v>
       </c>
       <c r="N185">
-        <f t="shared" si="9"/>
-        <v>-243000000</v>
+        <f>H185-H453</f>
+        <v>-251000000</v>
       </c>
       <c r="O185">
-        <f t="shared" si="10"/>
-        <v>-251000000</v>
-      </c>
-      <c r="P185">
-        <f t="shared" si="11"/>
+        <f>J185-J453</f>
         <v>-716000000</v>
       </c>
       <c r="R185" s="1"/>
@@ -11461,20 +11461,20 @@
       <c r="K186" s="1">
         <v>0.82606194690265489</v>
       </c>
+      <c r="L186">
+        <f>D186-D454</f>
+        <v>89661000000</v>
+      </c>
       <c r="M186">
-        <f t="shared" si="8"/>
-        <v>89661000000</v>
+        <f>F186-F454</f>
+        <v>38485000000</v>
       </c>
       <c r="N186">
-        <f t="shared" si="9"/>
-        <v>38485000000</v>
+        <f>H186-H454</f>
+        <v>109510000000</v>
       </c>
       <c r="O186">
-        <f t="shared" si="10"/>
-        <v>109510000000</v>
-      </c>
-      <c r="P186">
-        <f t="shared" si="11"/>
+        <f>J186-J454</f>
         <v>54980000000</v>
       </c>
       <c r="R186" s="1"/>
@@ -11514,20 +11514,20 @@
       <c r="K187" s="1">
         <v>0</v>
       </c>
+      <c r="L187">
+        <f>D187-D455</f>
+        <v>-1169000000</v>
+      </c>
       <c r="M187">
-        <f t="shared" si="8"/>
-        <v>-1169000000</v>
+        <f>F187-F455</f>
+        <v>-701000000</v>
       </c>
       <c r="N187">
-        <f t="shared" si="9"/>
-        <v>-701000000</v>
+        <f>H187-H455</f>
+        <v>-3078000000</v>
       </c>
       <c r="O187">
-        <f t="shared" si="10"/>
-        <v>-3078000000</v>
-      </c>
-      <c r="P187">
-        <f t="shared" si="11"/>
+        <f>J187-J455</f>
         <v>-98000000</v>
       </c>
       <c r="R187" s="1"/>
@@ -11567,20 +11567,20 @@
       <c r="K188" s="1">
         <v>0</v>
       </c>
+      <c r="L188">
+        <f>D188-D456</f>
+        <v>-1384000000</v>
+      </c>
       <c r="M188">
-        <f t="shared" si="8"/>
-        <v>-1384000000</v>
+        <f>F188-F456</f>
+        <v>-206000000</v>
       </c>
       <c r="N188">
-        <f t="shared" si="9"/>
-        <v>-206000000</v>
+        <f>H188-H456</f>
+        <v>-549000000</v>
       </c>
       <c r="O188">
-        <f t="shared" si="10"/>
-        <v>-549000000</v>
-      </c>
-      <c r="P188">
-        <f t="shared" si="11"/>
+        <f>J188-J456</f>
         <v>-287000000</v>
       </c>
       <c r="R188" s="1"/>
@@ -11620,20 +11620,20 @@
       <c r="K189" s="1">
         <v>5.221238938053097E-4</v>
       </c>
+      <c r="L189">
+        <f>D189-D457</f>
+        <v>-7622000000</v>
+      </c>
       <c r="M189">
-        <f t="shared" si="8"/>
-        <v>-7622000000</v>
+        <f>F189-F457</f>
+        <v>-4148000000</v>
       </c>
       <c r="N189">
-        <f t="shared" si="9"/>
-        <v>-4148000000</v>
+        <f>H189-H457</f>
+        <v>-10450000000</v>
       </c>
       <c r="O189">
-        <f t="shared" si="10"/>
-        <v>-10450000000</v>
-      </c>
-      <c r="P189">
-        <f t="shared" si="11"/>
+        <f>J189-J457</f>
         <v>-5256000000</v>
       </c>
       <c r="R189" s="1"/>
@@ -11673,20 +11673,20 @@
       <c r="K190" s="1">
         <v>0</v>
       </c>
+      <c r="L190">
+        <f>D190-D458</f>
+        <v>0</v>
+      </c>
       <c r="M190">
-        <f t="shared" si="8"/>
+        <f>F190-F458</f>
         <v>0</v>
       </c>
       <c r="N190">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>H190-H458</f>
+        <v>1000000</v>
       </c>
       <c r="O190">
-        <f t="shared" si="10"/>
-        <v>1000000</v>
-      </c>
-      <c r="P190">
-        <f t="shared" si="11"/>
+        <f>J190-J458</f>
         <v>0</v>
       </c>
       <c r="R190" s="1"/>
@@ -11726,20 +11726,20 @@
       <c r="K191" s="1">
         <v>0</v>
       </c>
+      <c r="L191">
+        <f>D191-D459</f>
+        <v>-1194000000</v>
+      </c>
       <c r="M191">
-        <f t="shared" si="8"/>
-        <v>-1194000000</v>
+        <f>F191-F459</f>
+        <v>-818000000</v>
       </c>
       <c r="N191">
-        <f t="shared" si="9"/>
-        <v>-818000000</v>
+        <f>H191-H459</f>
+        <v>-800000000</v>
       </c>
       <c r="O191">
-        <f t="shared" si="10"/>
-        <v>-800000000</v>
-      </c>
-      <c r="P191">
-        <f t="shared" si="11"/>
+        <f>J191-J459</f>
         <v>-150000000</v>
       </c>
       <c r="R191" s="1"/>
@@ -11779,20 +11779,20 @@
       <c r="K192" s="1">
         <v>0</v>
       </c>
+      <c r="L192">
+        <f>D192-D460</f>
+        <v>-439000000</v>
+      </c>
       <c r="M192">
-        <f t="shared" si="8"/>
-        <v>-439000000</v>
+        <f>F192-F460</f>
+        <v>-92000000</v>
       </c>
       <c r="N192">
-        <f t="shared" si="9"/>
-        <v>-92000000</v>
+        <f>H192-H460</f>
+        <v>-1043000000</v>
       </c>
       <c r="O192">
-        <f t="shared" si="10"/>
-        <v>-1043000000</v>
-      </c>
-      <c r="P192">
-        <f t="shared" si="11"/>
+        <f>J192-J460</f>
         <v>-1226000000</v>
       </c>
       <c r="R192" s="1"/>
@@ -11832,20 +11832,20 @@
       <c r="K193" s="1">
         <v>0</v>
       </c>
+      <c r="L193">
+        <f>D193-D461</f>
+        <v>-6000000</v>
+      </c>
       <c r="M193">
-        <f t="shared" si="8"/>
-        <v>-6000000</v>
+        <f>F193-F461</f>
+        <v>0</v>
       </c>
       <c r="N193">
-        <f t="shared" si="9"/>
+        <f>H193-H461</f>
         <v>0</v>
       </c>
       <c r="O193">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P193">
-        <f t="shared" si="11"/>
+        <f>J193-J461</f>
         <v>-7000000</v>
       </c>
       <c r="R193" s="1"/>
@@ -11885,20 +11885,20 @@
       <c r="K194" s="1">
         <v>0</v>
       </c>
+      <c r="L194">
+        <f>D194-D462</f>
+        <v>-29000000</v>
+      </c>
       <c r="M194">
-        <f t="shared" si="8"/>
-        <v>-29000000</v>
+        <f>F194-F462</f>
+        <v>0</v>
       </c>
       <c r="N194">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>H194-H462</f>
+        <v>-11000000</v>
       </c>
       <c r="O194">
-        <f t="shared" si="10"/>
-        <v>-11000000</v>
-      </c>
-      <c r="P194">
-        <f t="shared" si="11"/>
+        <f>J194-J462</f>
         <v>-23000000</v>
       </c>
       <c r="R194" s="1"/>
@@ -11938,40 +11938,40 @@
       <c r="K195" s="1">
         <v>8.1504424778761058E-3</v>
       </c>
+      <c r="L195">
+        <f>D195-D463</f>
+        <v>-575000000</v>
+      </c>
       <c r="M195">
-        <f t="shared" si="8"/>
-        <v>-575000000</v>
+        <f>F195-F463</f>
+        <v>-1914000000</v>
       </c>
       <c r="N195">
-        <f t="shared" si="9"/>
-        <v>-1914000000</v>
+        <f>H195-H463</f>
+        <v>-1276000000</v>
       </c>
       <c r="O195">
-        <f t="shared" si="10"/>
-        <v>-1276000000</v>
-      </c>
-      <c r="P195">
-        <f t="shared" si="11"/>
+        <f>J195-J463</f>
         <v>-1062000000</v>
       </c>
       <c r="R195" s="1"/>
       <c r="T195" s="1"/>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L196">
+        <f>D196-D464</f>
+        <v>0</v>
+      </c>
       <c r="M196">
-        <f t="shared" si="8"/>
+        <f>F196-F464</f>
         <v>0</v>
       </c>
       <c r="N196">
-        <f t="shared" si="9"/>
+        <f>H196-H464</f>
         <v>0</v>
       </c>
       <c r="O196">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P196">
-        <f t="shared" si="11"/>
+        <f>J196-J464</f>
         <v>0</v>
       </c>
       <c r="R196" s="1"/>
@@ -12011,20 +12011,20 @@
       <c r="K197" s="1">
         <v>0</v>
       </c>
+      <c r="L197">
+        <f>D197-D465</f>
+        <v>0</v>
+      </c>
       <c r="M197">
-        <f t="shared" si="8"/>
+        <f>F197-F465</f>
         <v>0</v>
       </c>
       <c r="N197">
-        <f t="shared" si="9"/>
+        <f>H197-H465</f>
         <v>0</v>
       </c>
       <c r="O197">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P197">
-        <f t="shared" si="11"/>
+        <f>J197-J465</f>
         <v>0</v>
       </c>
       <c r="R197" s="1"/>
@@ -12064,20 +12064,20 @@
       <c r="K198" s="1">
         <v>1.1504424778761063E-4</v>
       </c>
+      <c r="L198">
+        <f>D198-D466</f>
+        <v>-465000000</v>
+      </c>
       <c r="M198">
-        <f t="shared" ref="M198:M261" si="12">D198-D466</f>
-        <v>-465000000</v>
+        <f>F198-F466</f>
+        <v>92000000</v>
       </c>
       <c r="N198">
-        <f t="shared" ref="N198:N261" si="13">F198-F466</f>
-        <v>92000000</v>
+        <f>H198-H466</f>
+        <v>6000000</v>
       </c>
       <c r="O198">
-        <f t="shared" ref="O198:O261" si="14">H198-H466</f>
-        <v>6000000</v>
-      </c>
-      <c r="P198">
-        <f t="shared" ref="P198:P261" si="15">J198-J466</f>
+        <f>J198-J466</f>
         <v>13000000</v>
       </c>
       <c r="R198" s="1"/>
@@ -12117,20 +12117,20 @@
       <c r="K199" s="1">
         <v>6.1061946902654868E-4</v>
       </c>
+      <c r="L199">
+        <f>D199-D467</f>
+        <v>-1934000000</v>
+      </c>
       <c r="M199">
-        <f t="shared" si="12"/>
-        <v>-1934000000</v>
+        <f>F199-F467</f>
+        <v>-880000000</v>
       </c>
       <c r="N199">
-        <f t="shared" si="13"/>
-        <v>-880000000</v>
+        <f>H199-H467</f>
+        <v>-951000000</v>
       </c>
       <c r="O199">
-        <f t="shared" si="14"/>
-        <v>-951000000</v>
-      </c>
-      <c r="P199">
-        <f t="shared" si="15"/>
+        <f>J199-J467</f>
         <v>-48000000</v>
       </c>
       <c r="R199" s="1"/>
@@ -12170,20 +12170,20 @@
       <c r="K200" s="1">
         <v>0</v>
       </c>
+      <c r="L200">
+        <f>D200-D468</f>
+        <v>-12000000</v>
+      </c>
       <c r="M200">
-        <f t="shared" si="12"/>
-        <v>-12000000</v>
+        <f>F200-F468</f>
+        <v>-5000000</v>
       </c>
       <c r="N200">
-        <f t="shared" si="13"/>
-        <v>-5000000</v>
+        <f>H200-H468</f>
+        <v>-20000000</v>
       </c>
       <c r="O200">
-        <f t="shared" si="14"/>
-        <v>-20000000</v>
-      </c>
-      <c r="P200">
-        <f t="shared" si="15"/>
+        <f>J200-J468</f>
         <v>-5000000</v>
       </c>
       <c r="R200" s="1"/>
@@ -12223,20 +12223,20 @@
       <c r="K201" s="1">
         <v>0</v>
       </c>
+      <c r="L201">
+        <f>D201-D469</f>
+        <v>-15000000</v>
+      </c>
       <c r="M201">
-        <f t="shared" si="12"/>
-        <v>-15000000</v>
+        <f>F201-F469</f>
+        <v>-17000000</v>
       </c>
       <c r="N201">
-        <f t="shared" si="13"/>
-        <v>-17000000</v>
+        <f>H201-H469</f>
+        <v>-7000000</v>
       </c>
       <c r="O201">
-        <f t="shared" si="14"/>
-        <v>-7000000</v>
-      </c>
-      <c r="P201">
-        <f t="shared" si="15"/>
+        <f>J201-J469</f>
         <v>-2000000</v>
       </c>
       <c r="R201" s="1"/>
@@ -12276,40 +12276,40 @@
       <c r="K202" s="1">
         <v>0</v>
       </c>
+      <c r="L202">
+        <f>D202-D470</f>
+        <v>-30000000</v>
+      </c>
       <c r="M202">
-        <f t="shared" si="12"/>
-        <v>-30000000</v>
+        <f>F202-F470</f>
+        <v>0</v>
       </c>
       <c r="N202">
-        <f t="shared" si="13"/>
+        <f>H202-H470</f>
         <v>0</v>
       </c>
       <c r="O202">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P202">
-        <f t="shared" si="15"/>
+        <f>J202-J470</f>
         <v>0</v>
       </c>
       <c r="R202" s="1"/>
       <c r="T202" s="1"/>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L203">
+        <f>D203-D471</f>
+        <v>0</v>
+      </c>
       <c r="M203">
-        <f t="shared" si="12"/>
+        <f>F203-F471</f>
         <v>0</v>
       </c>
       <c r="N203">
-        <f t="shared" si="13"/>
+        <f>H203-H471</f>
         <v>0</v>
       </c>
       <c r="O203">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P203">
-        <f t="shared" si="15"/>
+        <f>J203-J471</f>
         <v>0</v>
       </c>
       <c r="R203" s="1"/>
@@ -12349,20 +12349,20 @@
       <c r="K204" s="1">
         <v>0</v>
       </c>
+      <c r="L204">
+        <f>D204-D472</f>
+        <v>0</v>
+      </c>
       <c r="M204">
-        <f t="shared" si="12"/>
+        <f>F204-F472</f>
         <v>0</v>
       </c>
       <c r="N204">
-        <f t="shared" si="13"/>
+        <f>H204-H472</f>
         <v>0</v>
       </c>
       <c r="O204">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P204">
-        <f t="shared" si="15"/>
+        <f>J204-J472</f>
         <v>0</v>
       </c>
       <c r="R204" s="1"/>
@@ -12402,20 +12402,20 @@
       <c r="K205" s="1">
         <v>1.2389380530973451E-4</v>
       </c>
+      <c r="L205">
+        <f>D205-D473</f>
+        <v>-863000000</v>
+      </c>
       <c r="M205">
-        <f t="shared" si="12"/>
-        <v>-863000000</v>
+        <f>F205-F473</f>
+        <v>-311000000</v>
       </c>
       <c r="N205">
-        <f t="shared" si="13"/>
-        <v>-311000000</v>
+        <f>H205-H473</f>
+        <v>-5212000000</v>
       </c>
       <c r="O205">
-        <f t="shared" si="14"/>
-        <v>-5212000000</v>
-      </c>
-      <c r="P205">
-        <f t="shared" si="15"/>
+        <f>J205-J473</f>
         <v>-8215000000</v>
       </c>
       <c r="R205" s="1"/>
@@ -12455,20 +12455,20 @@
       <c r="K206" s="1">
         <v>1.7699115044247787E-5</v>
       </c>
+      <c r="L206">
+        <f>D206-D474</f>
+        <v>-645000000</v>
+      </c>
       <c r="M206">
-        <f t="shared" si="12"/>
-        <v>-645000000</v>
+        <f>F206-F474</f>
+        <v>-965000000</v>
       </c>
       <c r="N206">
-        <f t="shared" si="13"/>
-        <v>-965000000</v>
+        <f>H206-H474</f>
+        <v>-346000000</v>
       </c>
       <c r="O206">
-        <f t="shared" si="14"/>
-        <v>-346000000</v>
-      </c>
-      <c r="P206">
-        <f t="shared" si="15"/>
+        <f>J206-J474</f>
         <v>-889000000</v>
       </c>
       <c r="R206" s="1"/>
@@ -12508,20 +12508,20 @@
       <c r="K207" s="1">
         <v>8.5929203539823015E-2</v>
       </c>
+      <c r="L207">
+        <f>D207-D475</f>
+        <v>45775000000</v>
+      </c>
       <c r="M207">
-        <f t="shared" si="12"/>
-        <v>45775000000</v>
+        <f>F207-F475</f>
+        <v>33120000000</v>
       </c>
       <c r="N207">
-        <f t="shared" si="13"/>
-        <v>33120000000</v>
+        <f>H207-H475</f>
+        <v>66302000000</v>
       </c>
       <c r="O207">
-        <f t="shared" si="14"/>
-        <v>66302000000</v>
-      </c>
-      <c r="P207">
-        <f t="shared" si="15"/>
+        <f>J207-J475</f>
         <v>9440000000</v>
       </c>
       <c r="R207" s="1"/>
@@ -12561,20 +12561,20 @@
       <c r="K208" s="1">
         <v>0</v>
       </c>
+      <c r="L208">
+        <f>D208-D476</f>
+        <v>-59000000</v>
+      </c>
       <c r="M208">
-        <f t="shared" si="12"/>
-        <v>-59000000</v>
+        <f>F208-F476</f>
+        <v>-42000000</v>
       </c>
       <c r="N208">
-        <f t="shared" si="13"/>
-        <v>-42000000</v>
+        <f>H208-H476</f>
+        <v>-76000000</v>
       </c>
       <c r="O208">
-        <f t="shared" si="14"/>
-        <v>-76000000</v>
-      </c>
-      <c r="P208">
-        <f t="shared" si="15"/>
+        <f>J208-J476</f>
         <v>-74000000</v>
       </c>
       <c r="R208" s="1"/>
@@ -12614,20 +12614,20 @@
       <c r="K209" s="1">
         <v>2.7168141592920354E-3</v>
       </c>
+      <c r="L209">
+        <f>D209-D477</f>
+        <v>-28816000000</v>
+      </c>
       <c r="M209">
-        <f t="shared" si="12"/>
-        <v>-28816000000</v>
+        <f>F209-F477</f>
+        <v>-16078000000</v>
       </c>
       <c r="N209">
-        <f t="shared" si="13"/>
-        <v>-16078000000</v>
+        <f>H209-H477</f>
+        <v>-49839000000</v>
       </c>
       <c r="O209">
-        <f t="shared" si="14"/>
-        <v>-49839000000</v>
-      </c>
-      <c r="P209">
-        <f t="shared" si="15"/>
+        <f>J209-J477</f>
         <v>-16492000000</v>
       </c>
       <c r="R209" s="1"/>
@@ -12667,20 +12667,20 @@
       <c r="K210" s="1">
         <v>2.6548672566371683E-5</v>
       </c>
+      <c r="L210">
+        <f>D210-D478</f>
+        <v>-16365000000</v>
+      </c>
       <c r="M210">
-        <f t="shared" si="12"/>
-        <v>-16365000000</v>
+        <f>F210-F478</f>
+        <v>-2953000000</v>
       </c>
       <c r="N210">
-        <f t="shared" si="13"/>
-        <v>-2953000000</v>
+        <f>H210-H478</f>
+        <v>-23922000000</v>
       </c>
       <c r="O210">
-        <f t="shared" si="14"/>
-        <v>-23922000000</v>
-      </c>
-      <c r="P210">
-        <f t="shared" si="15"/>
+        <f>J210-J478</f>
         <v>-8646000000</v>
       </c>
       <c r="R210" s="1"/>
@@ -12720,20 +12720,20 @@
       <c r="K211" s="1">
         <v>0</v>
       </c>
+      <c r="L211">
+        <f>D211-D479</f>
+        <v>-541000000</v>
+      </c>
       <c r="M211">
-        <f t="shared" si="12"/>
-        <v>-541000000</v>
+        <f>F211-F479</f>
+        <v>-752000000</v>
       </c>
       <c r="N211">
-        <f t="shared" si="13"/>
-        <v>-752000000</v>
+        <f>H211-H479</f>
+        <v>-1000000000</v>
       </c>
       <c r="O211">
-        <f t="shared" si="14"/>
-        <v>-1000000000</v>
-      </c>
-      <c r="P211">
-        <f t="shared" si="15"/>
+        <f>J211-J479</f>
         <v>-3000000</v>
       </c>
       <c r="R211" s="1"/>
@@ -12773,20 +12773,20 @@
       <c r="K212" s="1">
         <v>0</v>
       </c>
+      <c r="L212">
+        <f>D212-D480</f>
+        <v>-7000000</v>
+      </c>
       <c r="M212">
-        <f t="shared" si="12"/>
-        <v>-7000000</v>
+        <f>F212-F480</f>
+        <v>-55000000</v>
       </c>
       <c r="N212">
-        <f t="shared" si="13"/>
-        <v>-55000000</v>
+        <f>H212-H480</f>
+        <v>-196000000</v>
       </c>
       <c r="O212">
-        <f t="shared" si="14"/>
-        <v>-196000000</v>
-      </c>
-      <c r="P212">
-        <f t="shared" si="15"/>
+        <f>J212-J480</f>
         <v>-241000000</v>
       </c>
       <c r="R212" s="1"/>
@@ -12826,20 +12826,20 @@
       <c r="K213" s="1">
         <v>1.2654867256637167E-3</v>
       </c>
+      <c r="L213">
+        <f>D213-D481</f>
+        <v>-4239000000</v>
+      </c>
       <c r="M213">
-        <f t="shared" si="12"/>
-        <v>-4239000000</v>
+        <f>F213-F481</f>
+        <v>-3828000000</v>
       </c>
       <c r="N213">
-        <f t="shared" si="13"/>
-        <v>-3828000000</v>
+        <f>H213-H481</f>
+        <v>-5298000000</v>
       </c>
       <c r="O213">
-        <f t="shared" si="14"/>
-        <v>-5298000000</v>
-      </c>
-      <c r="P213">
-        <f t="shared" si="15"/>
+        <f>J213-J481</f>
         <v>-1510000000</v>
       </c>
       <c r="R213" s="1"/>
@@ -12879,20 +12879,20 @@
       <c r="K214" s="1">
         <v>0</v>
       </c>
+      <c r="L214">
+        <f>D214-D482</f>
+        <v>-6000000</v>
+      </c>
       <c r="M214">
-        <f t="shared" si="12"/>
-        <v>-6000000</v>
+        <f>F214-F482</f>
+        <v>0</v>
       </c>
       <c r="N214">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>H214-H482</f>
+        <v>-7000000</v>
       </c>
       <c r="O214">
-        <f t="shared" si="14"/>
-        <v>-7000000</v>
-      </c>
-      <c r="P214">
-        <f t="shared" si="15"/>
+        <f>J214-J482</f>
         <v>-7000000</v>
       </c>
       <c r="R214" s="1"/>
@@ -12932,20 +12932,20 @@
       <c r="K215" s="1">
         <v>0</v>
       </c>
+      <c r="L215">
+        <f>D215-D483</f>
+        <v>-51000000</v>
+      </c>
       <c r="M215">
-        <f t="shared" si="12"/>
-        <v>-51000000</v>
+        <f>F215-F483</f>
+        <v>-9000000</v>
       </c>
       <c r="N215">
-        <f t="shared" si="13"/>
-        <v>-9000000</v>
+        <f>H215-H483</f>
+        <v>-6000000</v>
       </c>
       <c r="O215">
-        <f t="shared" si="14"/>
-        <v>-6000000</v>
-      </c>
-      <c r="P215">
-        <f t="shared" si="15"/>
+        <f>J215-J483</f>
         <v>0</v>
       </c>
       <c r="R215" s="1"/>
@@ -12985,20 +12985,20 @@
       <c r="K216" s="1">
         <v>0</v>
       </c>
+      <c r="L216">
+        <f>D216-D484</f>
+        <v>-65000000</v>
+      </c>
       <c r="M216">
-        <f t="shared" si="12"/>
-        <v>-65000000</v>
+        <f>F216-F484</f>
+        <v>-5000000</v>
       </c>
       <c r="N216">
-        <f t="shared" si="13"/>
-        <v>-5000000</v>
+        <f>H216-H484</f>
+        <v>-34000000</v>
       </c>
       <c r="O216">
-        <f t="shared" si="14"/>
-        <v>-34000000</v>
-      </c>
-      <c r="P216">
-        <f t="shared" si="15"/>
+        <f>J216-J484</f>
         <v>-20000000</v>
       </c>
       <c r="R216" s="1"/>
@@ -13038,20 +13038,20 @@
       <c r="K217" s="1">
         <v>0</v>
       </c>
+      <c r="L217">
+        <f>D217-D485</f>
+        <v>0</v>
+      </c>
       <c r="M217">
-        <f t="shared" si="12"/>
+        <f>F217-F485</f>
         <v>0</v>
       </c>
       <c r="N217">
-        <f t="shared" si="13"/>
+        <f>H217-H485</f>
         <v>0</v>
       </c>
       <c r="O217">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P217">
-        <f t="shared" si="15"/>
+        <f>J217-J485</f>
         <v>0</v>
       </c>
       <c r="R217" s="1"/>
@@ -13091,20 +13091,20 @@
       <c r="K218" s="1">
         <v>0</v>
       </c>
+      <c r="L218">
+        <f>D218-D486</f>
+        <v>-1000000</v>
+      </c>
       <c r="M218">
-        <f t="shared" si="12"/>
-        <v>-1000000</v>
+        <f>F218-F486</f>
+        <v>0</v>
       </c>
       <c r="N218">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>H218-H486</f>
+        <v>-16000000</v>
       </c>
       <c r="O218">
-        <f t="shared" si="14"/>
-        <v>-16000000</v>
-      </c>
-      <c r="P218">
-        <f t="shared" si="15"/>
+        <f>J218-J486</f>
         <v>-8000000</v>
       </c>
       <c r="R218" s="1"/>
@@ -13144,20 +13144,20 @@
       <c r="K219" s="1">
         <v>4.601769911504425E-4</v>
       </c>
+      <c r="L219">
+        <f>D219-D487</f>
+        <v>-22000000</v>
+      </c>
       <c r="M219">
-        <f t="shared" si="12"/>
-        <v>-22000000</v>
+        <f>F219-F487</f>
+        <v>55000000</v>
       </c>
       <c r="N219">
-        <f t="shared" si="13"/>
-        <v>55000000</v>
+        <f>H219-H487</f>
+        <v>90000000</v>
       </c>
       <c r="O219">
-        <f t="shared" si="14"/>
-        <v>90000000</v>
-      </c>
-      <c r="P219">
-        <f t="shared" si="15"/>
+        <f>J219-J487</f>
         <v>-494000000</v>
       </c>
       <c r="R219" s="1"/>
@@ -13197,20 +13197,20 @@
       <c r="K220" s="1">
         <v>0</v>
       </c>
+      <c r="L220">
+        <f>D220-D488</f>
+        <v>-2710000000</v>
+      </c>
       <c r="M220">
-        <f t="shared" si="12"/>
-        <v>-2710000000</v>
+        <f>F220-F488</f>
+        <v>-3905000000</v>
       </c>
       <c r="N220">
-        <f t="shared" si="13"/>
-        <v>-3905000000</v>
+        <f>H220-H488</f>
+        <v>-6728000000</v>
       </c>
       <c r="O220">
-        <f t="shared" si="14"/>
-        <v>-6728000000</v>
-      </c>
-      <c r="P220">
-        <f t="shared" si="15"/>
+        <f>J220-J488</f>
         <v>-1177000000</v>
       </c>
       <c r="R220" s="1"/>
@@ -13250,20 +13250,20 @@
       <c r="K221" s="1">
         <v>0</v>
       </c>
+      <c r="L221">
+        <f>D221-D489</f>
+        <v>0</v>
+      </c>
       <c r="M221">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>F221-F489</f>
+        <v>-82000000</v>
       </c>
       <c r="N221">
-        <f t="shared" si="13"/>
-        <v>-82000000</v>
+        <f>H221-H489</f>
+        <v>-142000000</v>
       </c>
       <c r="O221">
-        <f t="shared" si="14"/>
-        <v>-142000000</v>
-      </c>
-      <c r="P221">
-        <f t="shared" si="15"/>
+        <f>J221-J489</f>
         <v>-18000000</v>
       </c>
       <c r="R221" s="1"/>
@@ -13303,20 +13303,20 @@
       <c r="K222" s="1">
         <v>0</v>
       </c>
+      <c r="L222">
+        <f>D222-D490</f>
+        <v>-2710000000</v>
+      </c>
       <c r="M222">
-        <f t="shared" si="12"/>
-        <v>-2710000000</v>
+        <f>F222-F490</f>
+        <v>-3905000000</v>
       </c>
       <c r="N222">
-        <f t="shared" si="13"/>
-        <v>-3905000000</v>
+        <f>H222-H490</f>
+        <v>-6770000000</v>
       </c>
       <c r="O222">
-        <f t="shared" si="14"/>
-        <v>-6770000000</v>
-      </c>
-      <c r="P222">
-        <f t="shared" si="15"/>
+        <f>J222-J490</f>
         <v>-1177000000</v>
       </c>
       <c r="R222" s="1"/>
@@ -13356,20 +13356,20 @@
       <c r="K223" s="1">
         <v>0</v>
       </c>
+      <c r="L223">
+        <f>D223-D491</f>
+        <v>-369000000</v>
+      </c>
       <c r="M223">
-        <f t="shared" si="12"/>
-        <v>-369000000</v>
+        <f>F223-F491</f>
+        <v>0</v>
       </c>
       <c r="N223">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>H223-H491</f>
+        <v>-562000000</v>
       </c>
       <c r="O223">
-        <f t="shared" si="14"/>
-        <v>-562000000</v>
-      </c>
-      <c r="P223">
-        <f t="shared" si="15"/>
+        <f>J223-J491</f>
         <v>-313000000</v>
       </c>
       <c r="R223" s="1"/>
@@ -13409,20 +13409,20 @@
       <c r="K224" s="1">
         <v>0</v>
       </c>
+      <c r="L224">
+        <f>D224-D492</f>
+        <v>0</v>
+      </c>
       <c r="M224">
-        <f t="shared" si="12"/>
+        <f>F224-F492</f>
         <v>0</v>
       </c>
       <c r="N224">
-        <f t="shared" si="13"/>
+        <f>H224-H492</f>
         <v>0</v>
       </c>
       <c r="O224">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P224">
-        <f t="shared" si="15"/>
+        <f>J224-J492</f>
         <v>0</v>
       </c>
       <c r="R224" s="1"/>
@@ -13462,20 +13462,20 @@
       <c r="K225" s="1">
         <v>0</v>
       </c>
+      <c r="L225">
+        <f>D225-D493</f>
+        <v>-25000000</v>
+      </c>
       <c r="M225">
-        <f t="shared" si="12"/>
-        <v>-25000000</v>
+        <f>F225-F493</f>
+        <v>0</v>
       </c>
       <c r="N225">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>H225-H493</f>
+        <v>-10000000</v>
       </c>
       <c r="O225">
-        <f t="shared" si="14"/>
-        <v>-10000000</v>
-      </c>
-      <c r="P225">
-        <f t="shared" si="15"/>
+        <f>J225-J493</f>
         <v>0</v>
       </c>
       <c r="R225" s="1"/>
@@ -13515,20 +13515,20 @@
       <c r="K226" s="1">
         <v>2.0884955752212388E-3</v>
       </c>
+      <c r="L226">
+        <f>D226-D494</f>
+        <v>256000000</v>
+      </c>
       <c r="M226">
-        <f t="shared" si="12"/>
-        <v>256000000</v>
+        <f>F226-F494</f>
+        <v>66000000</v>
       </c>
       <c r="N226">
-        <f t="shared" si="13"/>
-        <v>66000000</v>
+        <f>H226-H494</f>
+        <v>-33000000</v>
       </c>
       <c r="O226">
-        <f t="shared" si="14"/>
-        <v>-33000000</v>
-      </c>
-      <c r="P226">
-        <f t="shared" si="15"/>
+        <f>J226-J494</f>
         <v>133000000</v>
       </c>
       <c r="R226" s="1"/>
@@ -13568,20 +13568,20 @@
       <c r="K227" s="1">
         <v>3.5398230088495576E-4</v>
       </c>
+      <c r="L227">
+        <f>D227-D495</f>
+        <v>-192000000</v>
+      </c>
       <c r="M227">
-        <f t="shared" si="12"/>
-        <v>-192000000</v>
+        <f>F227-F495</f>
+        <v>-35000000</v>
       </c>
       <c r="N227">
-        <f t="shared" si="13"/>
-        <v>-35000000</v>
+        <f>H227-H495</f>
+        <v>-59000000</v>
       </c>
       <c r="O227">
-        <f t="shared" si="14"/>
-        <v>-59000000</v>
-      </c>
-      <c r="P227">
-        <f t="shared" si="15"/>
+        <f>J227-J495</f>
         <v>5000000</v>
       </c>
       <c r="R227" s="1"/>
@@ -13621,20 +13621,20 @@
       <c r="K228" s="1">
         <v>8.6106194690265484E-3</v>
       </c>
+      <c r="L228">
+        <f>D228-D496</f>
+        <v>1958000000</v>
+      </c>
       <c r="M228">
-        <f t="shared" si="12"/>
-        <v>1958000000</v>
+        <f>F228-F496</f>
+        <v>2053000000</v>
       </c>
       <c r="N228">
-        <f t="shared" si="13"/>
-        <v>2053000000</v>
+        <f>H228-H496</f>
+        <v>2818000000</v>
       </c>
       <c r="O228">
-        <f t="shared" si="14"/>
-        <v>2818000000</v>
-      </c>
-      <c r="P228">
-        <f t="shared" si="15"/>
+        <f>J228-J496</f>
         <v>432000000</v>
       </c>
       <c r="R228" s="1"/>
@@ -13674,20 +13674,20 @@
       <c r="K229" s="1">
         <v>0</v>
       </c>
+      <c r="L229">
+        <f>D229-D497</f>
+        <v>-2000000</v>
+      </c>
       <c r="M229">
-        <f t="shared" si="12"/>
-        <v>-2000000</v>
+        <f>F229-F497</f>
+        <v>0</v>
       </c>
       <c r="N229">
-        <f t="shared" si="13"/>
+        <f>H229-H497</f>
         <v>0</v>
       </c>
       <c r="O229">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P229">
-        <f t="shared" si="15"/>
+        <f>J229-J497</f>
         <v>-2000000</v>
       </c>
       <c r="R229" s="1"/>
@@ -13727,20 +13727,20 @@
       <c r="K230" s="1">
         <v>0</v>
       </c>
+      <c r="L230">
+        <f>D230-D498</f>
+        <v>0</v>
+      </c>
       <c r="M230">
-        <f t="shared" si="12"/>
+        <f>F230-F498</f>
         <v>0</v>
       </c>
       <c r="N230">
-        <f t="shared" si="13"/>
+        <f>H230-H498</f>
         <v>0</v>
       </c>
       <c r="O230">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P230">
-        <f t="shared" si="15"/>
+        <f>J230-J498</f>
         <v>0</v>
       </c>
       <c r="R230" s="1"/>
@@ -13780,20 +13780,20 @@
       <c r="K231" s="1">
         <v>0</v>
       </c>
+      <c r="L231">
+        <f>D231-D499</f>
+        <v>1000000</v>
+      </c>
       <c r="M231">
-        <f t="shared" si="12"/>
-        <v>1000000</v>
+        <f>F231-F499</f>
+        <v>-15000000</v>
       </c>
       <c r="N231">
-        <f t="shared" si="13"/>
-        <v>-15000000</v>
+        <f>H231-H499</f>
+        <v>-52000000</v>
       </c>
       <c r="O231">
-        <f t="shared" si="14"/>
-        <v>-52000000</v>
-      </c>
-      <c r="P231">
-        <f t="shared" si="15"/>
+        <f>J231-J499</f>
         <v>-19000000</v>
       </c>
       <c r="R231" s="1"/>
@@ -13833,20 +13833,20 @@
       <c r="K232" s="1">
         <v>0</v>
       </c>
+      <c r="L232">
+        <f>D232-D500</f>
+        <v>-1036000000</v>
+      </c>
       <c r="M232">
-        <f t="shared" si="12"/>
-        <v>-1036000000</v>
+        <f>F232-F500</f>
+        <v>-656000000</v>
       </c>
       <c r="N232">
-        <f t="shared" si="13"/>
-        <v>-656000000</v>
+        <f>H232-H500</f>
+        <v>-2281000000</v>
       </c>
       <c r="O232">
-        <f t="shared" si="14"/>
-        <v>-2281000000</v>
-      </c>
-      <c r="P232">
-        <f t="shared" si="15"/>
+        <f>J232-J500</f>
         <v>-87000000</v>
       </c>
       <c r="R232" s="1"/>
@@ -13886,20 +13886,20 @@
       <c r="K233" s="1">
         <v>0</v>
       </c>
+      <c r="L233">
+        <f>D233-D501</f>
+        <v>0</v>
+      </c>
       <c r="M233">
-        <f t="shared" si="12"/>
+        <f>F233-F501</f>
         <v>0</v>
       </c>
       <c r="N233">
-        <f t="shared" si="13"/>
+        <f>H233-H501</f>
         <v>0</v>
       </c>
       <c r="O233">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P233">
-        <f t="shared" si="15"/>
+        <f>J233-J501</f>
         <v>0</v>
       </c>
       <c r="R233" s="1"/>
@@ -13939,20 +13939,20 @@
       <c r="K234" s="1">
         <v>0</v>
       </c>
+      <c r="L234">
+        <f>D234-D502</f>
+        <v>-34000000</v>
+      </c>
       <c r="M234">
-        <f t="shared" si="12"/>
-        <v>-34000000</v>
+        <f>F234-F502</f>
+        <v>-166000000</v>
       </c>
       <c r="N234">
-        <f t="shared" si="13"/>
-        <v>-166000000</v>
+        <f>H234-H502</f>
+        <v>-181000000</v>
       </c>
       <c r="O234">
-        <f t="shared" si="14"/>
-        <v>-181000000</v>
-      </c>
-      <c r="P234">
-        <f t="shared" si="15"/>
+        <f>J234-J502</f>
         <v>-78000000</v>
       </c>
       <c r="R234" s="1"/>
@@ -13992,20 +13992,20 @@
       <c r="K235" s="1">
         <v>5.7920353982300887E-2</v>
       </c>
+      <c r="L235">
+        <f>D235-D503</f>
+        <v>-30740000000</v>
+      </c>
       <c r="M235">
-        <f t="shared" si="12"/>
-        <v>-30740000000</v>
+        <f>F235-F503</f>
+        <v>-16849000000</v>
       </c>
       <c r="N235">
-        <f t="shared" si="13"/>
-        <v>-16849000000</v>
+        <f>H235-H503</f>
+        <v>-17003000000</v>
       </c>
       <c r="O235">
-        <f t="shared" si="14"/>
-        <v>-17003000000</v>
-      </c>
-      <c r="P235">
-        <f t="shared" si="15"/>
+        <f>J235-J503</f>
         <v>-882000000</v>
       </c>
       <c r="R235" s="1"/>
@@ -14045,20 +14045,20 @@
       <c r="K236" s="1">
         <v>0.1183362831858407</v>
       </c>
+      <c r="L236">
+        <f>D236-D504</f>
+        <v>41296000000</v>
+      </c>
       <c r="M236">
-        <f t="shared" si="12"/>
-        <v>41296000000</v>
+        <f>F236-F504</f>
+        <v>34244000000</v>
       </c>
       <c r="N236">
-        <f t="shared" si="13"/>
-        <v>34244000000</v>
+        <f>H236-H504</f>
+        <v>57639000000</v>
       </c>
       <c r="O236">
-        <f t="shared" si="14"/>
-        <v>57639000000</v>
-      </c>
-      <c r="P236">
-        <f t="shared" si="15"/>
+        <f>J236-J504</f>
         <v>-741000000</v>
       </c>
       <c r="R236" s="1"/>
@@ -14098,20 +14098,20 @@
       <c r="K237" s="1">
         <v>0</v>
       </c>
+      <c r="L237">
+        <f>D237-D505</f>
+        <v>-32000000</v>
+      </c>
       <c r="M237">
-        <f t="shared" si="12"/>
-        <v>-32000000</v>
+        <f>F237-F505</f>
+        <v>0</v>
       </c>
       <c r="N237">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>H237-H505</f>
+        <v>-22000000</v>
       </c>
       <c r="O237">
-        <f t="shared" si="14"/>
-        <v>-22000000</v>
-      </c>
-      <c r="P237">
-        <f t="shared" si="15"/>
+        <f>J237-J505</f>
         <v>-75000000</v>
       </c>
       <c r="R237" s="1"/>
@@ -14151,20 +14151,20 @@
       <c r="K238" s="1">
         <v>2.6548672566371683E-5</v>
       </c>
+      <c r="L238">
+        <f>D238-D506</f>
+        <v>-4712000000</v>
+      </c>
       <c r="M238">
-        <f t="shared" si="12"/>
-        <v>-4712000000</v>
+        <f>F238-F506</f>
+        <v>-335000000</v>
       </c>
       <c r="N238">
-        <f t="shared" si="13"/>
-        <v>-335000000</v>
+        <f>H238-H506</f>
+        <v>-2832000000</v>
       </c>
       <c r="O238">
-        <f t="shared" si="14"/>
-        <v>-2832000000</v>
-      </c>
-      <c r="P238">
-        <f t="shared" si="15"/>
+        <f>J238-J506</f>
         <v>-820000000</v>
       </c>
       <c r="R238" s="1"/>
@@ -14204,20 +14204,20 @@
       <c r="K239" s="1">
         <v>0</v>
       </c>
+      <c r="L239">
+        <f>D239-D507</f>
+        <v>-29000000</v>
+      </c>
       <c r="M239">
-        <f t="shared" si="12"/>
-        <v>-29000000</v>
+        <f>F239-F507</f>
+        <v>-54000000</v>
       </c>
       <c r="N239">
-        <f t="shared" si="13"/>
-        <v>-54000000</v>
+        <f>H239-H507</f>
+        <v>-39000000</v>
       </c>
       <c r="O239">
-        <f t="shared" si="14"/>
-        <v>-39000000</v>
-      </c>
-      <c r="P239">
-        <f t="shared" si="15"/>
+        <f>J239-J507</f>
         <v>-3000000</v>
       </c>
       <c r="R239" s="1"/>
@@ -14257,20 +14257,20 @@
       <c r="K240" s="1">
         <v>0</v>
       </c>
+      <c r="L240">
+        <f>D240-D508</f>
+        <v>-18000000</v>
+      </c>
       <c r="M240">
-        <f t="shared" si="12"/>
-        <v>-18000000</v>
+        <f>F240-F508</f>
+        <v>-64000000</v>
       </c>
       <c r="N240">
-        <f t="shared" si="13"/>
-        <v>-64000000</v>
+        <f>H240-H508</f>
+        <v>-1231000000</v>
       </c>
       <c r="O240">
-        <f t="shared" si="14"/>
-        <v>-1231000000</v>
-      </c>
-      <c r="P240">
-        <f t="shared" si="15"/>
+        <f>J240-J508</f>
         <v>-377000000</v>
       </c>
       <c r="R240" s="1"/>
@@ -14310,20 +14310,20 @@
       <c r="K241" s="1">
         <v>0</v>
       </c>
+      <c r="L241">
+        <f>D241-D509</f>
+        <v>-12746000000</v>
+      </c>
       <c r="M241">
-        <f t="shared" si="12"/>
-        <v>-12746000000</v>
+        <f>F241-F509</f>
+        <v>-7037000000</v>
       </c>
       <c r="N241">
-        <f t="shared" si="13"/>
-        <v>-7037000000</v>
+        <f>H241-H509</f>
+        <v>-11052000000</v>
       </c>
       <c r="O241">
-        <f t="shared" si="14"/>
-        <v>-11052000000</v>
-      </c>
-      <c r="P241">
-        <f t="shared" si="15"/>
+        <f>J241-J509</f>
         <v>-1542000000</v>
       </c>
       <c r="R241" s="1"/>
@@ -14363,20 +14363,20 @@
       <c r="K242" s="1">
         <v>0</v>
       </c>
+      <c r="L242">
+        <f>D242-D510</f>
+        <v>0</v>
+      </c>
       <c r="M242">
-        <f t="shared" si="12"/>
+        <f>F242-F510</f>
         <v>0</v>
       </c>
       <c r="N242">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>H242-H510</f>
+        <v>-32000000</v>
       </c>
       <c r="O242">
-        <f t="shared" si="14"/>
-        <v>-32000000</v>
-      </c>
-      <c r="P242">
-        <f t="shared" si="15"/>
+        <f>J242-J510</f>
         <v>0</v>
       </c>
       <c r="R242" s="1"/>
@@ -14416,20 +14416,20 @@
       <c r="K243" s="1">
         <v>0</v>
       </c>
+      <c r="L243">
+        <f>D243-D511</f>
+        <v>-27697000000</v>
+      </c>
       <c r="M243">
-        <f t="shared" si="12"/>
-        <v>-27697000000</v>
+        <f>F243-F511</f>
+        <v>-11151000000</v>
       </c>
       <c r="N243">
-        <f t="shared" si="13"/>
-        <v>-11151000000</v>
+        <f>H243-H511</f>
+        <v>-39838000000</v>
       </c>
       <c r="O243">
-        <f t="shared" si="14"/>
-        <v>-39838000000</v>
-      </c>
-      <c r="P243">
-        <f t="shared" si="15"/>
+        <f>J243-J511</f>
         <v>-7710000000</v>
       </c>
       <c r="R243" s="1"/>
@@ -14469,20 +14469,20 @@
       <c r="K244" s="1">
         <v>0</v>
       </c>
+      <c r="L244">
+        <f>D244-D512</f>
+        <v>-6000000</v>
+      </c>
       <c r="M244">
-        <f t="shared" si="12"/>
-        <v>-6000000</v>
+        <f>F244-F512</f>
+        <v>0</v>
       </c>
       <c r="N244">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>H244-H512</f>
+        <v>-12000000</v>
       </c>
       <c r="O244">
-        <f t="shared" si="14"/>
-        <v>-12000000</v>
-      </c>
-      <c r="P244">
-        <f t="shared" si="15"/>
+        <f>J244-J512</f>
         <v>-7000000</v>
       </c>
       <c r="R244" s="1"/>
@@ -14522,20 +14522,20 @@
       <c r="K245" s="1">
         <v>2.7168141592920354E-3</v>
       </c>
+      <c r="L245">
+        <f>D245-D513</f>
+        <v>-28816000000</v>
+      </c>
       <c r="M245">
-        <f t="shared" si="12"/>
-        <v>-28816000000</v>
+        <f>F245-F513</f>
+        <v>-16078000000</v>
       </c>
       <c r="N245">
-        <f t="shared" si="13"/>
-        <v>-16078000000</v>
+        <f>H245-H513</f>
+        <v>-49839000000</v>
       </c>
       <c r="O245">
-        <f t="shared" si="14"/>
-        <v>-49839000000</v>
-      </c>
-      <c r="P245">
-        <f t="shared" si="15"/>
+        <f>J245-J513</f>
         <v>-16492000000</v>
       </c>
       <c r="R245" s="1"/>
@@ -14575,20 +14575,20 @@
       <c r="K246" s="1">
         <v>0</v>
       </c>
+      <c r="L246">
+        <f>D246-D514</f>
+        <v>-2710000000</v>
+      </c>
       <c r="M246">
-        <f t="shared" si="12"/>
-        <v>-2710000000</v>
+        <f>F246-F514</f>
+        <v>-3905000000</v>
       </c>
       <c r="N246">
-        <f t="shared" si="13"/>
-        <v>-3905000000</v>
+        <f>H246-H514</f>
+        <v>-6770000000</v>
       </c>
       <c r="O246">
-        <f t="shared" si="14"/>
-        <v>-6770000000</v>
-      </c>
-      <c r="P246">
-        <f t="shared" si="15"/>
+        <f>J246-J514</f>
         <v>-1177000000</v>
       </c>
       <c r="R246" s="1"/>
@@ -14628,20 +14628,20 @@
       <c r="K247" s="1">
         <v>0</v>
       </c>
+      <c r="L247">
+        <f>D247-D515</f>
+        <v>-13000000</v>
+      </c>
       <c r="M247">
-        <f t="shared" si="12"/>
-        <v>-13000000</v>
+        <f>F247-F515</f>
+        <v>-6000000</v>
       </c>
       <c r="N247">
-        <f t="shared" si="13"/>
-        <v>-6000000</v>
+        <f>H247-H515</f>
+        <v>-124000000</v>
       </c>
       <c r="O247">
-        <f t="shared" si="14"/>
-        <v>-124000000</v>
-      </c>
-      <c r="P247">
-        <f t="shared" si="15"/>
+        <f>J247-J515</f>
         <v>-32000000</v>
       </c>
       <c r="R247" s="1"/>
@@ -14681,20 +14681,20 @@
       <c r="K248" s="1">
         <v>0</v>
       </c>
+      <c r="L248">
+        <f>D248-D516</f>
+        <v>-327000000</v>
+      </c>
       <c r="M248">
-        <f t="shared" si="12"/>
-        <v>-327000000</v>
+        <f>F248-F516</f>
+        <v>-173000000</v>
       </c>
       <c r="N248">
-        <f t="shared" si="13"/>
-        <v>-173000000</v>
+        <f>H248-H516</f>
+        <v>-442000000</v>
       </c>
       <c r="O248">
-        <f t="shared" si="14"/>
-        <v>-442000000</v>
-      </c>
-      <c r="P248">
-        <f t="shared" si="15"/>
+        <f>J248-J516</f>
         <v>-75000000</v>
       </c>
       <c r="R248" s="1"/>
@@ -14734,20 +14734,20 @@
       <c r="K249" s="1">
         <v>1.6778761061946902E-2</v>
       </c>
+      <c r="L249">
+        <f>D249-D517</f>
+        <v>-19064000000</v>
+      </c>
       <c r="M249">
-        <f t="shared" si="12"/>
-        <v>-19064000000</v>
+        <f>F249-F517</f>
+        <v>-3560000000</v>
       </c>
       <c r="N249">
-        <f t="shared" si="13"/>
-        <v>-3560000000</v>
+        <f>H249-H517</f>
+        <v>-5686000000</v>
       </c>
       <c r="O249">
-        <f t="shared" si="14"/>
-        <v>-5686000000</v>
-      </c>
-      <c r="P249">
-        <f t="shared" si="15"/>
+        <f>J249-J517</f>
         <v>384000000</v>
       </c>
       <c r="R249" s="1"/>
@@ -14787,20 +14787,20 @@
       <c r="K250" s="1">
         <v>0</v>
       </c>
+      <c r="L250">
+        <f>D250-D518</f>
+        <v>-6000000</v>
+      </c>
       <c r="M250">
-        <f t="shared" si="12"/>
-        <v>-6000000</v>
+        <f>F250-F518</f>
+        <v>0</v>
       </c>
       <c r="N250">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>H250-H518</f>
+        <v>-7000000</v>
       </c>
       <c r="O250">
-        <f t="shared" si="14"/>
-        <v>-7000000</v>
-      </c>
-      <c r="P250">
-        <f t="shared" si="15"/>
+        <f>J250-J518</f>
         <v>0</v>
       </c>
       <c r="R250" s="1"/>
@@ -14840,20 +14840,20 @@
       <c r="K251" s="1">
         <v>0</v>
       </c>
+      <c r="L251">
+        <f>D251-D519</f>
+        <v>-81000000</v>
+      </c>
       <c r="M251">
-        <f t="shared" si="12"/>
-        <v>-81000000</v>
+        <f>F251-F519</f>
+        <v>-52000000</v>
       </c>
       <c r="N251">
-        <f t="shared" si="13"/>
-        <v>-52000000</v>
+        <f>H251-H519</f>
+        <v>-384000000</v>
       </c>
       <c r="O251">
-        <f t="shared" si="14"/>
-        <v>-384000000</v>
-      </c>
-      <c r="P251">
-        <f t="shared" si="15"/>
+        <f>J251-J519</f>
         <v>-60000000</v>
       </c>
       <c r="R251" s="1"/>
@@ -14893,20 +14893,20 @@
       <c r="K252" s="1">
         <v>0</v>
       </c>
+      <c r="L252">
+        <f>D252-D520</f>
+        <v>-165000000</v>
+      </c>
       <c r="M252">
-        <f t="shared" si="12"/>
-        <v>-165000000</v>
+        <f>F252-F520</f>
+        <v>-93000000</v>
       </c>
       <c r="N252">
-        <f t="shared" si="13"/>
-        <v>-93000000</v>
+        <f>H252-H520</f>
+        <v>-799000000</v>
       </c>
       <c r="O252">
-        <f t="shared" si="14"/>
-        <v>-799000000</v>
-      </c>
-      <c r="P252">
-        <f t="shared" si="15"/>
+        <f>J252-J520</f>
         <v>-149000000</v>
       </c>
       <c r="R252" s="1"/>
@@ -14946,40 +14946,40 @@
       <c r="K253" s="1">
         <v>3.4424778761061947E-3</v>
       </c>
+      <c r="L253">
+        <f>D253-D521</f>
+        <v>4331000000</v>
+      </c>
       <c r="M253">
-        <f t="shared" si="12"/>
-        <v>4331000000</v>
+        <f>F253-F521</f>
+        <v>2500000000</v>
       </c>
       <c r="N253">
-        <f t="shared" si="13"/>
-        <v>2500000000</v>
+        <f>H253-H521</f>
+        <v>5364000000</v>
       </c>
       <c r="O253">
-        <f t="shared" si="14"/>
-        <v>5364000000</v>
-      </c>
-      <c r="P253">
-        <f t="shared" si="15"/>
+        <f>J253-J521</f>
         <v>-6476000000</v>
       </c>
       <c r="R253" s="1"/>
       <c r="T253" s="1"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L254">
+        <f>D254-D522</f>
+        <v>0</v>
+      </c>
       <c r="M254">
-        <f t="shared" si="12"/>
+        <f>F254-F522</f>
         <v>0</v>
       </c>
       <c r="N254">
-        <f t="shared" si="13"/>
+        <f>H254-H522</f>
         <v>0</v>
       </c>
       <c r="O254">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P254">
-        <f t="shared" si="15"/>
+        <f>J254-J522</f>
         <v>0</v>
       </c>
       <c r="R254" s="1"/>
@@ -15019,20 +15019,20 @@
       <c r="K255" s="1">
         <v>0</v>
       </c>
+      <c r="L255">
+        <f>D255-D523</f>
+        <v>-204000000</v>
+      </c>
       <c r="M255">
-        <f t="shared" si="12"/>
-        <v>-204000000</v>
+        <f>F255-F523</f>
+        <v>-138000000</v>
       </c>
       <c r="N255">
-        <f t="shared" si="13"/>
-        <v>-138000000</v>
+        <f>H255-H523</f>
+        <v>-55000000</v>
       </c>
       <c r="O255">
-        <f t="shared" si="14"/>
-        <v>-55000000</v>
-      </c>
-      <c r="P255">
-        <f t="shared" si="15"/>
+        <f>J255-J523</f>
         <v>-40000000</v>
       </c>
       <c r="R255" s="1"/>
@@ -15072,20 +15072,20 @@
       <c r="K256" s="1">
         <v>0.42022123893805308</v>
       </c>
+      <c r="L256">
+        <f>D256-D524</f>
+        <v>132001000000</v>
+      </c>
       <c r="M256">
-        <f t="shared" si="12"/>
-        <v>132001000000</v>
+        <f>F256-F524</f>
+        <v>38838000000</v>
       </c>
       <c r="N256">
-        <f t="shared" si="13"/>
-        <v>38838000000</v>
+        <f>H256-H524</f>
+        <v>87479000000</v>
       </c>
       <c r="O256">
-        <f t="shared" si="14"/>
-        <v>87479000000</v>
-      </c>
-      <c r="P256">
-        <f t="shared" si="15"/>
+        <f>J256-J524</f>
         <v>44395000000</v>
       </c>
       <c r="R256" s="1"/>
@@ -15125,20 +15125,20 @@
       <c r="K257" s="1">
         <v>0</v>
       </c>
+      <c r="L257">
+        <f>D257-D525</f>
+        <v>235000000</v>
+      </c>
       <c r="M257">
-        <f t="shared" si="12"/>
-        <v>235000000</v>
+        <f>F257-F525</f>
+        <v>339000000</v>
       </c>
       <c r="N257">
-        <f t="shared" si="13"/>
-        <v>339000000</v>
+        <f>H257-H525</f>
+        <v>121000000</v>
       </c>
       <c r="O257">
-        <f t="shared" si="14"/>
-        <v>121000000</v>
-      </c>
-      <c r="P257">
-        <f t="shared" si="15"/>
+        <f>J257-J525</f>
         <v>-145000000</v>
       </c>
       <c r="R257" s="1"/>
@@ -15175,20 +15175,20 @@
       <c r="K258" s="1">
         <v>0</v>
       </c>
+      <c r="L258">
+        <f>D258-D526</f>
+        <v>0</v>
+      </c>
       <c r="M258">
-        <f t="shared" si="12"/>
+        <f>F258-F526</f>
         <v>0</v>
       </c>
       <c r="N258">
-        <f t="shared" si="13"/>
+        <f>H258-H526</f>
         <v>0</v>
       </c>
       <c r="O258">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P258">
-        <f t="shared" si="15"/>
+        <f>J258-J526</f>
         <v>0</v>
       </c>
       <c r="R258" s="1"/>
@@ -15225,20 +15225,20 @@
       <c r="K259" s="1">
         <v>0</v>
       </c>
+      <c r="L259">
+        <f>D259-D527</f>
+        <v>-875000000</v>
+      </c>
       <c r="M259">
-        <f t="shared" si="12"/>
-        <v>-875000000</v>
+        <f>F259-F527</f>
+        <v>-2230000000</v>
       </c>
       <c r="N259">
-        <f t="shared" si="13"/>
-        <v>-2230000000</v>
+        <f>H259-H527</f>
+        <v>-2906000000</v>
       </c>
       <c r="O259">
-        <f t="shared" si="14"/>
-        <v>-2906000000</v>
-      </c>
-      <c r="P259">
-        <f t="shared" si="15"/>
+        <f>J259-J527</f>
         <v>-160000000</v>
       </c>
       <c r="R259" s="1"/>
@@ -15275,20 +15275,20 @@
       <c r="K260" s="1">
         <v>0</v>
       </c>
+      <c r="L260">
+        <f>D260-D528</f>
+        <v>0</v>
+      </c>
       <c r="M260">
-        <f t="shared" si="12"/>
+        <f>F260-F528</f>
         <v>0</v>
       </c>
       <c r="N260">
-        <f t="shared" si="13"/>
+        <f>H260-H528</f>
         <v>0</v>
       </c>
       <c r="O260">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P260">
-        <f t="shared" si="15"/>
+        <f>J260-J528</f>
         <v>0</v>
       </c>
       <c r="R260" s="1"/>
@@ -15325,20 +15325,20 @@
       <c r="K261" s="1">
         <v>0</v>
       </c>
+      <c r="L261">
+        <f>D261-D529</f>
+        <v>0</v>
+      </c>
       <c r="M261">
-        <f t="shared" si="12"/>
+        <f>F261-F529</f>
         <v>0</v>
       </c>
       <c r="N261">
-        <f t="shared" si="13"/>
+        <f>H261-H529</f>
         <v>0</v>
       </c>
       <c r="O261">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P261">
-        <f t="shared" si="15"/>
+        <f>J261-J529</f>
         <v>0</v>
       </c>
       <c r="R261" s="1"/>
@@ -15375,20 +15375,20 @@
       <c r="K262" s="1">
         <v>0</v>
       </c>
+      <c r="L262">
+        <f>D262-D530</f>
+        <v>-1163000000</v>
+      </c>
       <c r="M262">
-        <f t="shared" ref="M262:M325" si="16">D262-D530</f>
-        <v>-1163000000</v>
+        <f>F262-F530</f>
+        <v>-803000000</v>
       </c>
       <c r="N262">
-        <f t="shared" ref="N262:N325" si="17">F262-F530</f>
-        <v>-803000000</v>
+        <f>H262-H530</f>
+        <v>-6875000000</v>
       </c>
       <c r="O262">
-        <f t="shared" ref="O262:O325" si="18">H262-H530</f>
-        <v>-6875000000</v>
-      </c>
-      <c r="P262">
-        <f t="shared" ref="P262:P325" si="19">J262-J530</f>
+        <f>J262-J530</f>
         <v>-429000000</v>
       </c>
       <c r="R262" s="1"/>
@@ -15425,20 +15425,20 @@
       <c r="K263" s="1">
         <v>0</v>
       </c>
+      <c r="L263">
+        <f>D263-D531</f>
+        <v>0</v>
+      </c>
       <c r="M263">
-        <f t="shared" si="16"/>
+        <f>F263-F531</f>
         <v>0</v>
       </c>
       <c r="N263">
-        <f t="shared" si="17"/>
+        <f>H263-H531</f>
         <v>0</v>
       </c>
       <c r="O263">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P263">
-        <f t="shared" si="19"/>
+        <f>J263-J531</f>
         <v>-7000000</v>
       </c>
       <c r="R263" s="1"/>
@@ -15475,20 +15475,20 @@
       <c r="K264" s="1">
         <v>0</v>
       </c>
+      <c r="L264">
+        <f>D264-D532</f>
+        <v>0</v>
+      </c>
       <c r="M264">
-        <f t="shared" si="16"/>
+        <f>F264-F532</f>
         <v>0</v>
       </c>
       <c r="N264">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>H264-H532</f>
+        <v>-7000000</v>
       </c>
       <c r="O264">
-        <f t="shared" si="18"/>
-        <v>-7000000</v>
-      </c>
-      <c r="P264">
-        <f t="shared" si="19"/>
+        <f>J264-J532</f>
         <v>0</v>
       </c>
       <c r="R264" s="1"/>
@@ -15525,20 +15525,20 @@
       <c r="K265" s="1">
         <v>0</v>
       </c>
+      <c r="L265">
+        <f>D265-D533</f>
+        <v>0</v>
+      </c>
       <c r="M265">
-        <f t="shared" si="16"/>
+        <f>F265-F533</f>
         <v>0</v>
       </c>
       <c r="N265">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>H265-H533</f>
+        <v>-2000000</v>
       </c>
       <c r="O265">
-        <f t="shared" si="18"/>
-        <v>-2000000</v>
-      </c>
-      <c r="P265">
-        <f t="shared" si="19"/>
+        <f>J265-J533</f>
         <v>-28000000</v>
       </c>
       <c r="R265" s="1"/>
@@ -15578,20 +15578,20 @@
       <c r="K266" s="1">
         <v>0</v>
       </c>
+      <c r="L266">
+        <f>D266-D534</f>
+        <v>-1208000000</v>
+      </c>
       <c r="M266">
-        <f t="shared" si="16"/>
-        <v>-1208000000</v>
+        <f>F266-F534</f>
+        <v>-709000000</v>
       </c>
       <c r="N266">
-        <f t="shared" si="17"/>
-        <v>-709000000</v>
+        <f>H266-H534</f>
+        <v>-430000000</v>
       </c>
       <c r="O266">
-        <f t="shared" si="18"/>
-        <v>-430000000</v>
-      </c>
-      <c r="P266">
-        <f t="shared" si="19"/>
+        <f>J266-J534</f>
         <v>-1000000</v>
       </c>
       <c r="R266" s="1"/>
@@ -15631,20 +15631,20 @@
       <c r="K267" s="1">
         <v>2.6637168141592921E-3</v>
       </c>
+      <c r="L267">
+        <f>D267-D535</f>
+        <v>-575000000</v>
+      </c>
       <c r="M267">
-        <f t="shared" si="16"/>
-        <v>-575000000</v>
+        <f>F267-F535</f>
+        <v>-1850000000</v>
       </c>
       <c r="N267">
-        <f t="shared" si="17"/>
-        <v>-1850000000</v>
+        <f>H267-H535</f>
+        <v>546000000</v>
       </c>
       <c r="O267">
-        <f t="shared" si="18"/>
-        <v>546000000</v>
-      </c>
-      <c r="P267">
-        <f t="shared" si="19"/>
+        <f>J267-J535</f>
         <v>241000000</v>
       </c>
       <c r="R267" s="1"/>
@@ -15663,20 +15663,20 @@
       <c r="E268" s="1">
         <v>0</v>
       </c>
+      <c r="L268">
+        <f>D268-D536</f>
+        <v>0</v>
+      </c>
       <c r="M268">
-        <f t="shared" si="16"/>
+        <f>F268-F536</f>
         <v>0</v>
       </c>
       <c r="N268">
-        <f t="shared" si="17"/>
+        <f>H268-H536</f>
         <v>0</v>
       </c>
       <c r="O268">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P268">
-        <f t="shared" si="19"/>
+        <f>J268-J536</f>
         <v>0</v>
       </c>
       <c r="R268" s="1"/>
@@ -15695,20 +15695,20 @@
       <c r="E269" s="1">
         <v>0</v>
       </c>
+      <c r="L269">
+        <f>D269-D537</f>
+        <v>0</v>
+      </c>
       <c r="M269">
-        <f t="shared" si="16"/>
+        <f>F269-F537</f>
         <v>0</v>
       </c>
       <c r="N269">
-        <f t="shared" si="17"/>
+        <f>H269-H537</f>
         <v>0</v>
       </c>
       <c r="O269">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P269">
-        <f t="shared" si="19"/>
+        <f>J269-J537</f>
         <v>0</v>
       </c>
       <c r="R269" s="1"/>
@@ -15745,20 +15745,20 @@
       <c r="J270">
         <v>112758000000</v>
       </c>
-      <c r="M270">
+      <c r="L270">
         <f>D270-D538</f>
         <v>875000000</v>
       </c>
+      <c r="M270">
+        <f>F270-F538</f>
+        <v>645000000</v>
+      </c>
       <c r="N270">
-        <f t="shared" si="17"/>
-        <v>645000000</v>
+        <f>H270-H538</f>
+        <v>627000000</v>
       </c>
       <c r="O270">
-        <f t="shared" si="18"/>
-        <v>627000000</v>
-      </c>
-      <c r="P270">
-        <f t="shared" si="19"/>
+        <f>J270-J538</f>
         <v>1215000000</v>
       </c>
       <c r="R270" s="1"/>
